--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="3200" windowWidth="25600" windowHeight="16060" tabRatio="529"/>
+    <workbookView xWindow="4260" yWindow="1480" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
   <si>
     <t>skeletonWarrior</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -371,6 +371,10 @@
   </si>
   <si>
     <t>INT_upgradeTechPointNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_killScore</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +532,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="946">
+  <cellStyleXfs count="952">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -543,6 +547,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1498,7 +1508,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="946">
+  <cellStyles count="952">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1974,6 +1984,9 @@
     <cellStyle name="超链接" xfId="940" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="942" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="944" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="946" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="948" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="950" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2442,6 +2455,9 @@
     <cellStyle name="访问过的超链接" xfId="941" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="943" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="945" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="947" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="949" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="951" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2891,10 +2907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showRuler="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2902,7 +2918,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -2946,49 +2962,52 @@
         <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="20" customHeight="1">
+    <row r="2" spans="1:29" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -3034,38 +3053,38 @@
       <c r="O2" s="1">
         <v>1</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
         <v>0</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>500</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>300</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>200</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>30</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>0</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>167</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>100</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>67</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>10</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>50</v>
       </c>
       <c r="AA2" s="1">
         <v>50</v>
@@ -3073,8 +3092,11 @@
       <c r="AB2" s="1">
         <v>50</v>
       </c>
+      <c r="AC2" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" ht="20" customHeight="1">
+    <row r="3" spans="1:29" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3120,47 +3142,50 @@
       <c r="O3" s="1">
         <v>1</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
         <v>0</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>850</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>510</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>340</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>30</v>
       </c>
-      <c r="U3" s="3">
+      <c r="V3" s="3">
         <v>0</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>284</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>170</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>114</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>10</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="AA3" s="5">
         <v>100</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>100</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AC3" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="20" customHeight="1">
+    <row r="4" spans="1:29" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -3206,47 +3231,50 @@
       <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
         <v>0</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>1200</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>720</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>480</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>30</v>
       </c>
-      <c r="U4" s="3">
+      <c r="V4" s="3">
         <v>0</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>400</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>240</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>160</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <v>10</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="AA4" s="5">
         <v>200</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <v>200</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AC4" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="20" customHeight="1">
+    <row r="5" spans="1:29" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3292,38 +3320,38 @@
       <c r="O5" s="1">
         <v>1</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
         <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>440</v>
       </c>
       <c r="R5" s="1">
         <v>440</v>
       </c>
       <c r="S5" s="1">
+        <v>440</v>
+      </c>
+      <c r="T5" s="1">
         <v>220</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>35</v>
       </c>
-      <c r="U5" s="3">
+      <c r="V5" s="3">
         <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>147</v>
       </c>
       <c r="W5" s="1">
         <v>147</v>
       </c>
       <c r="X5" s="1">
+        <v>147</v>
+      </c>
+      <c r="Y5" s="1">
         <v>74</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <v>12</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>50</v>
       </c>
       <c r="AA5" s="1">
         <v>50</v>
@@ -3331,8 +3359,11 @@
       <c r="AB5" s="1">
         <v>50</v>
       </c>
+      <c r="AC5" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" ht="20" customHeight="1">
+    <row r="6" spans="1:29" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3378,47 +3409,50 @@
       <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
         <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>748</v>
       </c>
       <c r="R6" s="1">
         <v>748</v>
       </c>
       <c r="S6" s="1">
+        <v>748</v>
+      </c>
+      <c r="T6" s="1">
         <v>374</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>35</v>
       </c>
-      <c r="U6" s="3">
+      <c r="V6" s="3">
         <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>250</v>
       </c>
       <c r="W6" s="1">
         <v>250</v>
       </c>
       <c r="X6" s="1">
+        <v>250</v>
+      </c>
+      <c r="Y6" s="1">
         <v>125</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>12</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AA6" s="5">
         <v>100</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>100</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AC6" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="20" customHeight="1">
+    <row r="7" spans="1:29" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -3464,47 +3498,50 @@
       <c r="O7" s="1">
         <v>1</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
         <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1056</v>
       </c>
       <c r="R7" s="1">
         <v>1056</v>
       </c>
       <c r="S7" s="1">
+        <v>1056</v>
+      </c>
+      <c r="T7" s="1">
         <v>528</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>35</v>
       </c>
-      <c r="U7" s="3">
+      <c r="V7" s="3">
         <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>352</v>
       </c>
       <c r="W7" s="1">
         <v>352</v>
       </c>
       <c r="X7" s="1">
+        <v>352</v>
+      </c>
+      <c r="Y7" s="1">
         <v>176</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <v>12</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AA7" s="5">
         <v>200</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AB7" s="1">
         <v>200</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AC7" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="20" customHeight="1">
+    <row r="8" spans="1:29" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -3550,38 +3587,38 @@
       <c r="O8" s="1">
         <v>1</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
         <v>525</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>315</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>210</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>50</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>175</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>105</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>0</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>70</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <v>17</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>50</v>
       </c>
       <c r="AA8" s="1">
         <v>50</v>
@@ -3589,8 +3626,11 @@
       <c r="AB8" s="1">
         <v>50</v>
       </c>
+      <c r="AC8" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" ht="20" customHeight="1">
+    <row r="9" spans="1:29" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -3636,47 +3676,50 @@
       <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
         <v>893</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>536</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>357</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>50</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>298</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>179</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>0</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>119</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>17</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="AA9" s="5">
         <v>100</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>100</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AC9" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="20" customHeight="1">
+    <row r="10" spans="1:29" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -3722,47 +3765,50 @@
       <c r="O10" s="1">
         <v>1</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1260</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>756</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>504</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>50</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>420</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>252</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>0</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>168</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <v>17</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="AA10" s="5">
         <v>200</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AB10" s="1">
         <v>200</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AC10" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="20" customHeight="1">
+    <row r="11" spans="1:29" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -3808,38 +3854,38 @@
       <c r="O11" s="1">
         <v>1</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
         <v>525</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>315</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>210</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>55</v>
       </c>
-      <c r="U11" s="3">
+      <c r="V11" s="3">
         <v>175</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>105</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>0</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>70</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>19</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>50</v>
       </c>
       <c r="AA11" s="1">
         <v>50</v>
@@ -3847,8 +3893,11 @@
       <c r="AB11" s="1">
         <v>50</v>
       </c>
+      <c r="AC11" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" ht="20" customHeight="1">
+    <row r="12" spans="1:29" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -3894,47 +3943,50 @@
       <c r="O12" s="1">
         <v>1</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
         <v>893</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>536</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>357</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>55</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>298</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>179</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>0</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>119</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <v>19</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="AA12" s="5">
         <v>100</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>100</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AC12" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="20" customHeight="1">
+    <row r="13" spans="1:29" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -3980,47 +4032,50 @@
       <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
         <v>1260</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>756</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>504</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>55</v>
       </c>
-      <c r="U13" s="3">
+      <c r="V13" s="3">
         <v>420</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>252</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>0</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>168</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>19</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AA13" s="5">
         <v>200</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>200</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AC13" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="20" customHeight="1">
+    <row r="14" spans="1:29" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -4066,38 +4121,38 @@
       <c r="O14" s="1">
         <v>2</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <v>1000</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>400</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>110</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>0</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>334</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>134</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
         <v>37</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>50</v>
       </c>
       <c r="AA14" s="1">
         <v>50</v>
@@ -4105,8 +4160,11 @@
       <c r="AB14" s="1">
         <v>50</v>
       </c>
+      <c r="AC14" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" ht="20" customHeight="1">
+    <row r="15" spans="1:29" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -4152,47 +4210,50 @@
       <c r="O15" s="1">
         <v>2</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1020</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>1700</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>680</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>110</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>340</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>0</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <v>567</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <v>227</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>37</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="AA15" s="5">
         <v>100</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AB15" s="1">
         <v>100</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AC15" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="20" customHeight="1">
+    <row r="16" spans="1:29" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -4238,47 +4299,50 @@
       <c r="O16" s="1">
         <v>2</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="3">
         <v>1440</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <v>2400</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>960</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>110</v>
       </c>
-      <c r="U16" s="3">
+      <c r="V16" s="3">
         <v>480</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>0</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>800</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <v>320</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>37</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="AA16" s="5">
         <v>200</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AB16" s="1">
         <v>200</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AC16" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="20" customHeight="1">
+    <row r="17" spans="1:29" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -4324,38 +4388,38 @@
       <c r="O17" s="1">
         <v>2</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="3">
         <v>880</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>880</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>440</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>120</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>294</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>0</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>294</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>147</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>40</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>50</v>
       </c>
       <c r="AA17" s="1">
         <v>50</v>
@@ -4363,8 +4427,11 @@
       <c r="AB17" s="1">
         <v>50</v>
       </c>
+      <c r="AC17" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" ht="20" customHeight="1">
+    <row r="18" spans="1:29" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -4410,47 +4477,50 @@
       <c r="O18" s="1">
         <v>2</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1496</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <v>1496</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <v>748</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <v>120</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>499</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>0</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <v>499</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <v>250</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1">
         <v>40</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="AA18" s="5">
         <v>100</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <v>100</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AC18" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="20" customHeight="1">
+    <row r="19" spans="1:29" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -4496,47 +4566,50 @@
       <c r="O19" s="1">
         <v>2</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="3">
         <v>2112</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>2112</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>1056</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>120</v>
       </c>
-      <c r="U19" s="3">
+      <c r="V19" s="3">
         <v>704</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>0</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>704</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
         <v>352</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1">
         <v>40</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="AA19" s="5">
         <v>200</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AB19" s="1">
         <v>200</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AC19" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="20" customHeight="1">
+    <row r="20" spans="1:29" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4582,38 +4655,38 @@
       <c r="O20" s="1">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>1200</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <v>400</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>800</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>180</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>400</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>134</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <v>267</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
         <v>60</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>50</v>
       </c>
       <c r="AA20" s="1">
         <v>50</v>
@@ -4621,8 +4694,11 @@
       <c r="AB20" s="1">
         <v>50</v>
       </c>
+      <c r="AC20" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" ht="20" customHeight="1">
+    <row r="21" spans="1:29" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4668,47 +4744,50 @@
       <c r="O21" s="1">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2040</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>2040</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="1">
         <v>680</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <v>1360</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>180</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>680</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>680</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="1">
         <v>227</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <v>454</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Z21" s="1">
         <v>60</v>
       </c>
-      <c r="Z21" s="5">
+      <c r="AA21" s="5">
         <v>100</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>100</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AC21" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="20" customHeight="1">
+    <row r="22" spans="1:29" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4754,47 +4833,50 @@
       <c r="O22" s="1">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2880</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>2880</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <v>960</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <v>1920</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>180</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>960</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>960</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <v>320</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>640</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>60</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="AA22" s="5">
         <v>200</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>200</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AC22" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="20" customHeight="1">
+    <row r="23" spans="1:29" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -4840,10 +4922,10 @@
       <c r="O23" s="1">
         <v>4</v>
       </c>
-      <c r="P23" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="P23" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
       <c r="R23" s="1">
@@ -4853,12 +4935,12 @@
         <v>1100</v>
       </c>
       <c r="T23" s="1">
+        <v>1100</v>
+      </c>
+      <c r="U23" s="1">
         <v>190</v>
       </c>
-      <c r="U23" s="3">
-        <v>367</v>
-      </c>
-      <c r="V23" s="1">
+      <c r="V23" s="3">
         <v>367</v>
       </c>
       <c r="W23" s="1">
@@ -4868,10 +4950,10 @@
         <v>367</v>
       </c>
       <c r="Y23" s="1">
+        <v>367</v>
+      </c>
+      <c r="Z23" s="1">
         <v>64</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>50</v>
       </c>
       <c r="AA23" s="1">
         <v>50</v>
@@ -4879,8 +4961,11 @@
       <c r="AB23" s="1">
         <v>50</v>
       </c>
+      <c r="AC23" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" ht="20" customHeight="1">
+    <row r="24" spans="1:29" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -4926,10 +5011,10 @@
       <c r="O24" s="1">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>1870</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="P24" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1870</v>
       </c>
       <c r="R24" s="1">
@@ -4939,12 +5024,12 @@
         <v>1870</v>
       </c>
       <c r="T24" s="1">
+        <v>1870</v>
+      </c>
+      <c r="U24" s="1">
         <v>190</v>
       </c>
-      <c r="U24" s="3">
-        <v>624</v>
-      </c>
-      <c r="V24" s="1">
+      <c r="V24" s="3">
         <v>624</v>
       </c>
       <c r="W24" s="1">
@@ -4954,19 +5039,22 @@
         <v>624</v>
       </c>
       <c r="Y24" s="1">
+        <v>624</v>
+      </c>
+      <c r="Z24" s="1">
         <v>64</v>
       </c>
-      <c r="Z24" s="5">
+      <c r="AA24" s="5">
         <v>100</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AB24" s="1">
         <v>100</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AC24" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="20" customHeight="1">
+    <row r="25" spans="1:29" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -5012,10 +5100,10 @@
       <c r="O25" s="1">
         <v>4</v>
       </c>
-      <c r="P25" s="3">
-        <v>2640</v>
-      </c>
-      <c r="Q25" s="1">
+      <c r="P25" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="3">
         <v>2640</v>
       </c>
       <c r="R25" s="1">
@@ -5025,12 +5113,12 @@
         <v>2640</v>
       </c>
       <c r="T25" s="1">
+        <v>2640</v>
+      </c>
+      <c r="U25" s="1">
         <v>190</v>
       </c>
-      <c r="U25" s="3">
-        <v>880</v>
-      </c>
-      <c r="V25" s="1">
+      <c r="V25" s="3">
         <v>880</v>
       </c>
       <c r="W25" s="1">
@@ -5040,19 +5128,22 @@
         <v>880</v>
       </c>
       <c r="Y25" s="1">
+        <v>880</v>
+      </c>
+      <c r="Z25" s="1">
         <v>64</v>
       </c>
-      <c r="Z25" s="5">
+      <c r="AA25" s="5">
         <v>200</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>200</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AC25" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="20" customHeight="1">
+    <row r="26" spans="1:29" ht="20" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="D26" s="4"/>
@@ -5060,7 +5151,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:28" ht="20" customHeight="1">
+    <row r="27" spans="1:29" ht="20" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="D27" s="4"/>
@@ -5068,7 +5159,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:28" ht="20" customHeight="1">
+    <row r="28" spans="1:29" ht="20" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="D28" s="4"/>
@@ -5076,7 +5167,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:28" ht="20" customHeight="1">
+    <row r="29" spans="1:29" ht="20" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="D29" s="4"/>
@@ -5084,7 +5175,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:28" ht="20" customHeight="1">
+    <row r="30" spans="1:29" ht="20" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="D30" s="4"/>
@@ -5092,7 +5183,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:28" ht="20" customHeight="1">
+    <row r="31" spans="1:29" ht="20" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="D31" s="4"/>
@@ -5100,7 +5191,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:28" ht="20" customHeight="1">
+    <row r="32" spans="1:29" ht="20" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="D32" s="4"/>
@@ -5130,10 +5221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5141,11 +5232,11 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1"/>
     <col min="3" max="3" width="36.1640625" style="1" customWidth="1"/>
-    <col min="4" max="15" width="17" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="20.6640625" style="1"/>
+    <col min="4" max="16" width="17" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -5189,13 +5280,16 @@
         <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20" customHeight="1">
+    <row r="2" spans="1:17" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5242,10 +5336,13 @@
         <v>1</v>
       </c>
       <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="20" customHeight="1">
+    <row r="3" spans="1:17" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5292,10 +5389,13 @@
         <v>1</v>
       </c>
       <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="20" customHeight="1">
+    <row r="4" spans="1:17" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5342,10 +5442,13 @@
         <v>2</v>
       </c>
       <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="20" customHeight="1">
+    <row r="5" spans="1:17" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5392,10 +5495,13 @@
         <v>4</v>
       </c>
       <c r="P5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="20" customHeight="1">
+    <row r="6" spans="1:17" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5442,10 +5548,13 @@
         <v>1</v>
       </c>
       <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="20" customHeight="1">
+    <row r="7" spans="1:17" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -5492,10 +5601,13 @@
         <v>1</v>
       </c>
       <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="20" customHeight="1">
+    <row r="8" spans="1:17" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -5542,10 +5654,13 @@
         <v>2</v>
       </c>
       <c r="P8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="20" customHeight="1">
+    <row r="9" spans="1:17" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5592,6 +5707,9 @@
         <v>4</v>
       </c>
       <c r="P9" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="1">
         <v>280</v>
       </c>
     </row>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="1480" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="7640" yWindow="3560" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
   <si>
     <t>skeletonWarrior</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -322,10 +322,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_consumeFood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_key</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -375,6 +371,14 @@
   </si>
   <si>
     <t>INT_killScore</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_consumeFoodPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_consumeFoodPerHour</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2909,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2920,7 +2924,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>68</v>
@@ -2959,10 +2963,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>54</v>
@@ -2998,13 +3002,13 @@
         <v>53</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="20" customHeight="1">
@@ -3012,7 +3016,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>60</v>
@@ -3101,7 +3105,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
@@ -3190,7 +3194,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>60</v>
@@ -3279,7 +3283,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -3368,7 +3372,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>59</v>
@@ -3457,7 +3461,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>59</v>
@@ -3546,7 +3550,7 @@
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>62</v>
@@ -3635,7 +3639,7 @@
         <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>62</v>
@@ -3724,7 +3728,7 @@
         <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>62</v>
@@ -3813,7 +3817,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>61</v>
@@ -3902,7 +3906,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>61</v>
@@ -3991,7 +3995,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>61</v>
@@ -4080,7 +4084,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>63</v>
@@ -4169,7 +4173,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>63</v>
@@ -4258,7 +4262,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>63</v>
@@ -4347,7 +4351,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>63</v>
@@ -4436,7 +4440,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>63</v>
@@ -4525,7 +4529,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>63</v>
@@ -4614,7 +4618,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>64</v>
@@ -4703,7 +4707,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>64</v>
@@ -4792,7 +4796,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>64</v>
@@ -4881,7 +4885,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>64</v>
@@ -4970,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>64</v>
@@ -5059,7 +5063,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>64</v>
@@ -5223,8 +5227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5277,10 +5281,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>55</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="3560" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="10160" yWindow="3560" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>skeletonWarrior</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -380,6 +380,22 @@
   <si>
     <t>INT_consumeFoodPerHour</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_techBuildingName</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainingGround</t>
+  </si>
+  <si>
+    <t>hunterHall</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>workshop</t>
   </si>
 </sst>
 </file>
@@ -536,7 +552,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="952">
+  <cellStyleXfs count="974">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -551,6 +567,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1512,7 +1550,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="952">
+  <cellStyles count="974">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1991,6 +2029,17 @@
     <cellStyle name="超链接" xfId="946" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="948" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="950" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="952" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="954" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="956" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="958" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="960" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="962" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="964" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="966" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="968" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="970" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="972" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2462,6 +2511,17 @@
     <cellStyle name="访问过的超链接" xfId="947" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="949" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="951" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="953" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="955" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="957" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="959" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="961" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="963" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="965" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="967" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="969" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="971" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="973" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2911,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2922,7 +2982,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -3010,8 +3070,11 @@
       <c r="AC1" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" ht="20" customHeight="1">
+    <row r="2" spans="1:30" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -3099,8 +3162,11 @@
       <c r="AC2" s="1">
         <v>50</v>
       </c>
+      <c r="AD2" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" ht="20" customHeight="1">
+    <row r="3" spans="1:30" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -3188,8 +3254,11 @@
       <c r="AC3" s="5">
         <v>100</v>
       </c>
+      <c r="AD3" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" ht="20" customHeight="1">
+    <row r="4" spans="1:30" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3346,11 @@
       <c r="AC4" s="5">
         <v>200</v>
       </c>
+      <c r="AD4" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" ht="20" customHeight="1">
+    <row r="5" spans="1:30" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3366,8 +3438,11 @@
       <c r="AC5" s="1">
         <v>50</v>
       </c>
+      <c r="AD5" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" ht="20" customHeight="1">
+    <row r="6" spans="1:30" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3455,8 +3530,11 @@
       <c r="AC6" s="5">
         <v>100</v>
       </c>
+      <c r="AD6" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" ht="20" customHeight="1">
+    <row r="7" spans="1:30" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -3544,8 +3622,11 @@
       <c r="AC7" s="5">
         <v>200</v>
       </c>
+      <c r="AD7" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" ht="20" customHeight="1">
+    <row r="8" spans="1:30" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -3633,8 +3714,11 @@
       <c r="AC8" s="1">
         <v>50</v>
       </c>
+      <c r="AD8" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" ht="20" customHeight="1">
+    <row r="9" spans="1:30" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -3722,8 +3806,11 @@
       <c r="AC9" s="5">
         <v>100</v>
       </c>
+      <c r="AD9" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" ht="20" customHeight="1">
+    <row r="10" spans="1:30" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -3811,8 +3898,11 @@
       <c r="AC10" s="5">
         <v>200</v>
       </c>
+      <c r="AD10" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" ht="20" customHeight="1">
+    <row r="11" spans="1:30" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -3900,8 +3990,11 @@
       <c r="AC11" s="1">
         <v>50</v>
       </c>
+      <c r="AD11" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" ht="20" customHeight="1">
+    <row r="12" spans="1:30" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -3989,8 +4082,11 @@
       <c r="AC12" s="5">
         <v>100</v>
       </c>
+      <c r="AD12" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" ht="20" customHeight="1">
+    <row r="13" spans="1:30" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -4078,8 +4174,11 @@
       <c r="AC13" s="5">
         <v>200</v>
       </c>
+      <c r="AD13" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" ht="20" customHeight="1">
+    <row r="14" spans="1:30" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -4167,8 +4266,11 @@
       <c r="AC14" s="1">
         <v>50</v>
       </c>
+      <c r="AD14" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" ht="20" customHeight="1">
+    <row r="15" spans="1:30" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -4256,8 +4358,11 @@
       <c r="AC15" s="5">
         <v>100</v>
       </c>
+      <c r="AD15" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" ht="20" customHeight="1">
+    <row r="16" spans="1:30" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -4345,8 +4450,11 @@
       <c r="AC16" s="5">
         <v>200</v>
       </c>
+      <c r="AD16" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" ht="20" customHeight="1">
+    <row r="17" spans="1:30" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -4434,8 +4542,11 @@
       <c r="AC17" s="1">
         <v>50</v>
       </c>
+      <c r="AD17" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" ht="20" customHeight="1">
+    <row r="18" spans="1:30" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -4523,8 +4634,11 @@
       <c r="AC18" s="5">
         <v>100</v>
       </c>
+      <c r="AD18" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" ht="20" customHeight="1">
+    <row r="19" spans="1:30" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -4612,8 +4726,11 @@
       <c r="AC19" s="5">
         <v>200</v>
       </c>
+      <c r="AD19" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" ht="20" customHeight="1">
+    <row r="20" spans="1:30" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -4701,8 +4818,11 @@
       <c r="AC20" s="1">
         <v>50</v>
       </c>
+      <c r="AD20" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" ht="20" customHeight="1">
+    <row r="21" spans="1:30" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -4790,8 +4910,11 @@
       <c r="AC21" s="5">
         <v>100</v>
       </c>
+      <c r="AD21" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" ht="20" customHeight="1">
+    <row r="22" spans="1:30" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4879,8 +5002,11 @@
       <c r="AC22" s="5">
         <v>200</v>
       </c>
+      <c r="AD22" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" ht="20" customHeight="1">
+    <row r="23" spans="1:30" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -4968,8 +5094,11 @@
       <c r="AC23" s="1">
         <v>50</v>
       </c>
+      <c r="AD23" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" ht="20" customHeight="1">
+    <row r="24" spans="1:30" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -5057,8 +5186,11 @@
       <c r="AC24" s="5">
         <v>100</v>
       </c>
+      <c r="AD24" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" ht="20" customHeight="1">
+    <row r="25" spans="1:30" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -5146,8 +5278,11 @@
       <c r="AC25" s="5">
         <v>200</v>
       </c>
+      <c r="AD25" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" ht="20" customHeight="1">
+    <row r="26" spans="1:30" ht="20" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="D26" s="4"/>
@@ -5155,7 +5290,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:29" ht="20" customHeight="1">
+    <row r="27" spans="1:30" ht="20" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="D27" s="4"/>
@@ -5163,7 +5298,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:29" ht="20" customHeight="1">
+    <row r="28" spans="1:30" ht="20" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="D28" s="4"/>
@@ -5171,7 +5306,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:29" ht="20" customHeight="1">
+    <row r="29" spans="1:30" ht="20" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="D29" s="4"/>
@@ -5179,7 +5314,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:29" ht="20" customHeight="1">
+    <row r="30" spans="1:30" ht="20" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="D30" s="4"/>
@@ -5187,7 +5322,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:29" ht="20" customHeight="1">
+    <row r="31" spans="1:30" ht="20" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="D31" s="4"/>
@@ -5195,7 +5330,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:29" ht="20" customHeight="1">
+    <row r="32" spans="1:30" ht="20" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="D32" s="4"/>
@@ -5225,10 +5360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5240,7 +5375,7 @@
     <col min="17" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -5292,8 +5427,11 @@
       <c r="Q1" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="20" customHeight="1">
+    <row r="2" spans="1:18" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5345,8 +5483,11 @@
       <c r="Q2" s="1">
         <v>40</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="20" customHeight="1">
+    <row r="3" spans="1:18" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5398,8 +5539,11 @@
       <c r="Q3" s="1">
         <v>60</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="20" customHeight="1">
+    <row r="4" spans="1:18" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5451,8 +5595,11 @@
       <c r="Q4" s="1">
         <v>80</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="20" customHeight="1">
+    <row r="5" spans="1:18" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5504,8 +5651,11 @@
       <c r="Q5" s="1">
         <v>95</v>
       </c>
+      <c r="R5" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="20" customHeight="1">
+    <row r="6" spans="1:18" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5557,8 +5707,11 @@
       <c r="Q6" s="1">
         <v>140</v>
       </c>
+      <c r="R6" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="20" customHeight="1">
+    <row r="7" spans="1:18" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -5610,8 +5763,11 @@
       <c r="Q7" s="1">
         <v>180</v>
       </c>
+      <c r="R7" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="20" customHeight="1">
+    <row r="8" spans="1:18" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -5663,8 +5819,11 @@
       <c r="Q8" s="1">
         <v>240</v>
       </c>
+      <c r="R8" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="20" customHeight="1">
+    <row r="9" spans="1:18" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5715,6 +5874,9 @@
       </c>
       <c r="Q9" s="1">
         <v>280</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="3560" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25600" windowHeight="17140" tabRatio="529"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,37 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
-  <si>
-    <t>skeletonWarrior</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeletonArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
   <si>
     <t>deathKnight</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>meatWagon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>priest</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>demonHunter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>paladin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>steamTank</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -112,54 +84,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>horseArcher_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -168,66 +92,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_specialMaterials</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand,heroBones,magicBox</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood,brightRing,holyBook</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood,brightRing,brightAlloy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood,holyBook,brightAlloy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightRing,holyBook,brightAlloy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand,heroBones,soulStone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand,heroBones,magicBox</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>heroBones,soulStone,magicBox</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_recruitTime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -253,22 +117,6 @@
   </si>
   <si>
     <t>INT_citizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_citizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -396,6 +244,178 @@
   </si>
   <si>
     <t>workshop</t>
+  </si>
+  <si>
+    <t>swordsman_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletonWarrior</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_1,heroBones_1,soulStone_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletonArcher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_1,heroBones_1,magicBox_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_2,heroBones_2,magicBox_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>meatWagon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBones_4,soulStone_4,magicBox_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>priest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_1,brightRing_1,holyBook_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonHunter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_1,brightRing_1,brightAlloy_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>paladin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_2,holyBook_2,brightAlloy_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamTank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightRing_4,holyBook_4,brightAlloy_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_specialMaterials</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_load</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_citizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2973,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2984,141 +3004,141 @@
   <sheetData>
     <row r="1" spans="1:30" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3">
         <v>30</v>
       </c>
-      <c r="G2" s="3">
-        <v>24</v>
-      </c>
       <c r="H2" s="3">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="I2" s="3">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J2" s="3">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K2" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L2" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="N2" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1">
         <v>1</v>
@@ -3127,90 +3147,90 @@
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S2" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="T2" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="U2" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V2" s="3">
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X2" s="1">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="1">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>50</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="G3" s="3">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H3" s="3">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="I3" s="3">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="J3" s="3">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="K3" s="3">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="L3" s="3">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="M3" s="1">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="N3" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -3219,90 +3239,90 @@
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="S3" s="1">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="T3" s="1">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="U3" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V3" s="3">
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="X3" s="1">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="Y3" s="1">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="Z3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA3" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>10000</v>
       </c>
       <c r="AC3" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="G4" s="3">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="I4" s="3">
-        <v>63</v>
+        <v>360</v>
       </c>
       <c r="J4" s="3">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="K4" s="3">
-        <v>56</v>
+        <v>320</v>
       </c>
       <c r="L4" s="3">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="M4" s="1">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="N4" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -3311,90 +3331,90 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="S4" s="1">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="T4" s="1">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="U4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V4" s="3">
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="X4" s="1">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="Y4" s="1">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="Z4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>86400</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G5" s="3">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I5" s="3">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J5" s="3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="L5" s="3">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="M5" s="1">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="N5" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
@@ -3403,90 +3423,90 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="S5" s="1">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="T5" s="1">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="U5" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="V5" s="3">
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="X5" s="1">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="Y5" s="1">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Z5" s="1">
-        <v>12</v>
-      </c>
-      <c r="AA5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>50</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="G6" s="3">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H6" s="3">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I6" s="3">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="J6" s="3">
         <v>48</v>
       </c>
       <c r="K6" s="3">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="L6" s="3">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="M6" s="1">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="N6" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
@@ -3495,90 +3515,90 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>748</v>
+        <v>640</v>
       </c>
       <c r="S6" s="1">
-        <v>748</v>
+        <v>640</v>
       </c>
       <c r="T6" s="1">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="U6" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="V6" s="3">
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="X6" s="1">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="Y6" s="1">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="Z6" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>10000</v>
       </c>
       <c r="AC6" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="G7" s="3">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="H7" s="3">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="I7" s="3">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="J7" s="3">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="K7" s="3">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="L7" s="3">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="M7" s="1">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="N7" s="3">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
@@ -3587,1699 +3607,1699 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1056</v>
+        <v>1280</v>
       </c>
       <c r="S7" s="1">
-        <v>1056</v>
+        <v>1280</v>
       </c>
       <c r="T7" s="1">
-        <v>528</v>
+        <v>640</v>
       </c>
       <c r="U7" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="V7" s="3">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="X7" s="1">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="Y7" s="1">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="Z7" s="1">
-        <v>12</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>86400</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G8" s="3">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I8" s="3">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="J8" s="3">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="K8" s="3">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="L8" s="3">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M8" s="1">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="N8" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
       </c>
       <c r="Q8" s="3">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="R8" s="1">
-        <v>315</v>
+        <v>240</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="U8" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V8" s="3">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="W8" s="1">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="Z8" s="1">
-        <v>17</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="G9" s="3">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="J9" s="3">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="L9" s="3">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M9" s="1">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="N9" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P9" s="1">
         <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>893</v>
+        <v>800</v>
       </c>
       <c r="R9" s="1">
-        <v>536</v>
+        <v>480</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="U9" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V9" s="3">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="W9" s="1">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="X9" s="1">
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="Z9" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>10000</v>
       </c>
       <c r="AC9" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>111</v>
+        <v>480</v>
       </c>
       <c r="G10" s="3">
-        <v>74</v>
+        <v>400</v>
       </c>
       <c r="H10" s="3">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="J10" s="3">
-        <v>59</v>
+        <v>600</v>
       </c>
       <c r="K10" s="3">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="L10" s="3">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="M10" s="1">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="N10" s="3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P10" s="1">
         <v>1</v>
       </c>
       <c r="Q10" s="3">
-        <v>1260</v>
+        <v>1600</v>
       </c>
       <c r="R10" s="1">
-        <v>756</v>
+        <v>960</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>504</v>
+        <v>640</v>
       </c>
       <c r="U10" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V10" s="3">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="W10" s="1">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="Z10" s="1">
-        <v>17</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>86400</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G11" s="3">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J11" s="3">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="K11" s="3">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L11" s="3">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="M11" s="1">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="N11" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
       </c>
       <c r="Q11" s="3">
-        <v>525</v>
+        <v>320</v>
       </c>
       <c r="R11" s="1">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="U11" s="1">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="V11" s="3">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="W11" s="1">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="X11" s="1">
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="Z11" s="1">
-        <v>19</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="G12" s="3">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="H12" s="3">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="I12" s="3">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J12" s="3">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="K12" s="3">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="L12" s="3">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="M12" s="1">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="N12" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="O12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P12" s="1">
         <v>1</v>
       </c>
       <c r="Q12" s="3">
-        <v>893</v>
+        <v>640</v>
       </c>
       <c r="R12" s="1">
-        <v>536</v>
+        <v>640</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="U12" s="1">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="V12" s="3">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="W12" s="1">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="X12" s="1">
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="Z12" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AA12" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>10000</v>
       </c>
       <c r="AC12" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3">
-        <v>111</v>
+        <v>480</v>
       </c>
       <c r="G13" s="3">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c r="H13" s="3">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="I13" s="3">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="J13" s="3">
-        <v>59</v>
+        <v>384</v>
       </c>
       <c r="K13" s="3">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="L13" s="3">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="M13" s="1">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="N13" s="3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
       </c>
       <c r="Q13" s="3">
-        <v>1260</v>
+        <v>1280</v>
       </c>
       <c r="R13" s="1">
-        <v>756</v>
+        <v>1280</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>504</v>
+        <v>640</v>
       </c>
       <c r="U13" s="1">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="V13" s="3">
-        <v>420</v>
+        <v>256</v>
       </c>
       <c r="W13" s="1">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="Z13" s="1">
-        <v>19</v>
-      </c>
-      <c r="AA13" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC13" s="5">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>86400</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G14" s="3">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="H14" s="3">
+        <v>120</v>
+      </c>
+      <c r="I14" s="3">
+        <v>180</v>
+      </c>
+      <c r="J14" s="3">
         <v>60</v>
       </c>
-      <c r="I14" s="3">
-        <v>72</v>
-      </c>
-      <c r="J14" s="3">
-        <v>48</v>
-      </c>
       <c r="K14" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L14" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M14" s="1">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="N14" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P14" s="1">
         <v>2</v>
       </c>
       <c r="Q14" s="3">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T14" s="1">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="U14" s="1">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="V14" s="3">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>334</v>
+        <v>160</v>
       </c>
       <c r="Y14" s="1">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="Z14" s="1">
-        <v>37</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>0</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="G15" s="3">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="H15" s="3">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="I15" s="3">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="J15" s="3">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="K15" s="3">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="L15" s="3">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="M15" s="1">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="O15" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P15" s="1">
         <v>2</v>
       </c>
       <c r="Q15" s="3">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="T15" s="1">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="U15" s="1">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="V15" s="3">
-        <v>340</v>
+        <v>192</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>567</v>
+        <v>320</v>
       </c>
       <c r="Y15" s="1">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="Z15" s="1">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AA15" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>10000</v>
       </c>
       <c r="AC15" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3">
-        <v>126</v>
+        <v>384</v>
       </c>
       <c r="G16" s="3">
-        <v>42</v>
+        <v>576</v>
       </c>
       <c r="H16" s="3">
-        <v>84</v>
+        <v>480</v>
       </c>
       <c r="I16" s="3">
-        <v>101</v>
+        <v>720</v>
       </c>
       <c r="J16" s="3">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="K16" s="3">
-        <v>112</v>
+        <v>640</v>
       </c>
       <c r="L16" s="3">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="M16" s="1">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="N16" s="3">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="O16" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P16" s="1">
         <v>2</v>
       </c>
       <c r="Q16" s="3">
-        <v>1440</v>
+        <v>1920</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="T16" s="1">
-        <v>960</v>
+        <v>1280</v>
       </c>
       <c r="U16" s="1">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="V16" s="3">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="Y16" s="1">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="Z16" s="1">
-        <v>37</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>86400</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="G17" s="3">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c r="H17" s="3">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="I17" s="3">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="J17" s="3">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="K17" s="3">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="L17" s="3">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M17" s="1">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="N17" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="O17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P17" s="1">
         <v>2</v>
       </c>
       <c r="Q17" s="3">
-        <v>880</v>
+        <v>640</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>880</v>
+        <v>640</v>
       </c>
       <c r="T17" s="1">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="U17" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="V17" s="3">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="Y17" s="1">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="Z17" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="G18" s="3">
-        <v>85</v>
+        <v>480</v>
       </c>
       <c r="H18" s="3">
-        <v>106</v>
+        <v>320</v>
       </c>
       <c r="I18" s="3">
-        <v>159</v>
+        <v>384</v>
       </c>
       <c r="J18" s="3">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="K18" s="3">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="L18" s="3">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="M18" s="1">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="N18" s="3">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="O18" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P18" s="1">
         <v>2</v>
       </c>
       <c r="Q18" s="3">
-        <v>1496</v>
+        <v>1280</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>1496</v>
+        <v>1280</v>
       </c>
       <c r="T18" s="1">
-        <v>748</v>
+        <v>640</v>
       </c>
       <c r="U18" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="V18" s="3">
-        <v>499</v>
+        <v>256</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>499</v>
+        <v>256</v>
       </c>
       <c r="Y18" s="1">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="Z18" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AA18" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>10000</v>
       </c>
       <c r="AC18" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F19" s="3">
-        <v>148</v>
+        <v>320</v>
       </c>
       <c r="G19" s="3">
-        <v>99</v>
+        <v>960</v>
       </c>
       <c r="H19" s="3">
-        <v>124</v>
+        <v>640</v>
       </c>
       <c r="I19" s="3">
-        <v>185</v>
+        <v>768</v>
       </c>
       <c r="J19" s="3">
-        <v>62</v>
+        <v>512</v>
       </c>
       <c r="K19" s="3">
-        <v>93</v>
+        <v>480</v>
       </c>
       <c r="L19" s="3">
-        <v>53</v>
+        <v>360</v>
       </c>
       <c r="M19" s="1">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="N19" s="3">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="O19" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P19" s="1">
         <v>2</v>
       </c>
       <c r="Q19" s="3">
-        <v>2112</v>
+        <v>2560</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>2112</v>
+        <v>2560</v>
       </c>
       <c r="T19" s="1">
-        <v>1056</v>
+        <v>1280</v>
       </c>
       <c r="U19" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="V19" s="3">
-        <v>704</v>
+        <v>512</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>704</v>
+        <v>512</v>
       </c>
       <c r="Y19" s="1">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="Z19" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC19" s="5">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>86400</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F20" s="3">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="G20" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>192</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>96</v>
-      </c>
-      <c r="L20" s="3">
-        <v>40</v>
-      </c>
       <c r="M20" s="1">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="N20" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="O20" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P20" s="1">
         <v>4</v>
       </c>
       <c r="Q20" s="3">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="R20" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="S20" s="1">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="T20" s="1">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="U20" s="1">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="V20" s="3">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="W20" s="1">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="X20" s="1">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="Y20" s="1">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="Z20" s="1">
-        <v>60</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>0</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F21" s="3">
-        <v>192</v>
+        <v>640</v>
       </c>
       <c r="G21" s="3">
-        <v>288</v>
+        <v>960</v>
       </c>
       <c r="H21" s="3">
+        <v>400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>384</v>
+      </c>
+      <c r="L21" s="3">
+        <v>400</v>
+      </c>
+      <c r="M21" s="1">
         <v>120</v>
       </c>
-      <c r="I21" s="3">
-        <v>240</v>
-      </c>
-      <c r="J21" s="3">
-        <v>360</v>
-      </c>
-      <c r="K21" s="3">
-        <v>116</v>
-      </c>
-      <c r="L21" s="3">
-        <v>68</v>
-      </c>
-      <c r="M21" s="1">
-        <v>58</v>
-      </c>
       <c r="N21" s="3">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="O21" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P21" s="1">
         <v>4</v>
       </c>
       <c r="Q21" s="3">
-        <v>2040</v>
+        <v>1920</v>
       </c>
       <c r="R21" s="1">
-        <v>2040</v>
+        <v>1920</v>
       </c>
       <c r="S21" s="1">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="T21" s="1">
-        <v>1360</v>
+        <v>1280</v>
       </c>
       <c r="U21" s="1">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="V21" s="3">
-        <v>680</v>
+        <v>384</v>
       </c>
       <c r="W21" s="1">
-        <v>680</v>
+        <v>384</v>
       </c>
       <c r="X21" s="1">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="Y21" s="1">
-        <v>454</v>
+        <v>256</v>
       </c>
       <c r="Z21" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AA21" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>10000</v>
       </c>
       <c r="AC21" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F22" s="3">
-        <v>224</v>
+        <v>1280</v>
       </c>
       <c r="G22" s="3">
-        <v>336</v>
+        <v>1920</v>
       </c>
       <c r="H22" s="3">
-        <v>140</v>
+        <v>800</v>
       </c>
       <c r="I22" s="3">
-        <v>280</v>
+        <v>1600</v>
       </c>
       <c r="J22" s="3">
-        <v>420</v>
+        <v>2400</v>
       </c>
       <c r="K22" s="3">
-        <v>135</v>
+        <v>768</v>
       </c>
       <c r="L22" s="3">
-        <v>96</v>
+        <v>800</v>
       </c>
       <c r="M22" s="1">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="N22" s="3">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="O22" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="P22" s="1">
         <v>4</v>
       </c>
       <c r="Q22" s="3">
-        <v>2880</v>
+        <v>3840</v>
       </c>
       <c r="R22" s="1">
-        <v>2880</v>
+        <v>3840</v>
       </c>
       <c r="S22" s="1">
-        <v>960</v>
+        <v>1280</v>
       </c>
       <c r="T22" s="1">
-        <v>1920</v>
+        <v>2560</v>
       </c>
       <c r="U22" s="1">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="V22" s="3">
-        <v>960</v>
+        <v>768</v>
       </c>
       <c r="W22" s="1">
-        <v>960</v>
+        <v>768</v>
       </c>
       <c r="X22" s="1">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="Y22" s="1">
-        <v>640</v>
+        <v>512</v>
       </c>
       <c r="Z22" s="1">
-        <v>60</v>
-      </c>
-      <c r="AA22" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC22" s="5">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>86400</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F23" s="3">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="G23" s="3">
-        <v>264</v>
+        <v>480</v>
       </c>
       <c r="H23" s="3">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I23" s="3">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="J23" s="3">
-        <v>212</v>
+        <v>384</v>
       </c>
       <c r="K23" s="3">
+        <v>240</v>
+      </c>
+      <c r="L23" s="3">
+        <v>180</v>
+      </c>
+      <c r="M23" s="1">
         <v>132</v>
       </c>
-      <c r="L23" s="3">
-        <v>44</v>
-      </c>
-      <c r="M23" s="1">
-        <v>55</v>
-      </c>
       <c r="N23" s="3">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="O23" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P23" s="1">
         <v>4</v>
       </c>
       <c r="Q23" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="R23" s="1">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="S23" s="1">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T23" s="1">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="U23" s="1">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="V23" s="3">
-        <v>367</v>
+        <v>160</v>
       </c>
       <c r="W23" s="1">
-        <v>367</v>
+        <v>160</v>
       </c>
       <c r="X23" s="1">
-        <v>367</v>
+        <v>160</v>
       </c>
       <c r="Y23" s="1">
-        <v>367</v>
+        <v>160</v>
       </c>
       <c r="Z23" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>0</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="3">
-        <v>42</v>
+      <c r="E24" s="4">
+        <v>16</v>
       </c>
       <c r="F24" s="3">
-        <v>106</v>
+        <v>320</v>
       </c>
       <c r="G24" s="3">
-        <v>317</v>
+        <v>960</v>
       </c>
       <c r="H24" s="3">
-        <v>169</v>
-      </c>
-      <c r="I24" s="3">
-        <v>212</v>
+        <v>512</v>
+      </c>
+      <c r="I24" s="1">
+        <v>640</v>
       </c>
       <c r="J24" s="3">
-        <v>254</v>
+        <v>768</v>
       </c>
       <c r="K24" s="3">
-        <v>159</v>
+        <v>480</v>
       </c>
       <c r="L24" s="3">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="M24" s="1">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="N24" s="3">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="O24" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P24" s="1">
         <v>4</v>
       </c>
       <c r="Q24" s="3">
-        <v>1870</v>
+        <v>1600</v>
       </c>
       <c r="R24" s="1">
-        <v>1870</v>
+        <v>1600</v>
       </c>
       <c r="S24" s="1">
-        <v>1870</v>
+        <v>1600</v>
       </c>
       <c r="T24" s="1">
-        <v>1870</v>
+        <v>1600</v>
       </c>
       <c r="U24" s="1">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="V24" s="3">
-        <v>624</v>
+        <v>320</v>
       </c>
       <c r="W24" s="1">
-        <v>624</v>
+        <v>320</v>
       </c>
       <c r="X24" s="1">
-        <v>624</v>
+        <v>320</v>
       </c>
       <c r="Y24" s="1">
-        <v>624</v>
+        <v>320</v>
       </c>
       <c r="Z24" s="1">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="AA24" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>10000</v>
       </c>
       <c r="AC24" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="3">
-        <v>57</v>
+      <c r="E25" s="4">
+        <v>32</v>
       </c>
       <c r="F25" s="3">
-        <v>124</v>
-      </c>
-      <c r="G25" s="3">
-        <v>370</v>
+        <v>640</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1920</v>
       </c>
       <c r="H25" s="3">
-        <v>198</v>
-      </c>
-      <c r="I25" s="3">
-        <v>247</v>
-      </c>
-      <c r="J25" s="3">
-        <v>296</v>
+        <v>1024</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1280</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1536</v>
       </c>
       <c r="K25" s="3">
-        <v>185</v>
-      </c>
-      <c r="L25" s="3">
-        <v>106</v>
+        <v>960</v>
+      </c>
+      <c r="L25" s="1">
+        <v>720</v>
       </c>
       <c r="M25" s="1">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="N25" s="3">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="O25" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="P25" s="1">
         <v>4</v>
       </c>
-      <c r="Q25" s="3">
-        <v>2640</v>
+      <c r="Q25" s="1">
+        <v>3200</v>
       </c>
       <c r="R25" s="1">
-        <v>2640</v>
+        <v>3200</v>
       </c>
       <c r="S25" s="1">
-        <v>2640</v>
+        <v>3200</v>
       </c>
       <c r="T25" s="1">
-        <v>2640</v>
+        <v>3200</v>
       </c>
       <c r="U25" s="1">
-        <v>190</v>
-      </c>
-      <c r="V25" s="3">
-        <v>880</v>
+        <v>80</v>
+      </c>
+      <c r="V25" s="1">
+        <v>640</v>
       </c>
       <c r="W25" s="1">
-        <v>880</v>
+        <v>640</v>
       </c>
       <c r="X25" s="1">
-        <v>880</v>
+        <v>640</v>
       </c>
       <c r="Y25" s="1">
-        <v>880</v>
+        <v>640</v>
       </c>
       <c r="Z25" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA25" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC25" s="5">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>86400</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="20" customHeight="1">
@@ -5362,8 +5382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5377,506 +5397,506 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="G2" s="1">
+        <v>105</v>
+      </c>
+      <c r="H2" s="1">
+        <v>252</v>
+      </c>
+      <c r="I2" s="1">
+        <v>315</v>
+      </c>
+      <c r="J2" s="1">
+        <v>168</v>
+      </c>
+      <c r="K2" s="1">
+        <v>210</v>
+      </c>
+      <c r="L2" s="1">
+        <v>150</v>
+      </c>
+      <c r="M2" s="1">
+        <v>145</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="1">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1">
-        <v>57</v>
-      </c>
-      <c r="J2" s="1">
-        <v>45</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="R2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" s="1">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1">
-        <v>50</v>
-      </c>
-      <c r="N2" s="1">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>40</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
-        <v>95</v>
+        <v>288</v>
       </c>
       <c r="G3" s="1">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="H3" s="1">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="I3" s="1">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="J3" s="1">
+        <v>360</v>
+      </c>
+      <c r="K3" s="1">
+        <v>192</v>
+      </c>
+      <c r="L3" s="1">
+        <v>150</v>
+      </c>
+      <c r="M3" s="1">
+        <v>155</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K3" s="1">
-        <v>31</v>
-      </c>
-      <c r="L3" s="1">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1">
-        <v>64</v>
-      </c>
-      <c r="N3" s="1">
-        <v>18</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>60</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
-        <v>174</v>
+        <v>456</v>
       </c>
       <c r="G4" s="1">
-        <v>58</v>
+        <v>684</v>
       </c>
       <c r="H4" s="1">
-        <v>116</v>
+        <v>570</v>
       </c>
       <c r="I4" s="1">
-        <v>140</v>
+        <v>855</v>
       </c>
       <c r="J4" s="1">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="K4" s="1">
-        <v>87</v>
+        <v>525</v>
       </c>
       <c r="L4" s="1">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="M4" s="1">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="N4" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1">
-        <v>224</v>
+        <v>1080</v>
       </c>
       <c r="G5" s="1">
-        <v>336</v>
+        <v>1620</v>
       </c>
       <c r="H5" s="1">
-        <v>140</v>
+        <v>675</v>
       </c>
       <c r="I5" s="1">
-        <v>280</v>
+        <v>1350</v>
       </c>
       <c r="J5" s="1">
-        <v>420</v>
+        <v>2025</v>
       </c>
       <c r="K5" s="1">
-        <v>135</v>
+        <v>900</v>
       </c>
       <c r="L5" s="1">
-        <v>96</v>
+        <v>750</v>
       </c>
       <c r="M5" s="1">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="N5" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="P5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="G6" s="1">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="H6" s="1">
-        <v>31</v>
+        <v>405</v>
       </c>
       <c r="I6" s="1">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="J6" s="1">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="K6" s="1">
-        <v>80</v>
+        <v>720</v>
       </c>
       <c r="L6" s="1">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="M6" s="1">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="N6" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1">
-        <v>78</v>
+        <v>810</v>
       </c>
       <c r="G7" s="1">
-        <v>65</v>
+        <v>540</v>
       </c>
       <c r="H7" s="1">
-        <v>98</v>
+        <v>432</v>
       </c>
       <c r="I7" s="1">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="J7" s="1">
-        <v>33</v>
+        <v>648</v>
       </c>
       <c r="K7" s="1">
-        <v>49</v>
+        <v>360</v>
       </c>
       <c r="L7" s="1">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="M7" s="1">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="N7" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="G8" s="1">
-        <v>58</v>
+        <v>1080</v>
       </c>
       <c r="H8" s="1">
-        <v>72</v>
+        <v>720</v>
       </c>
       <c r="I8" s="1">
-        <v>108</v>
+        <v>864</v>
       </c>
       <c r="J8" s="1">
-        <v>36</v>
+        <v>576</v>
       </c>
       <c r="K8" s="1">
-        <v>150</v>
+        <v>1080</v>
       </c>
       <c r="L8" s="1">
-        <v>53</v>
+        <v>400</v>
       </c>
       <c r="M8" s="1">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="N8" s="1">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="O8" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="G9" s="1">
-        <v>372</v>
+        <v>1080</v>
       </c>
       <c r="H9" s="1">
-        <v>199</v>
+        <v>576</v>
       </c>
       <c r="I9" s="1">
-        <v>248</v>
+        <v>720</v>
       </c>
       <c r="J9" s="1">
-        <v>298</v>
+        <v>864</v>
       </c>
       <c r="K9" s="1">
-        <v>186</v>
+        <v>4320</v>
       </c>
       <c r="L9" s="1">
-        <v>106</v>
+        <v>800</v>
       </c>
       <c r="M9" s="1">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="N9" s="1">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="O9" s="1">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="P9" s="1">
         <v>4</v>
       </c>
       <c r="Q9" s="1">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25600" windowHeight="17140" tabRatio="529"/>
+    <workbookView xWindow="2240" yWindow="1020" windowWidth="25600" windowHeight="17140" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
   <si>
     <t>deathKnight</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -415,6 +415,14 @@
   </si>
   <si>
     <t>INT_citizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2993,7 +3001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5382,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5672,7 +5680,7 @@
         <v>100</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20" customHeight="1">
@@ -5896,7 +5904,7 @@
         <v>100</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="1020" windowWidth="25600" windowHeight="17140" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="1100" windowWidth="25600" windowHeight="17140" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -5390,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5506,7 +5506,7 @@
         <v>6</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
         <v>30</v>
@@ -5562,7 +5562,7 @@
         <v>6</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
         <v>30</v>
@@ -5618,7 +5618,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="1">
         <v>50</v>
@@ -5674,7 +5674,7 @@
         <v>30</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="1">
         <v>100</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1100" windowWidth="25600" windowHeight="17140" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="1820" yWindow="480" windowWidth="25600" windowHeight="17140" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
   <si>
     <t>deathKnight</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>horseArcher_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -174,31 +170,203 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>sentinel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_upgradeCoinNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_upgradeTimeSecondsNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_upgradeTechPointNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_killScore</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_consumeFoodPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_consumeFoodPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_techBuildingName</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainingGround</t>
+  </si>
+  <si>
+    <t>hunterHall</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>ranger_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletonWarrior</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonHunter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_specialMaterials</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_load</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_citizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>swordsman</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>infantry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>sentinel</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>sentinel_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>ranger</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>crossbowman_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>crossbowman</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>lancer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult</t>
+    <t>crossbowman_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -206,127 +374,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_upgradeCoinNeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_upgradeTimeSecondsNeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_upgradeTechPointNeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_killScore</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_consumeFoodPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_consumeFoodPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_techBuildingName</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>trainingGround</t>
-  </si>
-  <si>
-    <t>hunterHall</t>
-  </si>
-  <si>
-    <t>stable</t>
-  </si>
-  <si>
-    <t>workshop</t>
-  </si>
-  <si>
-    <t>swordsman_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista</t>
+    <t>siege</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -334,20 +382,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ballista</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>siege</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>skeletonWarrior</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>deathHand_1,heroBones_1,soulStone_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>skeletonArcher</t>
@@ -355,11 +394,9 @@
   </si>
   <si>
     <t>deathHand_1,heroBones_1,magicBox_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>deathHand_2,heroBones_2,magicBox_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>meatWagon</t>
@@ -367,7 +404,6 @@
   </si>
   <si>
     <t>heroBones_4,soulStone_4,magicBox_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>priest</t>
@@ -375,23 +411,20 @@
   </si>
   <si>
     <t>confessionHood_1,brightRing_1,holyBook_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>demonHunter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>confessionHood_1,brightRing_1,brightAlloy_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>paladin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>confessionHood_2,holyBook_2,brightAlloy_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>steamTank</t>
@@ -403,27 +436,6 @@
   </si>
   <si>
     <t>brightRing_4,holyBook_4,brightAlloy_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_specialMaterials</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_load</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_citizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3001,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showRuler="0" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3012,13 +3024,13 @@
   <sheetData>
     <row r="1" spans="1:30" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3027,37 +3039,37 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>6</v>
@@ -3072,45 +3084,45 @@
         <v>9</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="AA1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3155,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="S2" s="1">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="T2" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="U2" s="1">
         <v>20</v>
@@ -3170,39 +3182,39 @@
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="X2" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3247,13 +3259,13 @@
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="S3" s="1">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="T3" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="U3" s="1">
         <v>20</v>
@@ -3262,75 +3274,75 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="X3" s="1">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="Y3" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="Z3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA3" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB3" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC3" s="5">
         <v>43200</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3">
+        <v>180</v>
+      </c>
+      <c r="G4" s="3">
+        <v>90</v>
+      </c>
+      <c r="H4" s="3">
+        <v>216</v>
+      </c>
+      <c r="I4" s="3">
+        <v>270</v>
+      </c>
+      <c r="J4" s="3">
+        <v>144</v>
+      </c>
+      <c r="K4" s="3">
         <v>240</v>
       </c>
-      <c r="G4" s="3">
-        <v>120</v>
-      </c>
-      <c r="H4" s="3">
-        <v>288</v>
-      </c>
-      <c r="I4" s="3">
-        <v>360</v>
-      </c>
-      <c r="J4" s="3">
-        <v>192</v>
-      </c>
-      <c r="K4" s="3">
-        <v>320</v>
-      </c>
       <c r="L4" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M4" s="1">
         <v>170</v>
       </c>
       <c r="N4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -3339,13 +3351,13 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1600</v>
+        <v>480</v>
       </c>
       <c r="S4" s="1">
         <v>960</v>
       </c>
       <c r="T4" s="1">
-        <v>640</v>
+        <v>960</v>
       </c>
       <c r="U4" s="1">
         <v>20</v>
@@ -3354,39 +3366,39 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="X4" s="1">
         <v>192</v>
       </c>
       <c r="Y4" s="1">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="Z4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA4" s="1">
         <v>100000</v>
       </c>
       <c r="AB4" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC4" s="1">
         <v>86400</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3431,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="S5" s="1">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="T5" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="U5" s="1">
         <v>20</v>
@@ -3446,39 +3458,39 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="X5" s="1">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="Y5" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Z5" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA5" s="5">
         <v>0</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="1">
         <v>0</v>
       </c>
       <c r="AC5" s="5">
         <v>0</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -3523,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="S6" s="1">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="T6" s="1">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="U6" s="1">
         <v>20</v>
@@ -3538,75 +3550,75 @@
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="X6" s="1">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="Y6" s="1">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="Z6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA6" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB6" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC6" s="5">
         <v>43200</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="G7" s="3">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="H7" s="3">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="I7" s="3">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="J7" s="3">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="K7" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L7" s="3">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="M7" s="1">
         <v>140</v>
       </c>
       <c r="N7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
@@ -3615,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1280</v>
+        <v>480</v>
       </c>
       <c r="S7" s="1">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="T7" s="1">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="U7" s="1">
         <v>20</v>
@@ -3630,39 +3642,39 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="X7" s="1">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="Y7" s="1">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="Z7" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA7" s="1">
         <v>100000</v>
       </c>
       <c r="AB7" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC7" s="1">
         <v>86400</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -3707,13 +3719,13 @@
         <v>400</v>
       </c>
       <c r="R8" s="1">
+        <v>160</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
         <v>240</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>160</v>
       </c>
       <c r="U8" s="1">
         <v>20</v>
@@ -3722,39 +3734,39 @@
         <v>80</v>
       </c>
       <c r="W8" s="1">
+        <v>32</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
         <v>48</v>
       </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>32</v>
-      </c>
       <c r="Z8" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA8" s="5">
         <v>0</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="1">
         <v>0</v>
       </c>
       <c r="AC8" s="5">
         <v>0</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -3799,13 +3811,13 @@
         <v>800</v>
       </c>
       <c r="R9" s="1">
+        <v>320</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
         <v>480</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>320</v>
       </c>
       <c r="U9" s="1">
         <v>20</v>
@@ -3814,131 +3826,131 @@
         <v>160</v>
       </c>
       <c r="W9" s="1">
+        <v>64</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
         <v>96</v>
       </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>64</v>
-      </c>
       <c r="Z9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA9" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB9" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC9" s="5">
         <v>43200</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="G10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I10" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="J10" s="3">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="K10" s="3">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="L10" s="3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="M10" s="1">
         <v>160</v>
       </c>
       <c r="N10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P10" s="1">
         <v>1</v>
       </c>
       <c r="Q10" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="R10" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="U10" s="1">
         <v>20</v>
       </c>
       <c r="V10" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="W10" s="1">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="Z10" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA10" s="1">
         <v>100000</v>
       </c>
       <c r="AB10" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC10" s="1">
         <v>86400</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -4007,30 +4019,30 @@
         <v>32</v>
       </c>
       <c r="Z11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA11" s="5">
         <v>0</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" s="1">
         <v>0</v>
       </c>
       <c r="AC11" s="5">
         <v>0</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -4099,122 +4111,122 @@
         <v>64</v>
       </c>
       <c r="Z12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA12" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB12" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC12" s="5">
         <v>43200</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="G13" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="H13" s="3">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="I13" s="3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="J13" s="3">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="K13" s="3">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="L13" s="3">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="M13" s="1">
         <v>150</v>
       </c>
       <c r="N13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O13" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
       </c>
       <c r="Q13" s="3">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="R13" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="U13" s="1">
         <v>20</v>
       </c>
       <c r="V13" s="3">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="W13" s="1">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="Z13" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA13" s="1">
         <v>100000</v>
       </c>
       <c r="AB13" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC13" s="1">
         <v>86400</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -4283,30 +4295,30 @@
         <v>64</v>
       </c>
       <c r="Z14" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA14" s="5">
         <v>0</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14" s="1">
         <v>0</v>
       </c>
       <c r="AC14" s="5">
         <v>0</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -4375,122 +4387,122 @@
         <v>128</v>
       </c>
       <c r="Z15" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA15" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB15" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC15" s="5">
         <v>43200</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16" s="3">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="G16" s="3">
-        <v>576</v>
+        <v>432</v>
       </c>
       <c r="H16" s="3">
+        <v>360</v>
+      </c>
+      <c r="I16" s="3">
+        <v>540</v>
+      </c>
+      <c r="J16" s="3">
+        <v>180</v>
+      </c>
+      <c r="K16" s="3">
         <v>480</v>
       </c>
-      <c r="I16" s="3">
-        <v>720</v>
-      </c>
-      <c r="J16" s="3">
-        <v>240</v>
-      </c>
-      <c r="K16" s="3">
-        <v>640</v>
-      </c>
       <c r="L16" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M16" s="1">
         <v>200</v>
       </c>
       <c r="N16" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O16" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P16" s="1">
         <v>2</v>
       </c>
       <c r="Q16" s="3">
-        <v>1920</v>
+        <v>1440</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="T16" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="U16" s="1">
         <v>40</v>
       </c>
       <c r="V16" s="3">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Y16" s="1">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="Z16" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA16" s="1">
         <v>100000</v>
       </c>
       <c r="AB16" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC16" s="1">
         <v>86400</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -4559,30 +4571,30 @@
         <v>64</v>
       </c>
       <c r="Z17" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA17" s="5">
         <v>0</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="1">
         <v>0</v>
       </c>
       <c r="AC17" s="5">
         <v>0</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -4651,122 +4663,122 @@
         <v>128</v>
       </c>
       <c r="Z18" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA18" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB18" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC18" s="5">
         <v>43200</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="G19" s="3">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="H19" s="3">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="I19" s="3">
-        <v>768</v>
+        <v>576</v>
       </c>
       <c r="J19" s="3">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="K19" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="L19" s="3">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="M19" s="1">
         <v>240</v>
       </c>
       <c r="N19" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O19" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P19" s="1">
         <v>2</v>
       </c>
       <c r="Q19" s="3">
-        <v>2560</v>
+        <v>1920</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>2560</v>
+        <v>1920</v>
       </c>
       <c r="T19" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="U19" s="1">
         <v>40</v>
       </c>
       <c r="V19" s="3">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="Y19" s="1">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="Z19" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA19" s="1">
         <v>100000</v>
       </c>
       <c r="AB19" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC19" s="1">
         <v>86400</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -4814,7 +4826,7 @@
         <v>960</v>
       </c>
       <c r="S20" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="T20" s="1">
         <v>640</v>
@@ -4829,36 +4841,36 @@
         <v>192</v>
       </c>
       <c r="X20" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="Y20" s="1">
         <v>128</v>
       </c>
       <c r="Z20" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA20" s="5">
         <v>0</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AB20" s="1">
         <v>0</v>
       </c>
       <c r="AC20" s="5">
         <v>0</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -4906,7 +4918,7 @@
         <v>1920</v>
       </c>
       <c r="S21" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="T21" s="1">
         <v>1280</v>
@@ -4921,133 +4933,133 @@
         <v>384</v>
       </c>
       <c r="X21" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="Y21" s="1">
         <v>256</v>
       </c>
       <c r="Z21" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA21" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB21" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC21" s="5">
         <v>43200</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F22" s="3">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="G22" s="3">
-        <v>1920</v>
+        <v>1440</v>
       </c>
       <c r="H22" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I22" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="3">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K22" s="3">
-        <v>768</v>
+        <v>576</v>
       </c>
       <c r="L22" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M22" s="1">
         <v>120</v>
       </c>
       <c r="N22" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O22" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P22" s="1">
         <v>4</v>
       </c>
       <c r="Q22" s="3">
-        <v>3840</v>
+        <v>2880</v>
       </c>
       <c r="R22" s="1">
-        <v>3840</v>
+        <v>2880</v>
       </c>
       <c r="S22" s="1">
-        <v>1280</v>
+        <v>1920</v>
       </c>
       <c r="T22" s="1">
-        <v>2560</v>
+        <v>1920</v>
       </c>
       <c r="U22" s="1">
         <v>80</v>
       </c>
       <c r="V22" s="3">
-        <v>768</v>
+        <v>576</v>
       </c>
       <c r="W22" s="1">
-        <v>768</v>
+        <v>576</v>
       </c>
       <c r="X22" s="1">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="Y22" s="1">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="Z22" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA22" s="1">
         <v>100000</v>
       </c>
       <c r="AB22" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC22" s="1">
         <v>86400</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>8</v>
       </c>
       <c r="F23" s="3">
@@ -5059,7 +5071,7 @@
       <c r="H23" s="3">
         <v>256</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>320</v>
       </c>
       <c r="J23" s="3">
@@ -5111,30 +5123,30 @@
         <v>160</v>
       </c>
       <c r="Z23" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA23" s="5">
         <v>0</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AB23" s="1">
         <v>0</v>
       </c>
       <c r="AC23" s="5">
         <v>0</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -5145,7 +5157,7 @@
       <c r="F24" s="3">
         <v>320</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="4">
         <v>960</v>
       </c>
       <c r="H24" s="3">
@@ -5154,13 +5166,13 @@
       <c r="I24" s="1">
         <v>640</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="1">
         <v>768</v>
       </c>
       <c r="K24" s="3">
         <v>480</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="1">
         <v>360</v>
       </c>
       <c r="M24" s="1">
@@ -5175,7 +5187,7 @@
       <c r="P24" s="1">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="1">
         <v>1600</v>
       </c>
       <c r="R24" s="1">
@@ -5190,7 +5202,7 @@
       <c r="U24" s="1">
         <v>80</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="1">
         <v>320</v>
       </c>
       <c r="W24" s="1">
@@ -5203,111 +5215,111 @@
         <v>320</v>
       </c>
       <c r="Z24" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA24" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB24" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC24" s="5">
         <v>43200</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="4">
-        <v>32</v>
-      </c>
-      <c r="F25" s="3">
-        <v>640</v>
+        <v>24</v>
+      </c>
+      <c r="F25" s="4">
+        <v>480</v>
       </c>
       <c r="G25" s="4">
-        <v>1920</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1024</v>
+        <v>1440</v>
+      </c>
+      <c r="H25" s="1">
+        <v>768</v>
       </c>
       <c r="I25" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="J25" s="1">
-        <v>1536</v>
-      </c>
-      <c r="K25" s="3">
-        <v>960</v>
+        <v>1152</v>
+      </c>
+      <c r="K25" s="1">
+        <v>720</v>
       </c>
       <c r="L25" s="1">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="M25" s="1">
         <v>132</v>
       </c>
-      <c r="N25" s="3">
-        <v>16</v>
+      <c r="N25" s="1">
+        <v>12</v>
       </c>
       <c r="O25" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P25" s="1">
         <v>4</v>
       </c>
       <c r="Q25" s="1">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="R25" s="1">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="S25" s="1">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="T25" s="1">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="U25" s="1">
         <v>80</v>
       </c>
       <c r="V25" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="W25" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="X25" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Y25" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Z25" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA25" s="1">
         <v>100000</v>
       </c>
       <c r="AB25" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC25" s="1">
         <v>86400</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="20" customHeight="1">
@@ -5390,8 +5402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5405,13 +5417,13 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -5420,19 +5432,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -5444,66 +5456,66 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="I2" s="1">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="J2" s="1">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="L2" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="M2" s="1">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" s="1">
         <v>1</v>
@@ -5512,54 +5524,54 @@
         <v>30</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="G3" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H3" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="J3" s="1">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K3" s="1">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="L3" s="1">
+        <v>60</v>
+      </c>
+      <c r="M3" s="1">
         <v>150</v>
       </c>
-      <c r="M3" s="1">
-        <v>155</v>
-      </c>
       <c r="N3" s="1">
         <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -5568,7 +5580,7 @@
         <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20" customHeight="1">
@@ -5576,37 +5588,37 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>456</v>
+        <v>216</v>
       </c>
       <c r="G4" s="1">
-        <v>684</v>
+        <v>324</v>
       </c>
       <c r="H4" s="1">
-        <v>570</v>
+        <v>270</v>
       </c>
       <c r="I4" s="1">
-        <v>855</v>
+        <v>405</v>
       </c>
       <c r="J4" s="1">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="K4" s="1">
-        <v>525</v>
+        <v>360</v>
       </c>
       <c r="L4" s="1">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="M4" s="1">
         <v>185</v>
@@ -5615,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P4" s="1">
         <v>2</v>
@@ -5624,45 +5636,45 @@
         <v>50</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
-        <v>1080</v>
+        <v>346</v>
       </c>
       <c r="G5" s="1">
-        <v>1620</v>
+        <v>518</v>
       </c>
       <c r="H5" s="1">
-        <v>675</v>
+        <v>216</v>
       </c>
       <c r="I5" s="1">
-        <v>1350</v>
+        <v>432</v>
       </c>
       <c r="J5" s="1">
-        <v>2025</v>
+        <v>648</v>
       </c>
       <c r="K5" s="1">
         <v>900</v>
       </c>
       <c r="L5" s="1">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="M5" s="1">
         <v>125</v>
@@ -5671,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="P5" s="1">
         <v>4</v>
@@ -5680,54 +5692,54 @@
         <v>100</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="G6" s="1">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1">
-        <v>405</v>
+        <v>225</v>
       </c>
       <c r="I6" s="1">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="J6" s="1">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="K6" s="1">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="L6" s="1">
+        <v>140</v>
+      </c>
+      <c r="M6" s="1">
         <v>160</v>
       </c>
-      <c r="M6" s="1">
-        <v>150</v>
-      </c>
       <c r="N6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
@@ -5736,54 +5748,54 @@
         <v>30</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>810</v>
+        <v>375</v>
       </c>
       <c r="G7" s="1">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="H7" s="1">
-        <v>432</v>
+        <v>200</v>
       </c>
       <c r="I7" s="1">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="J7" s="1">
-        <v>648</v>
+        <v>300</v>
       </c>
       <c r="K7" s="1">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="L7" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="M7" s="1">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
@@ -5792,54 +5804,54 @@
         <v>30</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="G8" s="1">
-        <v>1080</v>
+        <v>300</v>
       </c>
       <c r="H8" s="1">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="I8" s="1">
-        <v>864</v>
+        <v>240</v>
       </c>
       <c r="J8" s="1">
-        <v>576</v>
+        <v>160</v>
       </c>
       <c r="K8" s="1">
-        <v>1080</v>
+        <v>600</v>
       </c>
       <c r="L8" s="1">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="M8" s="1">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="N8" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
@@ -5848,54 +5860,54 @@
         <v>50</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="G9" s="1">
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="H9" s="1">
+        <v>384</v>
+      </c>
+      <c r="I9" s="1">
+        <v>480</v>
+      </c>
+      <c r="J9" s="1">
         <v>576</v>
       </c>
-      <c r="I9" s="1">
-        <v>720</v>
-      </c>
-      <c r="J9" s="1">
-        <v>864</v>
-      </c>
       <c r="K9" s="1">
-        <v>4320</v>
+        <v>1000</v>
       </c>
       <c r="L9" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M9" s="1">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N9" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O9" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P9" s="1">
         <v>4</v>
@@ -5904,7 +5916,7 @@
         <v>100</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="480" windowWidth="25600" windowHeight="17140" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="380" windowWidth="25600" windowHeight="17140" tabRatio="529"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -286,156 +286,156 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>swordsman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_1,heroBones_1,soulStone_1</t>
+  </si>
+  <si>
+    <t>skeletonArcher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_1,heroBones_1,magicBox_1</t>
+  </si>
+  <si>
+    <t>deathHand_2,heroBones_2,magicBox_2</t>
+  </si>
+  <si>
+    <t>meatWagon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBones_4,soulStone_4,magicBox_4</t>
+  </si>
+  <si>
+    <t>priest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_1,brightRing_1,holyBook_1</t>
+  </si>
+  <si>
+    <t>confessionHood_1,brightRing_1,brightAlloy_1</t>
+  </si>
+  <si>
+    <t>paladin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_2,holyBook_2,brightAlloy_2</t>
+  </si>
+  <si>
+    <t>steamTank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightRing_4,holyBook_4,brightAlloy_4</t>
+  </si>
+  <si>
     <t>swordsman_1</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siege</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siege</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand_1,heroBones_1,soulStone_1</t>
-  </si>
-  <si>
-    <t>skeletonArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand_1,heroBones_1,magicBox_1</t>
-  </si>
-  <si>
-    <t>deathHand_2,heroBones_2,magicBox_2</t>
-  </si>
-  <si>
-    <t>meatWagon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>heroBones_4,soulStone_4,magicBox_4</t>
-  </si>
-  <si>
-    <t>priest</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood_1,brightRing_1,holyBook_1</t>
-  </si>
-  <si>
-    <t>confessionHood_1,brightRing_1,brightAlloy_1</t>
-  </si>
-  <si>
-    <t>paladin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood_2,holyBook_2,brightAlloy_2</t>
-  </si>
-  <si>
-    <t>steamTank</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siege</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightRing_4,holyBook_4,brightAlloy_4</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="974">
+  <cellStyleXfs count="980">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -607,6 +607,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1590,7 +1596,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="974">
+  <cellStyles count="980">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2080,6 +2086,9 @@
     <cellStyle name="超链接" xfId="968" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="970" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="972" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="974" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="976" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="978" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2562,6 +2571,9 @@
     <cellStyle name="访问过的超链接" xfId="969" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="971" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="973" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="975" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="977" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="979" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3013,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3116,13 +3128,13 @@
     </row>
     <row r="2" spans="1:30" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3208,10 +3220,10 @@
     </row>
     <row r="3" spans="1:30" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>21</v>
@@ -3300,10 +3312,10 @@
     </row>
     <row r="4" spans="1:30" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -3392,7 +3404,7 @@
     </row>
     <row r="5" spans="1:30" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -3484,10 +3496,10 @@
     </row>
     <row r="6" spans="1:30" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -3576,10 +3588,10 @@
     </row>
     <row r="7" spans="1:30" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -3668,7 +3680,7 @@
     </row>
     <row r="8" spans="1:30" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>35</v>
@@ -3760,10 +3772,10 @@
     </row>
     <row r="9" spans="1:30" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -3944,10 +3956,10 @@
     </row>
     <row r="11" spans="1:30" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -4128,10 +4140,10 @@
     </row>
     <row r="13" spans="1:30" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -4772,7 +4784,7 @@
     </row>
     <row r="20" spans="1:30" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
@@ -4864,7 +4876,7 @@
     </row>
     <row r="21" spans="1:30" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
@@ -4956,7 +4968,7 @@
     </row>
     <row r="22" spans="1:30" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>39</v>
@@ -5140,13 +5152,13 @@
     </row>
     <row r="24" spans="1:30" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -5232,13 +5244,13 @@
     </row>
     <row r="25" spans="1:30" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -5402,7 +5414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -5479,7 +5491,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -5529,13 +5541,13 @@
     </row>
     <row r="3" spans="1:18" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5591,7 +5603,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -5641,13 +5653,13 @@
     </row>
     <row r="5" spans="1:18" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -5697,13 +5709,13 @@
     </row>
     <row r="6" spans="1:18" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -5759,7 +5771,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -5809,13 +5821,13 @@
     </row>
     <row r="8" spans="1:18" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -5865,13 +5877,13 @@
     </row>
     <row r="9" spans="1:18" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="380" windowWidth="25600" windowHeight="17140" tabRatio="529"/>
+    <workbookView xWindow="3460" yWindow="1140" windowWidth="32100" windowHeight="18280" tabRatio="132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
   <si>
     <t>deathKnight</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -92,22 +92,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_treatWood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_treatStone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_treatIron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_treatFood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_treatTime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -214,14 +198,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_consumeFoodPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_consumeFoodPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_techBuildingName</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -286,6 +262,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>swordsman_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>swordsman</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -434,7 +414,15 @@
     <t>brightRing_4,holyBook_4,brightAlloy_4</t>
   </si>
   <si>
-    <t>swordsman_1</t>
+    <t>FLOAT_consumeFoodPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatCoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatCoin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="980">
+  <cellStyleXfs count="992">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1577,8 +1565,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1595,8 +1595,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="980">
+  <cellStyles count="992">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2089,6 +2092,12 @@
     <cellStyle name="超链接" xfId="974" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="976" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="978" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="980" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="982" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="984" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="986" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="988" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="990" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2574,6 +2583,12 @@
     <cellStyle name="访问过的超链接" xfId="975" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="977" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="979" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="981" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="983" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="985" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="987" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="989" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="991" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3023,26 +3038,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showRuler="0" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="13" width="20.6640625" style="1"/>
+    <col min="14" max="14" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="20.6640625" style="1"/>
+    <col min="22" max="22" width="14.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3051,37 +3071,37 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>6</v>
@@ -3099,42 +3119,33 @@
         <v>13</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="X1" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" ht="20" customHeight="1">
+    <row r="2" spans="1:27" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3166,8 +3177,8 @@
       <c r="M2" s="1">
         <v>170</v>
       </c>
-      <c r="N2" s="3">
-        <v>1</v>
+      <c r="N2" s="6">
+        <v>0.25</v>
       </c>
       <c r="O2" s="1">
         <v>2</v>
@@ -3179,54 +3190,45 @@
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="S2" s="1">
         <v>320</v>
       </c>
       <c r="T2" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="U2" s="1">
         <v>20</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="1">
+        <v>200</v>
+      </c>
+      <c r="W2" s="1">
+        <v>10</v>
+      </c>
+      <c r="X2" s="5">
         <v>0</v>
       </c>
-      <c r="W2" s="1">
-        <v>32</v>
-      </c>
-      <c r="X2" s="1">
-        <v>64</v>
-      </c>
       <c r="Y2" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="5">
         <v>0</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="Z2" s="5">
         <v>0</v>
       </c>
-      <c r="AC2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>48</v>
+      <c r="AA2" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="20" customHeight="1">
+    <row r="3" spans="1:27" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3258,8 +3260,8 @@
       <c r="M3" s="1">
         <v>170</v>
       </c>
-      <c r="N3" s="3">
-        <v>2</v>
+      <c r="N3" s="6">
+        <v>0.5</v>
       </c>
       <c r="O3" s="1">
         <v>4</v>
@@ -3271,54 +3273,45 @@
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="S3" s="1">
         <v>640</v>
       </c>
       <c r="T3" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="U3" s="1">
         <v>20</v>
       </c>
-      <c r="V3" s="3">
-        <v>0</v>
+      <c r="V3" s="1">
+        <v>400</v>
       </c>
       <c r="W3" s="1">
-        <v>64</v>
-      </c>
-      <c r="X3" s="1">
-        <v>128</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>128</v>
-      </c>
-      <c r="Z3" s="1">
         <v>10</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="X3" s="5">
         <v>50000</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="Y3" s="5">
         <v>2500</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="Z3" s="5">
         <v>43200</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>48</v>
+      <c r="AA3" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="20" customHeight="1">
+    <row r="4" spans="1:27" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3350,8 +3343,8 @@
       <c r="M4" s="1">
         <v>170</v>
       </c>
-      <c r="N4" s="3">
-        <v>3</v>
+      <c r="N4" s="6">
+        <v>0.75</v>
       </c>
       <c r="O4" s="1">
         <v>6</v>
@@ -3363,54 +3356,45 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S4" s="1">
         <v>960</v>
       </c>
       <c r="T4" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="U4" s="1">
         <v>20</v>
       </c>
-      <c r="V4" s="3">
-        <v>0</v>
+      <c r="V4" s="1">
+        <v>600</v>
       </c>
       <c r="W4" s="1">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="X4" s="1">
-        <v>192</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>192</v>
+        <v>100000</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>5000</v>
       </c>
       <c r="Z4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC4" s="1">
         <v>86400</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>48</v>
+      <c r="AA4" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="20" customHeight="1">
+    <row r="5" spans="1:27" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3442,8 +3426,8 @@
       <c r="M5" s="1">
         <v>140</v>
       </c>
-      <c r="N5" s="3">
-        <v>1</v>
+      <c r="N5" s="6">
+        <v>0.25</v>
       </c>
       <c r="O5" s="1">
         <v>2</v>
@@ -3455,54 +3439,45 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="S5" s="1">
         <v>400</v>
       </c>
       <c r="T5" s="1">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="U5" s="1">
         <v>20</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="1">
+        <v>200</v>
+      </c>
+      <c r="W5" s="1">
+        <v>10</v>
+      </c>
+      <c r="X5" s="5">
         <v>0</v>
       </c>
-      <c r="W5" s="1">
-        <v>32</v>
-      </c>
-      <c r="X5" s="1">
-        <v>80</v>
-      </c>
       <c r="Y5" s="1">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="5">
         <v>0</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="Z5" s="5">
         <v>0</v>
       </c>
-      <c r="AC5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>48</v>
+      <c r="AA5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="20" customHeight="1">
+    <row r="6" spans="1:27" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -3534,8 +3509,8 @@
       <c r="M6" s="1">
         <v>140</v>
       </c>
-      <c r="N6" s="3">
-        <v>2</v>
+      <c r="N6" s="6">
+        <v>0.5</v>
       </c>
       <c r="O6" s="1">
         <v>4</v>
@@ -3547,54 +3522,45 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="S6" s="1">
         <v>800</v>
       </c>
       <c r="T6" s="1">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="U6" s="1">
         <v>20</v>
       </c>
-      <c r="V6" s="3">
-        <v>0</v>
+      <c r="V6" s="1">
+        <v>400</v>
       </c>
       <c r="W6" s="1">
-        <v>64</v>
-      </c>
-      <c r="X6" s="1">
-        <v>160</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>96</v>
-      </c>
-      <c r="Z6" s="1">
         <v>10</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="X6" s="5">
         <v>50000</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="Y6" s="5">
         <v>2500</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="Z6" s="5">
         <v>43200</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>48</v>
+      <c r="AA6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="20" customHeight="1">
+    <row r="7" spans="1:27" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -3626,8 +3592,8 @@
       <c r="M7" s="1">
         <v>140</v>
       </c>
-      <c r="N7" s="3">
-        <v>3</v>
+      <c r="N7" s="6">
+        <v>0.75</v>
       </c>
       <c r="O7" s="1">
         <v>6</v>
@@ -3639,54 +3605,45 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="S7" s="1">
         <v>1200</v>
       </c>
       <c r="T7" s="1">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="U7" s="1">
         <v>20</v>
       </c>
-      <c r="V7" s="3">
-        <v>0</v>
+      <c r="V7" s="1">
+        <v>600</v>
       </c>
       <c r="W7" s="1">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="X7" s="1">
-        <v>240</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>144</v>
+        <v>100000</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>5000</v>
       </c>
       <c r="Z7" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC7" s="1">
         <v>86400</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>48</v>
+      <c r="AA7" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="20" customHeight="1">
+    <row r="8" spans="1:27" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -3718,8 +3675,8 @@
       <c r="M8" s="1">
         <v>160</v>
       </c>
-      <c r="N8" s="3">
-        <v>1</v>
+      <c r="N8" s="6">
+        <v>0.25</v>
       </c>
       <c r="O8" s="1">
         <v>2</v>
@@ -3731,54 +3688,45 @@
         <v>400</v>
       </c>
       <c r="R8" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="U8" s="1">
         <v>20</v>
       </c>
-      <c r="V8" s="3">
-        <v>80</v>
+      <c r="V8" s="1">
+        <v>200</v>
       </c>
       <c r="W8" s="1">
-        <v>32</v>
-      </c>
-      <c r="X8" s="1">
+        <v>10</v>
+      </c>
+      <c r="X8" s="5">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>48</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA8" s="5">
         <v>0</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="Z8" s="5">
         <v>0</v>
       </c>
-      <c r="AC8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>49</v>
+      <c r="AA8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="20" customHeight="1">
+    <row r="9" spans="1:27" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -3810,8 +3758,8 @@
       <c r="M9" s="1">
         <v>160</v>
       </c>
-      <c r="N9" s="3">
-        <v>2</v>
+      <c r="N9" s="6">
+        <v>0.5</v>
       </c>
       <c r="O9" s="1">
         <v>4</v>
@@ -3823,54 +3771,45 @@
         <v>800</v>
       </c>
       <c r="R9" s="1">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="U9" s="1">
         <v>20</v>
       </c>
-      <c r="V9" s="3">
-        <v>160</v>
+      <c r="V9" s="1">
+        <v>400</v>
       </c>
       <c r="W9" s="1">
-        <v>64</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>96</v>
-      </c>
-      <c r="Z9" s="1">
         <v>10</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="X9" s="5">
         <v>50000</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="Y9" s="5">
         <v>2500</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="Z9" s="5">
         <v>43200</v>
       </c>
-      <c r="AD9" s="1" t="s">
-        <v>49</v>
+      <c r="AA9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="20" customHeight="1">
+    <row r="10" spans="1:27" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -3902,8 +3841,8 @@
       <c r="M10" s="1">
         <v>160</v>
       </c>
-      <c r="N10" s="3">
-        <v>3</v>
+      <c r="N10" s="6">
+        <v>0.75</v>
       </c>
       <c r="O10" s="1">
         <v>6</v>
@@ -3915,54 +3854,45 @@
         <v>1200</v>
       </c>
       <c r="R10" s="1">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="U10" s="1">
         <v>20</v>
       </c>
-      <c r="V10" s="3">
-        <v>240</v>
+      <c r="V10" s="1">
+        <v>600</v>
       </c>
       <c r="W10" s="1">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>144</v>
+        <v>100000</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>5000</v>
       </c>
       <c r="Z10" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC10" s="1">
         <v>86400</v>
       </c>
-      <c r="AD10" s="1" t="s">
-        <v>49</v>
+      <c r="AA10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="20" customHeight="1">
+    <row r="11" spans="1:27" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -3994,8 +3924,8 @@
       <c r="M11" s="1">
         <v>150</v>
       </c>
-      <c r="N11" s="3">
-        <v>1</v>
+      <c r="N11" s="6">
+        <v>0.25</v>
       </c>
       <c r="O11" s="1">
         <v>2</v>
@@ -4018,43 +3948,34 @@
       <c r="U11" s="1">
         <v>20</v>
       </c>
-      <c r="V11" s="3">
-        <v>64</v>
+      <c r="V11" s="1">
+        <v>200</v>
       </c>
       <c r="W11" s="1">
-        <v>64</v>
-      </c>
-      <c r="X11" s="1">
+        <v>10</v>
+      </c>
+      <c r="X11" s="5">
         <v>0</v>
       </c>
       <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z11" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="20" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -4086,8 +4007,8 @@
       <c r="M12" s="1">
         <v>150</v>
       </c>
-      <c r="N12" s="3">
-        <v>2</v>
+      <c r="N12" s="6">
+        <v>0.5</v>
       </c>
       <c r="O12" s="1">
         <v>4</v>
@@ -4110,43 +4031,34 @@
       <c r="U12" s="1">
         <v>20</v>
       </c>
-      <c r="V12" s="3">
-        <v>128</v>
+      <c r="V12" s="1">
+        <v>400</v>
       </c>
       <c r="W12" s="1">
-        <v>128</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z12" s="1">
         <v>10</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="X12" s="5">
         <v>50000</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="Y12" s="5">
         <v>2500</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="Z12" s="5">
         <v>43200</v>
       </c>
-      <c r="AD12" s="1" t="s">
-        <v>49</v>
+      <c r="AA12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="20" customHeight="1">
+    <row r="13" spans="1:27" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -4178,8 +4090,8 @@
       <c r="M13" s="1">
         <v>150</v>
       </c>
-      <c r="N13" s="3">
-        <v>3</v>
+      <c r="N13" s="6">
+        <v>0.75</v>
       </c>
       <c r="O13" s="1">
         <v>6</v>
@@ -4188,13 +4100,13 @@
         <v>1</v>
       </c>
       <c r="Q13" s="3">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="R13" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="T13" s="1">
         <v>480</v>
@@ -4202,43 +4114,34 @@
       <c r="U13" s="1">
         <v>20</v>
       </c>
-      <c r="V13" s="3">
-        <v>192</v>
+      <c r="V13" s="1">
+        <v>600</v>
       </c>
       <c r="W13" s="1">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>96</v>
+        <v>100000</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>5000</v>
       </c>
       <c r="Z13" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB13" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC13" s="1">
         <v>86400</v>
       </c>
-      <c r="AD13" s="1" t="s">
-        <v>49</v>
+      <c r="AA13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="20" customHeight="1">
+    <row r="14" spans="1:27" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -4270,8 +4173,8 @@
       <c r="M14" s="1">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>2</v>
+      <c r="N14" s="6">
+        <v>0.5</v>
       </c>
       <c r="O14" s="1">
         <v>4</v>
@@ -4294,43 +4197,34 @@
       <c r="U14" s="1">
         <v>40</v>
       </c>
-      <c r="V14" s="3">
-        <v>96</v>
+      <c r="V14" s="1">
+        <v>400</v>
       </c>
       <c r="W14" s="1">
+        <v>20</v>
+      </c>
+      <c r="X14" s="5">
         <v>0</v>
       </c>
-      <c r="X14" s="1">
-        <v>160</v>
-      </c>
       <c r="Y14" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="20" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -4362,8 +4256,8 @@
       <c r="M15" s="1">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
-        <v>4</v>
+      <c r="N15" s="6">
+        <v>1</v>
       </c>
       <c r="O15" s="1">
         <v>8</v>
@@ -4386,43 +4280,34 @@
       <c r="U15" s="1">
         <v>40</v>
       </c>
-      <c r="V15" s="3">
-        <v>192</v>
+      <c r="V15" s="1">
+        <v>800</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
-        <v>320</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>128</v>
-      </c>
-      <c r="Z15" s="1">
         <v>20</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="X15" s="5">
         <v>50000</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="Y15" s="5">
         <v>2500</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="Z15" s="5">
         <v>43200</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" ht="20" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -4454,8 +4339,8 @@
       <c r="M16" s="1">
         <v>200</v>
       </c>
-      <c r="N16" s="3">
-        <v>6</v>
+      <c r="N16" s="6">
+        <v>1.5</v>
       </c>
       <c r="O16" s="1">
         <v>12</v>
@@ -4478,43 +4363,34 @@
       <c r="U16" s="1">
         <v>40</v>
       </c>
-      <c r="V16" s="3">
-        <v>288</v>
+      <c r="V16" s="1">
+        <v>1200</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X16" s="1">
-        <v>480</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>192</v>
+        <v>100000</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>5000</v>
       </c>
       <c r="Z16" s="1">
+        <v>86400</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>86400</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="20" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -4546,8 +4422,8 @@
       <c r="M17" s="1">
         <v>240</v>
       </c>
-      <c r="N17" s="3">
-        <v>2</v>
+      <c r="N17" s="6">
+        <v>0.5</v>
       </c>
       <c r="O17" s="1">
         <v>4</v>
@@ -4570,43 +4446,34 @@
       <c r="U17" s="1">
         <v>40</v>
       </c>
-      <c r="V17" s="3">
-        <v>128</v>
+      <c r="V17" s="1">
+        <v>400</v>
       </c>
       <c r="W17" s="1">
+        <v>20</v>
+      </c>
+      <c r="X17" s="5">
         <v>0</v>
       </c>
-      <c r="X17" s="1">
-        <v>128</v>
-      </c>
       <c r="Y17" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA17" s="5">
         <v>0</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="Z17" s="5">
         <v>0</v>
       </c>
-      <c r="AC17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>50</v>
+      <c r="AA17" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="20" customHeight="1">
+    <row r="18" spans="1:27" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -4638,8 +4505,8 @@
       <c r="M18" s="1">
         <v>240</v>
       </c>
-      <c r="N18" s="3">
-        <v>4</v>
+      <c r="N18" s="6">
+        <v>1</v>
       </c>
       <c r="O18" s="1">
         <v>8</v>
@@ -4662,43 +4529,34 @@
       <c r="U18" s="1">
         <v>40</v>
       </c>
-      <c r="V18" s="3">
-        <v>256</v>
+      <c r="V18" s="1">
+        <v>800</v>
       </c>
       <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1">
-        <v>256</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>128</v>
-      </c>
-      <c r="Z18" s="1">
         <v>20</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="X18" s="5">
         <v>50000</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="Y18" s="5">
         <v>2500</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="Z18" s="5">
         <v>43200</v>
       </c>
-      <c r="AD18" s="1" t="s">
-        <v>50</v>
+      <c r="AA18" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="20" customHeight="1">
+    <row r="19" spans="1:27" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -4730,8 +4588,8 @@
       <c r="M19" s="1">
         <v>240</v>
       </c>
-      <c r="N19" s="3">
-        <v>6</v>
+      <c r="N19" s="6">
+        <v>1.5</v>
       </c>
       <c r="O19" s="1">
         <v>12</v>
@@ -4754,43 +4612,34 @@
       <c r="U19" s="1">
         <v>40</v>
       </c>
-      <c r="V19" s="3">
-        <v>384</v>
+      <c r="V19" s="1">
+        <v>1200</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X19" s="1">
-        <v>384</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>192</v>
+        <v>100000</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>5000</v>
       </c>
       <c r="Z19" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB19" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC19" s="1">
         <v>86400</v>
       </c>
-      <c r="AD19" s="1" t="s">
-        <v>50</v>
+      <c r="AA19" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="20" customHeight="1">
+    <row r="20" spans="1:27" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -4822,8 +4671,8 @@
       <c r="M20" s="1">
         <v>120</v>
       </c>
-      <c r="N20" s="3">
-        <v>4</v>
+      <c r="N20" s="6">
+        <v>1</v>
       </c>
       <c r="O20" s="1">
         <v>8</v>
@@ -4832,10 +4681,10 @@
         <v>4</v>
       </c>
       <c r="Q20" s="3">
-        <v>960</v>
+        <v>640</v>
       </c>
       <c r="R20" s="1">
-        <v>960</v>
+        <v>1280</v>
       </c>
       <c r="S20" s="1">
         <v>640</v>
@@ -4846,43 +4695,34 @@
       <c r="U20" s="1">
         <v>80</v>
       </c>
-      <c r="V20" s="3">
-        <v>192</v>
+      <c r="V20" s="1">
+        <v>800</v>
       </c>
       <c r="W20" s="1">
-        <v>192</v>
-      </c>
-      <c r="X20" s="1">
-        <v>128</v>
+        <v>40</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>128</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA20" s="5">
         <v>0</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="Z20" s="5">
         <v>0</v>
       </c>
-      <c r="AC20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>51</v>
+      <c r="AA20" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="20" customHeight="1">
+    <row r="21" spans="1:27" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -4914,8 +4754,8 @@
       <c r="M21" s="1">
         <v>120</v>
       </c>
-      <c r="N21" s="3">
-        <v>8</v>
+      <c r="N21" s="6">
+        <v>2</v>
       </c>
       <c r="O21" s="1">
         <v>16</v>
@@ -4924,10 +4764,10 @@
         <v>4</v>
       </c>
       <c r="Q21" s="3">
-        <v>1920</v>
+        <v>1280</v>
       </c>
       <c r="R21" s="1">
-        <v>1920</v>
+        <v>2560</v>
       </c>
       <c r="S21" s="1">
         <v>1280</v>
@@ -4938,43 +4778,34 @@
       <c r="U21" s="1">
         <v>80</v>
       </c>
-      <c r="V21" s="3">
-        <v>384</v>
+      <c r="V21" s="1">
+        <v>1600</v>
       </c>
       <c r="W21" s="1">
-        <v>384</v>
-      </c>
-      <c r="X21" s="1">
-        <v>256</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>256</v>
-      </c>
-      <c r="Z21" s="1">
         <v>40</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="X21" s="5">
         <v>50000</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="Y21" s="5">
         <v>2500</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="Z21" s="5">
         <v>43200</v>
       </c>
-      <c r="AD21" s="1" t="s">
-        <v>51</v>
+      <c r="AA21" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="20" customHeight="1">
+    <row r="22" spans="1:27" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -5006,8 +4837,8 @@
       <c r="M22" s="1">
         <v>120</v>
       </c>
-      <c r="N22" s="3">
-        <v>12</v>
+      <c r="N22" s="6">
+        <v>3</v>
       </c>
       <c r="O22" s="1">
         <v>24</v>
@@ -5016,10 +4847,10 @@
         <v>4</v>
       </c>
       <c r="Q22" s="3">
-        <v>2880</v>
+        <v>1920</v>
       </c>
       <c r="R22" s="1">
-        <v>2880</v>
+        <v>3840</v>
       </c>
       <c r="S22" s="1">
         <v>1920</v>
@@ -5030,43 +4861,34 @@
       <c r="U22" s="1">
         <v>80</v>
       </c>
-      <c r="V22" s="3">
-        <v>576</v>
+      <c r="V22" s="1">
+        <v>2400</v>
       </c>
       <c r="W22" s="1">
-        <v>576</v>
+        <v>40</v>
       </c>
       <c r="X22" s="1">
-        <v>384</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>384</v>
+        <v>100000</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>5000</v>
       </c>
       <c r="Z22" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB22" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC22" s="1">
         <v>86400</v>
       </c>
-      <c r="AD22" s="1" t="s">
-        <v>51</v>
+      <c r="AA22" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="20" customHeight="1">
+    <row r="23" spans="1:27" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -5098,8 +4920,8 @@
       <c r="M23" s="1">
         <v>132</v>
       </c>
-      <c r="N23" s="3">
-        <v>4</v>
+      <c r="N23" s="6">
+        <v>1</v>
       </c>
       <c r="O23" s="1">
         <v>8</v>
@@ -5107,58 +4929,49 @@
       <c r="P23" s="1">
         <v>4</v>
       </c>
-      <c r="Q23" s="3">
-        <v>800</v>
+      <c r="Q23" s="1">
+        <v>960</v>
       </c>
       <c r="R23" s="1">
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="S23" s="1">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="T23" s="1">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="U23" s="1">
         <v>80</v>
       </c>
-      <c r="V23" s="3">
-        <v>160</v>
+      <c r="V23" s="1">
+        <v>800</v>
       </c>
       <c r="W23" s="1">
-        <v>160</v>
-      </c>
-      <c r="X23" s="1">
-        <v>160</v>
+        <v>40</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>160</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA23" s="5">
         <v>0</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="Z23" s="5">
         <v>0</v>
       </c>
-      <c r="AC23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>51</v>
+      <c r="AA23" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="20" customHeight="1">
+    <row r="24" spans="1:27" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -5190,8 +5003,8 @@
       <c r="M24" s="1">
         <v>132</v>
       </c>
-      <c r="N24" s="3">
-        <v>8</v>
+      <c r="N24" s="6">
+        <v>2</v>
       </c>
       <c r="O24" s="1">
         <v>16</v>
@@ -5200,57 +5013,48 @@
         <v>4</v>
       </c>
       <c r="Q24" s="1">
-        <v>1600</v>
+        <v>1920</v>
       </c>
       <c r="R24" s="1">
-        <v>1600</v>
+        <v>1920</v>
       </c>
       <c r="S24" s="1">
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="T24" s="1">
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="U24" s="1">
         <v>80</v>
       </c>
       <c r="V24" s="1">
-        <v>320</v>
+        <v>1600</v>
       </c>
       <c r="W24" s="1">
-        <v>320</v>
-      </c>
-      <c r="X24" s="1">
-        <v>320</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>320</v>
-      </c>
-      <c r="Z24" s="1">
         <v>40</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="X24" s="5">
         <v>50000</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="Y24" s="5">
         <v>2500</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="Z24" s="5">
         <v>43200</v>
       </c>
-      <c r="AD24" s="1" t="s">
-        <v>51</v>
+      <c r="AA24" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="20" customHeight="1">
+    <row r="25" spans="1:27" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -5282,8 +5086,8 @@
       <c r="M25" s="1">
         <v>132</v>
       </c>
-      <c r="N25" s="1">
-        <v>12</v>
+      <c r="N25" s="6">
+        <v>3</v>
       </c>
       <c r="O25" s="1">
         <v>24</v>
@@ -5292,49 +5096,40 @@
         <v>4</v>
       </c>
       <c r="Q25" s="1">
-        <v>2400</v>
+        <v>2880</v>
       </c>
       <c r="R25" s="1">
-        <v>2400</v>
+        <v>2880</v>
       </c>
       <c r="S25" s="1">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="T25" s="1">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="U25" s="1">
         <v>80</v>
       </c>
       <c r="V25" s="1">
-        <v>480</v>
+        <v>2400</v>
       </c>
       <c r="W25" s="1">
-        <v>480</v>
+        <v>40</v>
       </c>
       <c r="X25" s="1">
-        <v>480</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>480</v>
+        <v>100000</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>5000</v>
       </c>
       <c r="Z25" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB25" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC25" s="1">
         <v>86400</v>
       </c>
-      <c r="AD25" s="1" t="s">
-        <v>51</v>
+      <c r="AA25" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="20" customHeight="1">
+    <row r="26" spans="1:27" ht="20" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="D26" s="4"/>
@@ -5342,7 +5137,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:30" ht="20" customHeight="1">
+    <row r="27" spans="1:27" ht="20" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="D27" s="4"/>
@@ -5350,7 +5145,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:30" ht="20" customHeight="1">
+    <row r="28" spans="1:27" ht="20" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="D28" s="4"/>
@@ -5358,7 +5153,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:30" ht="20" customHeight="1">
+    <row r="29" spans="1:27" ht="20" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="D29" s="4"/>
@@ -5366,7 +5161,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:30" ht="20" customHeight="1">
+    <row r="30" spans="1:27" ht="20" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="D30" s="4"/>
@@ -5374,7 +5169,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:30" ht="20" customHeight="1">
+    <row r="31" spans="1:27" ht="20" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="D31" s="4"/>
@@ -5382,7 +5177,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:30" ht="20" customHeight="1">
+    <row r="32" spans="1:27" ht="20" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="D32" s="4"/>
@@ -5412,10 +5207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5423,19 +5218,24 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1"/>
     <col min="3" max="3" width="36.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16" width="17" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="20.6640625" style="1"/>
+    <col min="4" max="13" width="17" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="1" customWidth="1"/>
+    <col min="15" max="16" width="17" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" style="1"/>
+    <col min="18" max="18" width="14.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -5444,19 +5244,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -5468,30 +5268,36 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20" customHeight="1">
+    <row r="2" spans="1:20" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -5535,19 +5341,25 @@
       <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>48</v>
+      <c r="R2" s="1">
+        <v>200</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20" customHeight="1">
+    <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5591,19 +5403,25 @@
       <c r="Q3" s="1">
         <v>30</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>49</v>
+      <c r="R3" s="1">
+        <v>400</v>
+      </c>
+      <c r="S3" s="1">
+        <v>10</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20" customHeight="1">
+    <row r="4" spans="1:20" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -5647,19 +5465,25 @@
       <c r="Q4" s="1">
         <v>50</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>50</v>
+      <c r="R4" s="1">
+        <v>600</v>
+      </c>
+      <c r="S4" s="1">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20" customHeight="1">
+    <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -5703,19 +5527,25 @@
       <c r="Q5" s="1">
         <v>100</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>25</v>
+      <c r="R5" s="1">
+        <v>200</v>
+      </c>
+      <c r="S5" s="1">
+        <v>10</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20" customHeight="1">
+    <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -5748,7 +5578,7 @@
         <v>160</v>
       </c>
       <c r="N6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>5</v>
@@ -5759,19 +5589,25 @@
       <c r="Q6" s="1">
         <v>30</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>48</v>
+      <c r="R6" s="1">
+        <v>400</v>
+      </c>
+      <c r="S6" s="1">
+        <v>10</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20" customHeight="1">
+    <row r="7" spans="1:20" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -5804,7 +5640,7 @@
         <v>150</v>
       </c>
       <c r="N7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
         <v>5</v>
@@ -5815,19 +5651,25 @@
       <c r="Q7" s="1">
         <v>30</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>49</v>
+      <c r="R7" s="1">
+        <v>600</v>
+      </c>
+      <c r="S7" s="1">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20" customHeight="1">
+    <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -5860,7 +5702,7 @@
         <v>220</v>
       </c>
       <c r="N8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O8" s="1">
         <v>10</v>
@@ -5871,19 +5713,25 @@
       <c r="Q8" s="1">
         <v>50</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>50</v>
+      <c r="R8" s="1">
+        <v>200</v>
+      </c>
+      <c r="S8" s="1">
+        <v>10</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20" customHeight="1">
+    <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -5916,7 +5764,7 @@
         <v>140</v>
       </c>
       <c r="N9" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O9" s="1">
         <v>20</v>
@@ -5927,8 +5775,14 @@
       <c r="Q9" s="1">
         <v>100</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>25</v>
+      <c r="R9" s="1">
+        <v>400</v>
+      </c>
+      <c r="S9" s="1">
+        <v>10</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="1140" windowWidth="32100" windowHeight="18280" tabRatio="132" activeTab="1"/>
+    <workbookView xWindow="140" yWindow="0" windowWidth="35800" windowHeight="19360" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -580,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="992">
+  <cellStyleXfs count="1008">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -595,6 +595,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1599,7 +1615,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="992">
+  <cellStyles count="1008">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2098,6 +2114,14 @@
     <cellStyle name="超链接" xfId="986" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="988" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="990" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="992" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="994" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="996" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="998" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1000" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1002" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1004" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1006" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2589,6 +2613,14 @@
     <cellStyle name="访问过的超链接" xfId="987" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="989" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="991" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="993" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="995" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="997" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="999" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1001" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1003" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1005" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1007" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3040,8 +3072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3178,7 +3210,7 @@
         <v>170</v>
       </c>
       <c r="N2" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="1">
         <v>2</v>
@@ -3190,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="S2" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="T2" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="U2" s="1">
         <v>20</v>
       </c>
       <c r="V2" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W2" s="1">
         <v>10</v>
@@ -3261,7 +3293,7 @@
         <v>170</v>
       </c>
       <c r="N3" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
         <v>4</v>
@@ -3273,19 +3305,19 @@
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="S3" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="T3" s="1">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="U3" s="1">
         <v>20</v>
       </c>
       <c r="V3" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -3344,7 +3376,7 @@
         <v>170</v>
       </c>
       <c r="N4" s="6">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="O4" s="1">
         <v>6</v>
@@ -3427,7 +3459,7 @@
         <v>140</v>
       </c>
       <c r="N5" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="1">
         <v>2</v>
@@ -3439,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="S5" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T5" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="U5" s="1">
         <v>20</v>
       </c>
       <c r="V5" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W5" s="1">
         <v>10</v>
@@ -3510,7 +3542,7 @@
         <v>140</v>
       </c>
       <c r="N6" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>4</v>
@@ -3522,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="S6" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T6" s="1">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="U6" s="1">
         <v>20</v>
       </c>
       <c r="V6" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W6" s="1">
         <v>10</v>
@@ -3593,7 +3625,7 @@
         <v>140</v>
       </c>
       <c r="N7" s="6">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="O7" s="1">
         <v>6</v>
@@ -3676,7 +3708,7 @@
         <v>160</v>
       </c>
       <c r="N8" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O8" s="1">
         <v>2</v>
@@ -3685,22 +3717,22 @@
         <v>1</v>
       </c>
       <c r="Q8" s="3">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="R8" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T8" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="U8" s="1">
         <v>20</v>
       </c>
       <c r="V8" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W8" s="1">
         <v>10</v>
@@ -3759,7 +3791,7 @@
         <v>160</v>
       </c>
       <c r="N9" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
         <v>4</v>
@@ -3768,22 +3800,22 @@
         <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
         <v>480</v>
       </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
       <c r="T9" s="1">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="U9" s="1">
         <v>20</v>
       </c>
       <c r="V9" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W9" s="1">
         <v>10</v>
@@ -3842,7 +3874,7 @@
         <v>160</v>
       </c>
       <c r="N10" s="6">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="O10" s="1">
         <v>6</v>
@@ -3851,13 +3883,13 @@
         <v>1</v>
       </c>
       <c r="Q10" s="3">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="R10" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="T10" s="1">
         <v>480</v>
@@ -3925,7 +3957,7 @@
         <v>150</v>
       </c>
       <c r="N11" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O11" s="1">
         <v>2</v>
@@ -3934,22 +3966,22 @@
         <v>1</v>
       </c>
       <c r="Q11" s="3">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="R11" s="1">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T11" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="U11" s="1">
         <v>20</v>
       </c>
       <c r="V11" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W11" s="1">
         <v>10</v>
@@ -4008,7 +4040,7 @@
         <v>150</v>
       </c>
       <c r="N12" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
         <v>4</v>
@@ -4017,22 +4049,22 @@
         <v>1</v>
       </c>
       <c r="Q12" s="3">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="R12" s="1">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T12" s="1">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="U12" s="1">
         <v>20</v>
       </c>
       <c r="V12" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W12" s="1">
         <v>10</v>
@@ -4091,7 +4123,7 @@
         <v>150</v>
       </c>
       <c r="N13" s="6">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="O13" s="1">
         <v>6</v>
@@ -4174,7 +4206,7 @@
         <v>200</v>
       </c>
       <c r="N14" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
         <v>4</v>
@@ -4183,22 +4215,22 @@
         <v>2</v>
       </c>
       <c r="Q14" s="3">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S14" s="1">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="T14" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="U14" s="1">
         <v>40</v>
       </c>
       <c r="V14" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W14" s="1">
         <v>20</v>
@@ -4257,7 +4289,7 @@
         <v>200</v>
       </c>
       <c r="N15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" s="1">
         <v>8</v>
@@ -4266,22 +4298,22 @@
         <v>2</v>
       </c>
       <c r="Q15" s="3">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S15" s="1">
-        <v>1600</v>
+        <v>720</v>
       </c>
       <c r="T15" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="U15" s="1">
         <v>40</v>
       </c>
       <c r="V15" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="W15" s="1">
         <v>20</v>
@@ -4340,7 +4372,7 @@
         <v>200</v>
       </c>
       <c r="N16" s="6">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O16" s="1">
         <v>12</v>
@@ -4352,10 +4384,10 @@
         <v>1440</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="S16" s="1">
-        <v>2400</v>
+        <v>1440</v>
       </c>
       <c r="T16" s="1">
         <v>960</v>
@@ -4423,7 +4455,7 @@
         <v>240</v>
       </c>
       <c r="N17" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1">
         <v>4</v>
@@ -4432,22 +4464,22 @@
         <v>2</v>
       </c>
       <c r="Q17" s="3">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S17" s="1">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="T17" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="U17" s="1">
         <v>40</v>
       </c>
       <c r="V17" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W17" s="1">
         <v>20</v>
@@ -4506,7 +4538,7 @@
         <v>240</v>
       </c>
       <c r="N18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" s="1">
         <v>8</v>
@@ -4515,22 +4547,22 @@
         <v>2</v>
       </c>
       <c r="Q18" s="3">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S18" s="1">
-        <v>1280</v>
+        <v>480</v>
       </c>
       <c r="T18" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="U18" s="1">
         <v>40</v>
       </c>
       <c r="V18" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="W18" s="1">
         <v>20</v>
@@ -4589,7 +4621,7 @@
         <v>240</v>
       </c>
       <c r="N19" s="6">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O19" s="1">
         <v>12</v>
@@ -4601,10 +4633,10 @@
         <v>1920</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="S19" s="1">
-        <v>1920</v>
+        <v>960</v>
       </c>
       <c r="T19" s="1">
         <v>960</v>
@@ -4672,7 +4704,7 @@
         <v>120</v>
       </c>
       <c r="N20" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="1">
         <v>8</v>
@@ -4681,22 +4713,22 @@
         <v>4</v>
       </c>
       <c r="Q20" s="3">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="R20" s="1">
-        <v>1280</v>
+        <v>800</v>
       </c>
       <c r="S20" s="1">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="U20" s="1">
         <v>80</v>
       </c>
       <c r="V20" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="W20" s="1">
         <v>40</v>
@@ -4755,7 +4787,7 @@
         <v>120</v>
       </c>
       <c r="N21" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O21" s="1">
         <v>16</v>
@@ -4763,23 +4795,23 @@
       <c r="P21" s="1">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
-        <v>1280</v>
+      <c r="Q21" s="1">
+        <v>1440</v>
       </c>
       <c r="R21" s="1">
-        <v>2560</v>
+        <v>2400</v>
       </c>
       <c r="S21" s="1">
-        <v>1280</v>
+        <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="U21" s="1">
         <v>80</v>
       </c>
       <c r="V21" s="1">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="W21" s="1">
         <v>40</v>
@@ -4838,7 +4870,7 @@
         <v>120</v>
       </c>
       <c r="N22" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O22" s="1">
         <v>24</v>
@@ -4846,14 +4878,14 @@
       <c r="P22" s="1">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>1920</v>
+      <c r="Q22" s="1">
+        <v>2880</v>
       </c>
       <c r="R22" s="1">
-        <v>3840</v>
+        <v>4800</v>
       </c>
       <c r="S22" s="1">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1">
         <v>1920</v>
@@ -4921,7 +4953,7 @@
         <v>132</v>
       </c>
       <c r="N23" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="1">
         <v>8</v>
@@ -4930,22 +4962,22 @@
         <v>4</v>
       </c>
       <c r="Q23" s="1">
-        <v>960</v>
+        <v>640</v>
       </c>
       <c r="R23" s="1">
-        <v>960</v>
+        <v>640</v>
       </c>
       <c r="S23" s="1">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="U23" s="1">
         <v>80</v>
       </c>
       <c r="V23" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="W23" s="1">
         <v>40</v>
@@ -5004,7 +5036,7 @@
         <v>132</v>
       </c>
       <c r="N24" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O24" s="1">
         <v>16</v>
@@ -5019,16 +5051,16 @@
         <v>1920</v>
       </c>
       <c r="S24" s="1">
-        <v>1280</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="U24" s="1">
         <v>80</v>
       </c>
       <c r="V24" s="1">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="W24" s="1">
         <v>40</v>
@@ -5087,7 +5119,7 @@
         <v>132</v>
       </c>
       <c r="N25" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O25" s="1">
         <v>24</v>
@@ -5096,13 +5128,13 @@
         <v>4</v>
       </c>
       <c r="Q25" s="1">
-        <v>2880</v>
+        <v>3840</v>
       </c>
       <c r="R25" s="1">
-        <v>2880</v>
+        <v>3840</v>
       </c>
       <c r="S25" s="1">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1">
         <v>1920</v>
@@ -5209,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5324,7 +5356,7 @@
         <v>300</v>
       </c>
       <c r="L2" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="M2" s="1">
         <v>140</v>
@@ -5342,10 +5374,10 @@
         <v>30</v>
       </c>
       <c r="R2" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S2" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>42</v>
@@ -5386,7 +5418,7 @@
         <v>150</v>
       </c>
       <c r="L3" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M3" s="1">
         <v>150</v>
@@ -5404,10 +5436,10 @@
         <v>30</v>
       </c>
       <c r="R3" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S3" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>43</v>
@@ -5448,7 +5480,7 @@
         <v>360</v>
       </c>
       <c r="L4" s="1">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="M4" s="1">
         <v>185</v>
@@ -5463,13 +5495,13 @@
         <v>2</v>
       </c>
       <c r="Q4" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R4" s="1">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="S4" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>44</v>
@@ -5510,7 +5542,7 @@
         <v>900</v>
       </c>
       <c r="L5" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="M5" s="1">
         <v>125</v>
@@ -5525,13 +5557,13 @@
         <v>4</v>
       </c>
       <c r="Q5" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="R5" s="1">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="S5" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>21</v>
@@ -5590,10 +5622,10 @@
         <v>30</v>
       </c>
       <c r="R6" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S6" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>42</v>
@@ -5652,10 +5684,10 @@
         <v>30</v>
       </c>
       <c r="R7" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S7" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>43</v>
@@ -5711,13 +5743,13 @@
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R8" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="S8" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>44</v>
@@ -5773,13 +5805,13 @@
         <v>4</v>
       </c>
       <c r="Q9" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="R9" s="1">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="S9" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="35800" windowHeight="19360" tabRatio="288"/>
+    <workbookView xWindow="4380" yWindow="0" windowWidth="35800" windowHeight="19360" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -580,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1008">
+  <cellStyleXfs count="1024">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -595,6 +595,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1615,7 +1631,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1008">
+  <cellStyles count="1024">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2122,6 +2138,14 @@
     <cellStyle name="超链接" xfId="1002" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1004" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1006" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1008" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1010" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1012" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1014" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1016" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1018" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1020" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1022" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2621,6 +2645,14 @@
     <cellStyle name="访问过的超链接" xfId="1003" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1005" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1007" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1009" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1011" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1013" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1015" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1017" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1019" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1021" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1023" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3072,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:L19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23:V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3234,10 +3266,10 @@
         <v>20</v>
       </c>
       <c r="V2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X2" s="5">
         <v>0</v>
@@ -3317,10 +3349,10 @@
         <v>20</v>
       </c>
       <c r="V3" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="W3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X3" s="5">
         <v>50000</v>
@@ -3400,10 +3432,10 @@
         <v>20</v>
       </c>
       <c r="V4" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X4" s="1">
         <v>100000</v>
@@ -3483,10 +3515,10 @@
         <v>20</v>
       </c>
       <c r="V5" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W5" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X5" s="5">
         <v>0</v>
@@ -3566,10 +3598,10 @@
         <v>20</v>
       </c>
       <c r="V6" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="W6" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X6" s="5">
         <v>50000</v>
@@ -3649,10 +3681,10 @@
         <v>20</v>
       </c>
       <c r="V7" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X7" s="1">
         <v>100000</v>
@@ -3732,10 +3764,10 @@
         <v>20</v>
       </c>
       <c r="V8" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W8" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X8" s="5">
         <v>0</v>
@@ -3815,10 +3847,10 @@
         <v>20</v>
       </c>
       <c r="V9" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="W9" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X9" s="5">
         <v>50000</v>
@@ -3898,10 +3930,10 @@
         <v>20</v>
       </c>
       <c r="V10" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W10" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X10" s="1">
         <v>100000</v>
@@ -3981,10 +4013,10 @@
         <v>20</v>
       </c>
       <c r="V11" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X11" s="5">
         <v>0</v>
@@ -4064,10 +4096,10 @@
         <v>20</v>
       </c>
       <c r="V12" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="W12" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X12" s="5">
         <v>50000</v>
@@ -4147,10 +4179,10 @@
         <v>20</v>
       </c>
       <c r="V13" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W13" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X13" s="1">
         <v>100000</v>
@@ -4230,10 +4262,10 @@
         <v>40</v>
       </c>
       <c r="V14" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W14" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X14" s="5">
         <v>0</v>
@@ -4313,10 +4345,10 @@
         <v>40</v>
       </c>
       <c r="V15" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W15" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X15" s="5">
         <v>50000</v>
@@ -4396,10 +4428,10 @@
         <v>40</v>
       </c>
       <c r="V16" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="W16" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X16" s="1">
         <v>100000</v>
@@ -4479,10 +4511,10 @@
         <v>40</v>
       </c>
       <c r="V17" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W17" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X17" s="5">
         <v>0</v>
@@ -4562,10 +4594,10 @@
         <v>40</v>
       </c>
       <c r="V18" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W18" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X18" s="5">
         <v>50000</v>
@@ -4645,10 +4677,10 @@
         <v>40</v>
       </c>
       <c r="V19" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="W19" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X19" s="1">
         <v>100000</v>
@@ -4728,10 +4760,10 @@
         <v>80</v>
       </c>
       <c r="V20" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W20" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X20" s="5">
         <v>0</v>
@@ -4811,10 +4843,10 @@
         <v>80</v>
       </c>
       <c r="V21" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="W21" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X21" s="5">
         <v>50000</v>
@@ -4894,10 +4926,10 @@
         <v>80</v>
       </c>
       <c r="V22" s="1">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="W22" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X22" s="1">
         <v>100000</v>
@@ -4977,10 +5009,10 @@
         <v>80</v>
       </c>
       <c r="V23" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W23" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X23" s="5">
         <v>0</v>
@@ -5060,10 +5092,10 @@
         <v>80</v>
       </c>
       <c r="V24" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="W24" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X24" s="5">
         <v>50000</v>
@@ -5143,10 +5175,10 @@
         <v>80</v>
       </c>
       <c r="V25" s="1">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="W25" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X25" s="1">
         <v>100000</v>
@@ -5241,8 +5273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5374,10 +5406,10 @@
         <v>30</v>
       </c>
       <c r="R2" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="S2" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>42</v>
@@ -5436,10 +5468,10 @@
         <v>30</v>
       </c>
       <c r="R3" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="S3" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>43</v>
@@ -5498,10 +5530,10 @@
         <v>60</v>
       </c>
       <c r="R4" s="1">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="S4" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>44</v>
@@ -5560,10 +5592,10 @@
         <v>120</v>
       </c>
       <c r="R5" s="1">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="S5" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>21</v>
@@ -5619,13 +5651,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R6" s="1">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="S6" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>42</v>
@@ -5681,13 +5713,13 @@
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R7" s="1">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="S7" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>43</v>
@@ -5743,13 +5775,13 @@
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="R8" s="1">
-        <v>1000</v>
+        <v>780</v>
       </c>
       <c r="S8" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>44</v>
@@ -5805,13 +5837,13 @@
         <v>4</v>
       </c>
       <c r="Q9" s="1">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="R9" s="1">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="S9" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="0" windowWidth="35800" windowHeight="19360" tabRatio="288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34340" windowHeight="18080" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -580,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1024">
+  <cellStyleXfs count="1038">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -595,6 +595,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1631,7 +1645,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1024">
+  <cellStyles count="1038">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2146,6 +2160,13 @@
     <cellStyle name="超链接" xfId="1018" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1020" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1022" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1024" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1026" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1028" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1030" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1032" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1034" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1036" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2653,6 +2674,13 @@
     <cellStyle name="访问过的超链接" xfId="1019" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1021" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1023" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1025" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1027" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1029" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1031" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1033" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1035" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1037" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3104,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23:V25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27:AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3251,22 +3279,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R2" s="1">
+        <v>80</v>
+      </c>
+      <c r="S2" s="1">
+        <v>120</v>
+      </c>
+      <c r="T2" s="1">
         <v>160</v>
-      </c>
-      <c r="S2" s="1">
-        <v>160</v>
-      </c>
-      <c r="T2" s="1">
-        <v>80</v>
       </c>
       <c r="U2" s="1">
         <v>20</v>
       </c>
       <c r="V2" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W2" s="1">
         <v>5</v>
@@ -3334,22 +3362,22 @@
         <v>1</v>
       </c>
       <c r="Q3" s="3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="R3" s="1">
+        <v>240</v>
+      </c>
+      <c r="S3" s="1">
+        <v>360</v>
+      </c>
+      <c r="T3" s="1">
         <v>480</v>
-      </c>
-      <c r="S3" s="1">
-        <v>480</v>
-      </c>
-      <c r="T3" s="1">
-        <v>240</v>
       </c>
       <c r="U3" s="1">
         <v>20</v>
       </c>
       <c r="V3" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W3" s="1">
         <v>5</v>
@@ -3417,22 +3445,22 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="R4" s="1">
+        <v>480</v>
+      </c>
+      <c r="S4" s="1">
+        <v>720</v>
+      </c>
+      <c r="T4" s="1">
         <v>960</v>
-      </c>
-      <c r="S4" s="1">
-        <v>960</v>
-      </c>
-      <c r="T4" s="1">
-        <v>480</v>
       </c>
       <c r="U4" s="1">
         <v>20</v>
       </c>
       <c r="V4" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="W4" s="1">
         <v>5</v>
@@ -3503,19 +3531,19 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="S5" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="T5" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="U5" s="1">
         <v>20</v>
       </c>
       <c r="V5" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W5" s="1">
         <v>5</v>
@@ -3586,19 +3614,19 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="S6" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="T6" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="U6" s="1">
         <v>20</v>
       </c>
       <c r="V6" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W6" s="1">
         <v>5</v>
@@ -3669,19 +3697,19 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="S7" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="T7" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="U7" s="1">
         <v>20</v>
       </c>
       <c r="V7" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="W7" s="1">
         <v>5</v>
@@ -3749,22 +3777,22 @@
         <v>1</v>
       </c>
       <c r="Q8" s="3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
       <c r="S8" s="1">
+        <v>120</v>
+      </c>
+      <c r="T8" s="1">
         <v>160</v>
-      </c>
-      <c r="T8" s="1">
-        <v>80</v>
       </c>
       <c r="U8" s="1">
         <v>20</v>
       </c>
       <c r="V8" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W8" s="1">
         <v>5</v>
@@ -3832,22 +3860,22 @@
         <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
       </c>
       <c r="S9" s="1">
+        <v>360</v>
+      </c>
+      <c r="T9" s="1">
         <v>480</v>
-      </c>
-      <c r="T9" s="1">
-        <v>240</v>
       </c>
       <c r="U9" s="1">
         <v>20</v>
       </c>
       <c r="V9" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W9" s="1">
         <v>5</v>
@@ -3915,22 +3943,22 @@
         <v>1</v>
       </c>
       <c r="Q10" s="3">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
       </c>
       <c r="S10" s="1">
+        <v>720</v>
+      </c>
+      <c r="T10" s="1">
         <v>960</v>
-      </c>
-      <c r="T10" s="1">
-        <v>480</v>
       </c>
       <c r="U10" s="1">
         <v>20</v>
       </c>
       <c r="V10" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="W10" s="1">
         <v>5</v>
@@ -3998,22 +4026,22 @@
         <v>1</v>
       </c>
       <c r="Q11" s="3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="T11" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="U11" s="1">
         <v>20</v>
       </c>
       <c r="V11" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W11" s="1">
         <v>5</v>
@@ -4081,22 +4109,22 @@
         <v>1</v>
       </c>
       <c r="Q12" s="3">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="T12" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="U12" s="1">
         <v>20</v>
       </c>
       <c r="V12" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W12" s="1">
         <v>5</v>
@@ -4164,22 +4192,22 @@
         <v>1</v>
       </c>
       <c r="Q13" s="3">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="T13" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="U13" s="1">
         <v>20</v>
       </c>
       <c r="V13" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="W13" s="1">
         <v>5</v>
@@ -4247,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="Q14" s="3">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="R14" s="1">
         <v>160</v>
@@ -4256,13 +4284,13 @@
         <v>240</v>
       </c>
       <c r="T14" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="U14" s="1">
         <v>40</v>
       </c>
       <c r="V14" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="W14" s="1">
         <v>10</v>
@@ -4330,7 +4358,7 @@
         <v>2</v>
       </c>
       <c r="Q15" s="3">
-        <v>720</v>
+        <v>240</v>
       </c>
       <c r="R15" s="1">
         <v>480</v>
@@ -4339,13 +4367,13 @@
         <v>720</v>
       </c>
       <c r="T15" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="U15" s="1">
         <v>40</v>
       </c>
       <c r="V15" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="W15" s="1">
         <v>10</v>
@@ -4413,7 +4441,7 @@
         <v>2</v>
       </c>
       <c r="Q16" s="3">
-        <v>1440</v>
+        <v>480</v>
       </c>
       <c r="R16" s="1">
         <v>960</v>
@@ -4422,13 +4450,13 @@
         <v>1440</v>
       </c>
       <c r="T16" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="U16" s="1">
         <v>40</v>
       </c>
       <c r="V16" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="W16" s="1">
         <v>10</v>
@@ -4496,22 +4524,22 @@
         <v>2</v>
       </c>
       <c r="Q17" s="3">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="R17" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="S17" s="1">
         <v>160</v>
       </c>
       <c r="T17" s="1">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="U17" s="1">
         <v>40</v>
       </c>
       <c r="V17" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="W17" s="1">
         <v>10</v>
@@ -4579,22 +4607,22 @@
         <v>2</v>
       </c>
       <c r="Q18" s="3">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="R18" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="S18" s="1">
         <v>480</v>
       </c>
       <c r="T18" s="1">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="U18" s="1">
         <v>40</v>
       </c>
       <c r="V18" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="W18" s="1">
         <v>10</v>
@@ -4662,22 +4690,22 @@
         <v>2</v>
       </c>
       <c r="Q19" s="3">
-        <v>1920</v>
+        <v>1440</v>
       </c>
       <c r="R19" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
         <v>960</v>
       </c>
       <c r="T19" s="1">
-        <v>960</v>
+        <v>2400</v>
       </c>
       <c r="U19" s="1">
         <v>40</v>
       </c>
       <c r="V19" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="W19" s="1">
         <v>10</v>
@@ -4744,23 +4772,23 @@
       <c r="P20" s="1">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="1">
+        <v>320</v>
+      </c>
+      <c r="R20" s="1">
         <v>480</v>
       </c>
-      <c r="R20" s="1">
-        <v>800</v>
-      </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T20" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="U20" s="1">
         <v>80</v>
       </c>
       <c r="V20" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="W20" s="1">
         <v>20</v>
@@ -4828,22 +4856,22 @@
         <v>4</v>
       </c>
       <c r="Q21" s="1">
+        <v>960</v>
+      </c>
+      <c r="R21" s="1">
         <v>1440</v>
       </c>
-      <c r="R21" s="1">
-        <v>2400</v>
-      </c>
       <c r="S21" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="T21" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="U21" s="1">
         <v>80</v>
       </c>
       <c r="V21" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="W21" s="1">
         <v>20</v>
@@ -4911,22 +4939,22 @@
         <v>4</v>
       </c>
       <c r="Q22" s="1">
+        <v>1920</v>
+      </c>
+      <c r="R22" s="1">
         <v>2880</v>
       </c>
-      <c r="R22" s="1">
-        <v>4800</v>
-      </c>
       <c r="S22" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="T22" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="U22" s="1">
         <v>80</v>
       </c>
       <c r="V22" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="W22" s="1">
         <v>20</v>
@@ -4994,22 +5022,22 @@
         <v>4</v>
       </c>
       <c r="Q23" s="1">
+        <v>480</v>
+      </c>
+      <c r="R23" s="1">
+        <v>320</v>
+      </c>
+      <c r="S23" s="1">
+        <v>160</v>
+      </c>
+      <c r="T23" s="1">
         <v>640</v>
-      </c>
-      <c r="R23" s="1">
-        <v>640</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>320</v>
       </c>
       <c r="U23" s="1">
         <v>80</v>
       </c>
       <c r="V23" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="W23" s="1">
         <v>20</v>
@@ -5077,22 +5105,22 @@
         <v>4</v>
       </c>
       <c r="Q24" s="1">
+        <v>1440</v>
+      </c>
+      <c r="R24" s="1">
+        <v>960</v>
+      </c>
+      <c r="S24" s="1">
+        <v>480</v>
+      </c>
+      <c r="T24" s="1">
         <v>1920</v>
-      </c>
-      <c r="R24" s="1">
-        <v>1920</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>960</v>
       </c>
       <c r="U24" s="1">
         <v>80</v>
       </c>
       <c r="V24" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="W24" s="1">
         <v>20</v>
@@ -5160,22 +5188,22 @@
         <v>4</v>
       </c>
       <c r="Q25" s="1">
+        <v>2880</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1920</v>
+      </c>
+      <c r="S25" s="1">
+        <v>960</v>
+      </c>
+      <c r="T25" s="1">
         <v>3840</v>
-      </c>
-      <c r="R25" s="1">
-        <v>3840</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>1920</v>
       </c>
       <c r="U25" s="1">
         <v>80</v>
       </c>
       <c r="V25" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="W25" s="1">
         <v>20</v>
@@ -5273,8 +5301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:G39"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5654,7 +5682,7 @@
         <v>40</v>
       </c>
       <c r="R6" s="1">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="S6" s="1">
         <v>10</v>
@@ -5716,7 +5744,7 @@
         <v>40</v>
       </c>
       <c r="R7" s="1">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="S7" s="1">
         <v>10</v>
@@ -5778,7 +5806,7 @@
         <v>80</v>
       </c>
       <c r="R8" s="1">
-        <v>780</v>
+        <v>650</v>
       </c>
       <c r="S8" s="1">
         <v>20</v>
@@ -5840,7 +5868,7 @@
         <v>160</v>
       </c>
       <c r="R9" s="1">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="S9" s="1">
         <v>40</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34340" windowHeight="18080" tabRatio="288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37420" windowHeight="17980" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -580,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1038">
+  <cellStyleXfs count="1074">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -595,6 +595,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1645,7 +1681,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1038">
+  <cellStyles count="1074">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2167,6 +2203,24 @@
     <cellStyle name="超链接" xfId="1032" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1034" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1036" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1038" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1040" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1042" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1044" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1046" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1048" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1050" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1052" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1054" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1056" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1058" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1060" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1062" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1064" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1066" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1068" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1070" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1072" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2681,6 +2735,24 @@
     <cellStyle name="访问过的超链接" xfId="1033" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1035" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1037" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1039" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1041" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1043" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1045" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1047" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1049" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1051" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1053" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1055" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1057" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1059" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1061" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1063" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1065" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1067" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1069" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1071" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1073" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3132,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27:AB28"/>
+    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3279,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
         <v>80</v>
@@ -3288,16 +3360,16 @@
         <v>120</v>
       </c>
       <c r="T2" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="U2" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V2" s="1">
         <v>40</v>
       </c>
       <c r="W2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X2" s="5">
         <v>0</v>
@@ -3362,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>240</v>
@@ -3371,16 +3443,16 @@
         <v>360</v>
       </c>
       <c r="T3" s="1">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="U3" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V3" s="1">
         <v>120</v>
       </c>
       <c r="W3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X3" s="5">
         <v>50000</v>
@@ -3445,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>480</v>
@@ -3454,16 +3526,16 @@
         <v>720</v>
       </c>
       <c r="T4" s="1">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="U4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V4" s="1">
         <v>240</v>
       </c>
       <c r="W4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X4" s="1">
         <v>100000</v>
@@ -3531,22 +3603,22 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="S5" s="1">
         <v>160</v>
       </c>
       <c r="T5" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="U5" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V5" s="1">
         <v>40</v>
       </c>
       <c r="W5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X5" s="5">
         <v>0</v>
@@ -3614,22 +3686,22 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="S6" s="1">
         <v>480</v>
       </c>
       <c r="T6" s="1">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="U6" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V6" s="1">
         <v>120</v>
       </c>
       <c r="W6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X6" s="5">
         <v>50000</v>
@@ -3697,22 +3769,22 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="S7" s="1">
         <v>960</v>
       </c>
       <c r="T7" s="1">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="U7" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V7" s="1">
         <v>240</v>
       </c>
       <c r="W7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X7" s="1">
         <v>100000</v>
@@ -3786,16 +3858,16 @@
         <v>120</v>
       </c>
       <c r="T8" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="U8" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V8" s="1">
         <v>40</v>
       </c>
       <c r="W8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X8" s="5">
         <v>0</v>
@@ -3869,16 +3941,16 @@
         <v>360</v>
       </c>
       <c r="T9" s="1">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="U9" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V9" s="1">
         <v>120</v>
       </c>
       <c r="W9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X9" s="5">
         <v>50000</v>
@@ -3952,16 +4024,16 @@
         <v>720</v>
       </c>
       <c r="T10" s="1">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="U10" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V10" s="1">
         <v>240</v>
       </c>
       <c r="W10" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X10" s="1">
         <v>100000</v>
@@ -4035,16 +4107,16 @@
         <v>160</v>
       </c>
       <c r="T11" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="U11" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V11" s="1">
         <v>40</v>
       </c>
       <c r="W11" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X11" s="5">
         <v>0</v>
@@ -4118,16 +4190,16 @@
         <v>480</v>
       </c>
       <c r="T12" s="1">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="U12" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V12" s="1">
         <v>120</v>
       </c>
       <c r="W12" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X12" s="5">
         <v>50000</v>
@@ -4201,16 +4273,16 @@
         <v>960</v>
       </c>
       <c r="T13" s="1">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="U13" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V13" s="1">
         <v>240</v>
       </c>
       <c r="W13" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X13" s="1">
         <v>100000</v>
@@ -4278,22 +4350,22 @@
         <v>80</v>
       </c>
       <c r="R14" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="S14" s="1">
         <v>240</v>
       </c>
       <c r="T14" s="1">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="U14" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V14" s="1">
         <v>80</v>
       </c>
       <c r="W14" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X14" s="5">
         <v>0</v>
@@ -4361,22 +4433,22 @@
         <v>240</v>
       </c>
       <c r="R15" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="S15" s="1">
         <v>720</v>
       </c>
       <c r="T15" s="1">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="U15" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V15" s="1">
         <v>240</v>
       </c>
       <c r="W15" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X15" s="5">
         <v>50000</v>
@@ -4444,22 +4516,22 @@
         <v>480</v>
       </c>
       <c r="R16" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="S16" s="1">
         <v>1440</v>
       </c>
       <c r="T16" s="1">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="U16" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V16" s="1">
         <v>480</v>
       </c>
       <c r="W16" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X16" s="1">
         <v>100000</v>
@@ -4536,13 +4608,13 @@
         <v>400</v>
       </c>
       <c r="U17" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V17" s="1">
         <v>80</v>
       </c>
       <c r="W17" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X17" s="5">
         <v>0</v>
@@ -4619,13 +4691,13 @@
         <v>1200</v>
       </c>
       <c r="U18" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V18" s="1">
         <v>240</v>
       </c>
       <c r="W18" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X18" s="5">
         <v>50000</v>
@@ -4689,11 +4761,11 @@
       <c r="P19" s="1">
         <v>2</v>
       </c>
-      <c r="Q19" s="3">
-        <v>1440</v>
+      <c r="Q19" s="1">
+        <v>960</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S19" s="1">
         <v>960</v>
@@ -4702,13 +4774,13 @@
         <v>2400</v>
       </c>
       <c r="U19" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V19" s="1">
         <v>480</v>
       </c>
       <c r="W19" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X19" s="1">
         <v>100000</v>
@@ -4773,7 +4845,7 @@
         <v>4</v>
       </c>
       <c r="Q20" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="R20" s="1">
         <v>480</v>
@@ -4782,16 +4854,16 @@
         <v>160</v>
       </c>
       <c r="T20" s="1">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="U20" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V20" s="1">
         <v>160</v>
       </c>
       <c r="W20" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X20" s="5">
         <v>0</v>
@@ -4856,7 +4928,7 @@
         <v>4</v>
       </c>
       <c r="Q21" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="R21" s="1">
         <v>1440</v>
@@ -4865,16 +4937,16 @@
         <v>480</v>
       </c>
       <c r="T21" s="1">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="U21" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V21" s="1">
         <v>480</v>
       </c>
       <c r="W21" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X21" s="5">
         <v>50000</v>
@@ -4939,7 +5011,7 @@
         <v>4</v>
       </c>
       <c r="Q22" s="1">
-        <v>1920</v>
+        <v>960</v>
       </c>
       <c r="R22" s="1">
         <v>2880</v>
@@ -4948,16 +5020,16 @@
         <v>960</v>
       </c>
       <c r="T22" s="1">
-        <v>3840</v>
+        <v>4800</v>
       </c>
       <c r="U22" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V22" s="1">
         <v>960</v>
       </c>
       <c r="W22" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X22" s="1">
         <v>100000</v>
@@ -5025,22 +5097,22 @@
         <v>480</v>
       </c>
       <c r="R23" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="S23" s="1">
         <v>160</v>
       </c>
       <c r="T23" s="1">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="U23" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V23" s="1">
         <v>160</v>
       </c>
       <c r="W23" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X23" s="5">
         <v>0</v>
@@ -5108,22 +5180,22 @@
         <v>1440</v>
       </c>
       <c r="R24" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="S24" s="1">
         <v>480</v>
       </c>
       <c r="T24" s="1">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="U24" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V24" s="1">
         <v>480</v>
       </c>
       <c r="W24" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X24" s="5">
         <v>50000</v>
@@ -5178,7 +5250,7 @@
       <c r="M25" s="1">
         <v>132</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="1">
         <v>6</v>
       </c>
       <c r="O25" s="1">
@@ -5191,22 +5263,22 @@
         <v>2880</v>
       </c>
       <c r="R25" s="1">
-        <v>1920</v>
+        <v>960</v>
       </c>
       <c r="S25" s="1">
         <v>960</v>
       </c>
       <c r="T25" s="1">
-        <v>3840</v>
+        <v>4800</v>
       </c>
       <c r="U25" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V25" s="1">
         <v>960</v>
       </c>
       <c r="W25" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X25" s="1">
         <v>100000</v>
@@ -5301,8 +5373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5431,13 +5503,13 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R2" s="1">
         <v>250</v>
       </c>
       <c r="S2" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>42</v>
@@ -5456,7 +5528,7 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>5</v>
       </c>
       <c r="F3" s="1">
@@ -5493,13 +5565,13 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R3" s="1">
         <v>250</v>
       </c>
       <c r="S3" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>43</v>
@@ -5518,7 +5590,7 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>9</v>
       </c>
       <c r="F4" s="1">
@@ -5555,13 +5627,13 @@
         <v>2</v>
       </c>
       <c r="Q4" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="R4" s="1">
         <v>450</v>
       </c>
       <c r="S4" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>44</v>
@@ -5580,7 +5652,7 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>18</v>
       </c>
       <c r="F5" s="1">
@@ -5617,13 +5689,13 @@
         <v>4</v>
       </c>
       <c r="Q5" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="R5" s="1">
         <v>900</v>
       </c>
       <c r="S5" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>21</v>
@@ -5642,8 +5714,8 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
-        <v>5</v>
+      <c r="E6" s="5">
+        <v>7</v>
       </c>
       <c r="F6" s="1">
         <v>150</v>
@@ -5670,22 +5742,22 @@
         <v>160</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R6" s="1">
         <v>350</v>
       </c>
       <c r="S6" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>42</v>
@@ -5704,8 +5776,8 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
-        <v>5</v>
+      <c r="E7" s="5">
+        <v>7</v>
       </c>
       <c r="F7" s="1">
         <v>375</v>
@@ -5732,22 +5804,22 @@
         <v>150</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R7" s="1">
         <v>350</v>
       </c>
       <c r="S7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>43</v>
@@ -5766,8 +5838,8 @@
       <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
-        <v>10</v>
+      <c r="E8" s="5">
+        <v>13</v>
       </c>
       <c r="F8" s="1">
         <v>100</v>
@@ -5794,22 +5866,22 @@
         <v>220</v>
       </c>
       <c r="N8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R8" s="1">
         <v>650</v>
       </c>
       <c r="S8" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>44</v>
@@ -5828,8 +5900,8 @@
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
-        <v>20</v>
+      <c r="E9" s="5">
+        <v>25</v>
       </c>
       <c r="F9" s="1">
         <v>240</v>
@@ -5856,22 +5928,22 @@
         <v>140</v>
       </c>
       <c r="N9" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O9" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P9" s="1">
         <v>4</v>
       </c>
       <c r="Q9" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="R9" s="1">
         <v>1250</v>
       </c>
       <c r="S9" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37420" windowHeight="17980" tabRatio="288" activeTab="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>deathKnight</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -423,6 +423,14 @@
   </si>
   <si>
     <t>INT_treatCoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3204,8 +3212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView showRuler="0" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5373,8 +5381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5698,7 +5706,7 @@
         <v>15</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
@@ -5946,7 +5954,7 @@
         <v>20</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37420" windowHeight="17980" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="-24480" yWindow="0" windowWidth="24680" windowHeight="13620" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -588,7 +588,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1074">
+  <cellStyleXfs count="1078">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -603,6 +603,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1689,7 +1693,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1074">
+  <cellStyles count="1078">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2229,6 +2233,8 @@
     <cellStyle name="超链接" xfId="1068" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1070" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1072" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1074" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1076" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2761,6 +2767,8 @@
     <cellStyle name="访问过的超链接" xfId="1069" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1071" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1073" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1075" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1077" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3212,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3344,7 +3352,7 @@
         <v>80</v>
       </c>
       <c r="L2" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1">
         <v>170</v>
@@ -3427,7 +3435,7 @@
         <v>160</v>
       </c>
       <c r="L3" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M3" s="1">
         <v>170</v>
@@ -3510,7 +3518,7 @@
         <v>240</v>
       </c>
       <c r="L4" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M4" s="1">
         <v>170</v>
@@ -3593,7 +3601,7 @@
         <v>100</v>
       </c>
       <c r="L5" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1">
         <v>140</v>
@@ -3676,7 +3684,7 @@
         <v>200</v>
       </c>
       <c r="L6" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M6" s="1">
         <v>140</v>
@@ -3759,7 +3767,7 @@
         <v>300</v>
       </c>
       <c r="L7" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="M7" s="1">
         <v>140</v>
@@ -3842,7 +3850,7 @@
         <v>48</v>
       </c>
       <c r="L8" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M8" s="1">
         <v>160</v>
@@ -3925,7 +3933,7 @@
         <v>96</v>
       </c>
       <c r="L9" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M9" s="1">
         <v>160</v>
@@ -4008,7 +4016,7 @@
         <v>144</v>
       </c>
       <c r="L10" s="3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M10" s="1">
         <v>160</v>
@@ -4091,7 +4099,7 @@
         <v>60</v>
       </c>
       <c r="L11" s="3">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M11" s="1">
         <v>150</v>
@@ -4174,7 +4182,7 @@
         <v>120</v>
       </c>
       <c r="L12" s="3">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M12" s="1">
         <v>150</v>
@@ -4257,7 +4265,7 @@
         <v>180</v>
       </c>
       <c r="L13" s="3">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="M13" s="1">
         <v>150</v>
@@ -4340,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M14" s="1">
         <v>200</v>
@@ -4423,7 +4431,7 @@
         <v>320</v>
       </c>
       <c r="L15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M15" s="1">
         <v>200</v>
@@ -4506,7 +4514,7 @@
         <v>480</v>
       </c>
       <c r="L16" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M16" s="1">
         <v>200</v>
@@ -4589,7 +4597,7 @@
         <v>120</v>
       </c>
       <c r="L17" s="3">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M17" s="1">
         <v>240</v>
@@ -4672,7 +4680,7 @@
         <v>240</v>
       </c>
       <c r="L18" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M18" s="1">
         <v>240</v>
@@ -4755,7 +4763,7 @@
         <v>360</v>
       </c>
       <c r="L19" s="3">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="M19" s="1">
         <v>240</v>
@@ -4838,7 +4846,7 @@
         <v>192</v>
       </c>
       <c r="L20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M20" s="1">
         <v>120</v>
@@ -4921,7 +4929,7 @@
         <v>384</v>
       </c>
       <c r="L21" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M21" s="1">
         <v>120</v>
@@ -5004,7 +5012,7 @@
         <v>576</v>
       </c>
       <c r="L22" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M22" s="1">
         <v>120</v>
@@ -5086,8 +5094,8 @@
       <c r="K23" s="3">
         <v>240</v>
       </c>
-      <c r="L23" s="3">
-        <v>180</v>
+      <c r="L23" s="1">
+        <v>90</v>
       </c>
       <c r="M23" s="1">
         <v>132</v>
@@ -5170,7 +5178,7 @@
         <v>480</v>
       </c>
       <c r="L24" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="M24" s="1">
         <v>132</v>
@@ -5253,7 +5261,7 @@
         <v>720</v>
       </c>
       <c r="L25" s="1">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="M25" s="1">
         <v>132</v>
@@ -5381,8 +5389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5496,7 +5504,7 @@
         <v>300</v>
       </c>
       <c r="L2" s="1">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="M2" s="1">
         <v>140</v>
@@ -5558,7 +5566,7 @@
         <v>150</v>
       </c>
       <c r="L3" s="1">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1">
         <v>150</v>
@@ -5620,7 +5628,7 @@
         <v>360</v>
       </c>
       <c r="L4" s="1">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="M4" s="1">
         <v>185</v>
@@ -5682,7 +5690,7 @@
         <v>900</v>
       </c>
       <c r="L5" s="1">
-        <v>640</v>
+        <v>220</v>
       </c>
       <c r="M5" s="1">
         <v>125</v>
@@ -5744,7 +5752,7 @@
         <v>200</v>
       </c>
       <c r="L6" s="1">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M6" s="1">
         <v>160</v>
@@ -5806,7 +5814,7 @@
         <v>120</v>
       </c>
       <c r="L7" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="M7" s="1">
         <v>150</v>
@@ -5868,7 +5876,7 @@
         <v>600</v>
       </c>
       <c r="L8" s="1">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="M8" s="1">
         <v>220</v>
@@ -5930,7 +5938,7 @@
         <v>1000</v>
       </c>
       <c r="L9" s="1">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="M9" s="1">
         <v>140</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24480" yWindow="0" windowWidth="24680" windowHeight="13620" tabRatio="288"/>
+    <workbookView xWindow="1160" yWindow="160" windowWidth="36580" windowHeight="19680" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -372,16 +372,10 @@
     <t>deathHand_1,heroBones_1,magicBox_1</t>
   </si>
   <si>
-    <t>deathHand_2,heroBones_2,magicBox_2</t>
-  </si>
-  <si>
     <t>meatWagon</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>heroBones_4,soulStone_4,magicBox_4</t>
-  </si>
-  <si>
     <t>priest</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -400,9 +394,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>confessionHood_2,holyBook_2,brightAlloy_2</t>
-  </si>
-  <si>
     <t>steamTank</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -411,9 +402,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>brightRing_4,holyBook_4,brightAlloy_4</t>
-  </si>
-  <si>
     <t>FLOAT_consumeFoodPerHour</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -431,6 +419,22 @@
   </si>
   <si>
     <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_3,heroBones_3,magicBox_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBones_8,soulStone_8,magicBox_8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_3,holyBook_3,brightAlloy_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightRing_8,holyBook_8,brightAlloy_8</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1078">
+  <cellStyleXfs count="1090">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -603,6 +607,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1693,7 +1709,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1078">
+  <cellStyles count="1090">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2235,6 +2251,12 @@
     <cellStyle name="超链接" xfId="1072" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1074" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1076" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1078" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1080" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1082" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1084" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1086" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1088" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2769,6 +2791,12 @@
     <cellStyle name="访问过的超链接" xfId="1073" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1075" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1077" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1079" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1081" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1083" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1089" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3220,8 +3248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3275,7 +3303,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>40</v>
@@ -3299,7 +3327,7 @@
         <v>13</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>14</v>
@@ -3369,13 +3397,13 @@
       <c r="Q2" s="3">
         <v>0</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="3">
         <v>80</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="3">
         <v>120</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="3">
         <v>200</v>
       </c>
       <c r="U2" s="1">
@@ -3452,13 +3480,13 @@
       <c r="Q3" s="3">
         <v>0</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>240</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="3">
         <v>360</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="3">
         <v>600</v>
       </c>
       <c r="U3" s="1">
@@ -3535,13 +3563,13 @@
       <c r="Q4" s="3">
         <v>0</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="3">
         <v>480</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="3">
         <v>720</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="3">
         <v>1200</v>
       </c>
       <c r="U4" s="1">
@@ -3583,22 +3611,22 @@
         <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G5" s="3">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="H5" s="3">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="I5" s="3">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="J5" s="3">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="K5" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L5" s="3">
         <v>30</v>
@@ -3618,13 +3646,13 @@
       <c r="Q5" s="3">
         <v>0</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="3">
         <v>40</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
         <v>160</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="3">
         <v>200</v>
       </c>
       <c r="U5" s="1">
@@ -3666,22 +3694,22 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="G6" s="3">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="H6" s="3">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="I6" s="3">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="J6" s="3">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K6" s="3">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L6" s="3">
         <v>60</v>
@@ -3701,13 +3729,13 @@
       <c r="Q6" s="3">
         <v>0</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="3">
         <v>120</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
         <v>480</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="3">
         <v>600</v>
       </c>
       <c r="U6" s="1">
@@ -3749,22 +3777,22 @@
         <v>6</v>
       </c>
       <c r="F7" s="3">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="G7" s="3">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="H7" s="3">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="I7" s="3">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="J7" s="3">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="K7" s="3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="L7" s="3">
         <v>120</v>
@@ -3784,13 +3812,13 @@
       <c r="Q7" s="3">
         <v>0</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="3">
         <v>240</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="3">
         <v>960</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="3">
         <v>1200</v>
       </c>
       <c r="U7" s="1">
@@ -3832,22 +3860,22 @@
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H8" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I8" s="3">
+        <v>48</v>
+      </c>
+      <c r="J8" s="3">
+        <v>90</v>
+      </c>
+      <c r="K8" s="3">
         <v>80</v>
-      </c>
-      <c r="J8" s="3">
-        <v>150</v>
-      </c>
-      <c r="K8" s="3">
-        <v>48</v>
       </c>
       <c r="L8" s="3">
         <v>20</v>
@@ -3867,13 +3895,13 @@
       <c r="Q8" s="3">
         <v>120</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="1">
-        <v>120</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="S8" s="3">
+        <v>80</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
       <c r="U8" s="1">
@@ -3915,22 +3943,22 @@
         <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3">
+        <v>96</v>
+      </c>
+      <c r="J9" s="3">
+        <v>180</v>
+      </c>
+      <c r="K9" s="3">
         <v>160</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>96</v>
       </c>
       <c r="L9" s="3">
         <v>40</v>
@@ -3950,13 +3978,13 @@
       <c r="Q9" s="3">
         <v>360</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="1">
-        <v>360</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="S9" s="3">
+        <v>240</v>
+      </c>
+      <c r="T9" s="3">
         <v>600</v>
       </c>
       <c r="U9" s="1">
@@ -3998,22 +4026,22 @@
         <v>6</v>
       </c>
       <c r="F10" s="3">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H10" s="3">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="I10" s="3">
+        <v>144</v>
+      </c>
+      <c r="J10" s="3">
+        <v>270</v>
+      </c>
+      <c r="K10" s="3">
         <v>240</v>
-      </c>
-      <c r="J10" s="3">
-        <v>450</v>
-      </c>
-      <c r="K10" s="3">
-        <v>144</v>
       </c>
       <c r="L10" s="3">
         <v>80</v>
@@ -4033,13 +4061,13 @@
       <c r="Q10" s="3">
         <v>720</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="1">
-        <v>720</v>
-      </c>
-      <c r="T10" s="1">
+      <c r="S10" s="3">
+        <v>480</v>
+      </c>
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
       <c r="U10" s="1">
@@ -4116,13 +4144,13 @@
       <c r="Q11" s="3">
         <v>80</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="3">
         <v>0</v>
       </c>
-      <c r="S11" s="1">
-        <v>160</v>
-      </c>
-      <c r="T11" s="1">
+      <c r="S11" s="3">
+        <v>120</v>
+      </c>
+      <c r="T11" s="3">
         <v>200</v>
       </c>
       <c r="U11" s="1">
@@ -4199,13 +4227,13 @@
       <c r="Q12" s="3">
         <v>240</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="1">
-        <v>480</v>
-      </c>
-      <c r="T12" s="1">
+      <c r="S12" s="3">
+        <v>360</v>
+      </c>
+      <c r="T12" s="3">
         <v>600</v>
       </c>
       <c r="U12" s="1">
@@ -4282,13 +4310,13 @@
       <c r="Q13" s="3">
         <v>480</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="3">
         <v>0</v>
       </c>
-      <c r="S13" s="1">
-        <v>960</v>
-      </c>
-      <c r="T13" s="1">
+      <c r="S13" s="3">
+        <v>720</v>
+      </c>
+      <c r="T13" s="3">
         <v>1200</v>
       </c>
       <c r="U13" s="1">
@@ -4363,16 +4391,16 @@
         <v>2</v>
       </c>
       <c r="Q14" s="3">
-        <v>80</v>
-      </c>
-      <c r="R14" s="1">
-        <v>80</v>
-      </c>
-      <c r="S14" s="1">
-        <v>240</v>
-      </c>
-      <c r="T14" s="1">
-        <v>400</v>
+        <v>120</v>
+      </c>
+      <c r="R14" s="3">
+        <v>120</v>
+      </c>
+      <c r="S14" s="3">
+        <v>360</v>
+      </c>
+      <c r="T14" s="3">
+        <v>600</v>
       </c>
       <c r="U14" s="1">
         <v>20</v>
@@ -4446,16 +4474,16 @@
         <v>2</v>
       </c>
       <c r="Q15" s="3">
-        <v>240</v>
-      </c>
-      <c r="R15" s="1">
-        <v>240</v>
-      </c>
-      <c r="S15" s="1">
-        <v>720</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1200</v>
+        <v>360</v>
+      </c>
+      <c r="R15" s="3">
+        <v>360</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1080</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1800</v>
       </c>
       <c r="U15" s="1">
         <v>20</v>
@@ -4529,16 +4557,16 @@
         <v>2</v>
       </c>
       <c r="Q16" s="3">
-        <v>480</v>
-      </c>
-      <c r="R16" s="1">
-        <v>480</v>
-      </c>
-      <c r="S16" s="1">
-        <v>1440</v>
-      </c>
-      <c r="T16" s="1">
-        <v>2400</v>
+        <v>720</v>
+      </c>
+      <c r="R16" s="3">
+        <v>720</v>
+      </c>
+      <c r="S16" s="3">
+        <v>2160</v>
+      </c>
+      <c r="T16" s="3">
+        <v>3600</v>
       </c>
       <c r="U16" s="1">
         <v>20</v>
@@ -4612,16 +4640,16 @@
         <v>2</v>
       </c>
       <c r="Q17" s="3">
-        <v>160</v>
-      </c>
-      <c r="R17" s="1">
-        <v>80</v>
-      </c>
-      <c r="S17" s="1">
-        <v>160</v>
-      </c>
-      <c r="T17" s="1">
-        <v>400</v>
+        <v>240</v>
+      </c>
+      <c r="R17" s="3">
+        <v>120</v>
+      </c>
+      <c r="S17" s="3">
+        <v>240</v>
+      </c>
+      <c r="T17" s="3">
+        <v>600</v>
       </c>
       <c r="U17" s="1">
         <v>20</v>
@@ -4695,16 +4723,16 @@
         <v>2</v>
       </c>
       <c r="Q18" s="3">
-        <v>480</v>
-      </c>
-      <c r="R18" s="1">
-        <v>240</v>
-      </c>
-      <c r="S18" s="1">
-        <v>480</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1200</v>
+        <v>720</v>
+      </c>
+      <c r="R18" s="3">
+        <v>360</v>
+      </c>
+      <c r="S18" s="3">
+        <v>720</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1800</v>
       </c>
       <c r="U18" s="1">
         <v>20</v>
@@ -4777,17 +4805,17 @@
       <c r="P19" s="1">
         <v>2</v>
       </c>
-      <c r="Q19" s="1">
-        <v>960</v>
-      </c>
-      <c r="R19" s="1">
-        <v>480</v>
-      </c>
-      <c r="S19" s="1">
-        <v>960</v>
-      </c>
-      <c r="T19" s="1">
-        <v>2400</v>
+      <c r="Q19" s="3">
+        <v>1440</v>
+      </c>
+      <c r="R19" s="3">
+        <v>720</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1440</v>
+      </c>
+      <c r="T19" s="3">
+        <v>3600</v>
       </c>
       <c r="U19" s="1">
         <v>20</v>
@@ -4828,22 +4856,22 @@
         <v>8</v>
       </c>
       <c r="F20" s="3">
+        <v>192</v>
+      </c>
+      <c r="G20" s="3">
+        <v>288</v>
+      </c>
+      <c r="H20" s="3">
+        <v>120</v>
+      </c>
+      <c r="I20" s="3">
+        <v>240</v>
+      </c>
+      <c r="J20" s="3">
+        <v>360</v>
+      </c>
+      <c r="K20" s="3">
         <v>320</v>
-      </c>
-      <c r="G20" s="3">
-        <v>480</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>192</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -4860,17 +4888,17 @@
       <c r="P20" s="1">
         <v>4</v>
       </c>
-      <c r="Q20" s="1">
-        <v>160</v>
-      </c>
-      <c r="R20" s="1">
+      <c r="Q20" s="3">
         <v>480</v>
       </c>
-      <c r="S20" s="1">
-        <v>160</v>
-      </c>
-      <c r="T20" s="1">
-        <v>800</v>
+      <c r="R20" s="3">
+        <v>1440</v>
+      </c>
+      <c r="S20" s="3">
+        <v>480</v>
+      </c>
+      <c r="T20" s="3">
+        <v>2400</v>
       </c>
       <c r="U20" s="1">
         <v>40</v>
@@ -4911,22 +4939,22 @@
         <v>16</v>
       </c>
       <c r="F21" s="3">
+        <v>384</v>
+      </c>
+      <c r="G21" s="3">
+        <v>576</v>
+      </c>
+      <c r="H21" s="3">
+        <v>240</v>
+      </c>
+      <c r="I21" s="3">
+        <v>480</v>
+      </c>
+      <c r="J21" s="3">
+        <v>720</v>
+      </c>
+      <c r="K21" s="3">
         <v>640</v>
-      </c>
-      <c r="G21" s="3">
-        <v>960</v>
-      </c>
-      <c r="H21" s="3">
-        <v>400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>384</v>
       </c>
       <c r="L21" s="3">
         <v>200</v>
@@ -4943,17 +4971,17 @@
       <c r="P21" s="1">
         <v>4</v>
       </c>
-      <c r="Q21" s="1">
-        <v>480</v>
-      </c>
-      <c r="R21" s="1">
+      <c r="Q21" s="3">
         <v>1440</v>
       </c>
-      <c r="S21" s="1">
-        <v>480</v>
-      </c>
-      <c r="T21" s="1">
-        <v>2400</v>
+      <c r="R21" s="3">
+        <v>4320</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1440</v>
+      </c>
+      <c r="T21" s="3">
+        <v>7200</v>
       </c>
       <c r="U21" s="1">
         <v>40</v>
@@ -4994,22 +5022,22 @@
         <v>24</v>
       </c>
       <c r="F22" s="3">
+        <v>576</v>
+      </c>
+      <c r="G22" s="3">
+        <v>864</v>
+      </c>
+      <c r="H22" s="3">
+        <v>360</v>
+      </c>
+      <c r="I22" s="1">
+        <v>720</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1080</v>
+      </c>
+      <c r="K22" s="3">
         <v>960</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1440</v>
-      </c>
-      <c r="H22" s="3">
-        <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>576</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -5026,17 +5054,17 @@
       <c r="P22" s="1">
         <v>4</v>
       </c>
-      <c r="Q22" s="1">
-        <v>960</v>
-      </c>
-      <c r="R22" s="1">
+      <c r="Q22" s="3">
         <v>2880</v>
       </c>
-      <c r="S22" s="1">
-        <v>960</v>
-      </c>
-      <c r="T22" s="1">
-        <v>4800</v>
+      <c r="R22" s="3">
+        <v>8640</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2880</v>
+      </c>
+      <c r="T22" s="3">
+        <v>14400</v>
       </c>
       <c r="U22" s="1">
         <v>40</v>
@@ -5079,7 +5107,7 @@
       <c r="F23" s="3">
         <v>160</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <v>480</v>
       </c>
       <c r="H23" s="3">
@@ -5088,7 +5116,7 @@
       <c r="I23" s="1">
         <v>320</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="1">
         <v>384</v>
       </c>
       <c r="K23" s="3">
@@ -5109,17 +5137,17 @@
       <c r="P23" s="1">
         <v>4</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="3">
+        <v>1440</v>
+      </c>
+      <c r="R23" s="3">
         <v>480</v>
       </c>
-      <c r="R23" s="1">
-        <v>160</v>
-      </c>
-      <c r="S23" s="1">
-        <v>160</v>
-      </c>
-      <c r="T23" s="1">
-        <v>800</v>
+      <c r="S23" s="3">
+        <v>480</v>
+      </c>
+      <c r="T23" s="3">
+        <v>2400</v>
       </c>
       <c r="U23" s="1">
         <v>40</v>
@@ -5159,13 +5187,13 @@
       <c r="E24" s="4">
         <v>16</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>320</v>
       </c>
       <c r="G24" s="4">
         <v>960</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>512</v>
       </c>
       <c r="I24" s="1">
@@ -5174,7 +5202,7 @@
       <c r="J24" s="1">
         <v>768</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="1">
         <v>480</v>
       </c>
       <c r="L24" s="1">
@@ -5192,17 +5220,17 @@
       <c r="P24" s="1">
         <v>4</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="3">
+        <v>4320</v>
+      </c>
+      <c r="R24" s="3">
         <v>1440</v>
       </c>
-      <c r="R24" s="1">
-        <v>480</v>
-      </c>
-      <c r="S24" s="1">
-        <v>480</v>
-      </c>
-      <c r="T24" s="1">
-        <v>2400</v>
+      <c r="S24" s="3">
+        <v>1440</v>
+      </c>
+      <c r="T24" s="3">
+        <v>7200</v>
       </c>
       <c r="U24" s="1">
         <v>40</v>
@@ -5275,17 +5303,17 @@
       <c r="P25" s="1">
         <v>4</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="3">
+        <v>8640</v>
+      </c>
+      <c r="R25" s="1">
         <v>2880</v>
       </c>
-      <c r="R25" s="1">
-        <v>960</v>
-      </c>
-      <c r="S25" s="1">
-        <v>960</v>
-      </c>
-      <c r="T25" s="1">
-        <v>4800</v>
+      <c r="S25" s="3">
+        <v>2880</v>
+      </c>
+      <c r="T25" s="3">
+        <v>14400</v>
       </c>
       <c r="U25" s="1">
         <v>40</v>
@@ -5314,8 +5342,6 @@
       <c r="B26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:27" ht="20" customHeight="1">
       <c r="A27" s="4"/>
@@ -5389,8 +5415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L9"/>
+    <sheetView showRuler="0" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5448,7 +5474,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>40</v>
@@ -5460,7 +5486,7 @@
         <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>14</v>
@@ -5486,22 +5512,22 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G2" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1">
+        <v>180</v>
+      </c>
+      <c r="I2" s="1">
+        <v>225</v>
+      </c>
+      <c r="J2" s="1">
         <v>120</v>
       </c>
-      <c r="I2" s="1">
-        <v>150</v>
-      </c>
-      <c r="J2" s="1">
-        <v>80</v>
-      </c>
       <c r="K2" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L2" s="1">
         <v>40</v>
@@ -5601,7 +5627,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -5657,13 +5683,13 @@
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -5672,22 +5698,22 @@
         <v>18</v>
       </c>
       <c r="F5" s="1">
-        <v>346</v>
+        <v>576</v>
       </c>
       <c r="G5" s="1">
-        <v>518</v>
+        <v>864</v>
       </c>
       <c r="H5" s="1">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="I5" s="1">
-        <v>432</v>
+        <v>720</v>
       </c>
       <c r="J5" s="1">
-        <v>648</v>
+        <v>1080</v>
       </c>
       <c r="K5" s="1">
-        <v>900</v>
+        <v>540</v>
       </c>
       <c r="L5" s="1">
         <v>220</v>
@@ -5714,18 +5740,18 @@
         <v>15</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -5734,22 +5760,22 @@
         <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G6" s="1">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="H6" s="1">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="I6" s="1">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="J6" s="1">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="K6" s="1">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="L6" s="1">
         <v>200</v>
@@ -5787,7 +5813,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -5796,22 +5822,22 @@
         <v>7</v>
       </c>
       <c r="F7" s="1">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="G7" s="1">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="H7" s="1">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="I7" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="J7" s="1">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="K7" s="1">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="L7" s="1">
         <v>160</v>
@@ -5843,13 +5869,13 @@
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -5858,22 +5884,22 @@
         <v>13</v>
       </c>
       <c r="F8" s="1">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="G8" s="1">
-        <v>300</v>
+        <v>585</v>
       </c>
       <c r="H8" s="1">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="I8" s="1">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="J8" s="1">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="K8" s="1">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="L8" s="1">
         <v>300</v>
@@ -5905,13 +5931,13 @@
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -5920,22 +5946,22 @@
         <v>25</v>
       </c>
       <c r="F9" s="1">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="G9" s="1">
-        <v>720</v>
+        <v>1500</v>
       </c>
       <c r="H9" s="1">
-        <v>384</v>
+        <v>800</v>
       </c>
       <c r="I9" s="1">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="1">
-        <v>576</v>
+        <v>1200</v>
       </c>
       <c r="K9" s="1">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="L9" s="1">
         <v>560</v>
@@ -5962,7 +5988,7 @@
         <v>20</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="160" windowWidth="36580" windowHeight="19680" tabRatio="288"/>
+    <workbookView xWindow="5060" yWindow="0" windowWidth="36580" windowHeight="19680" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -592,7 +592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1090">
+  <cellStyleXfs count="1094">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -607,6 +607,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1709,7 +1713,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1090">
+  <cellStyles count="1094">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2257,6 +2261,8 @@
     <cellStyle name="超链接" xfId="1084" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1086" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1088" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1090" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1092" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2797,6 +2803,8 @@
     <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1089" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1091" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1093" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3248,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3377,7 +3385,7 @@
         <v>48</v>
       </c>
       <c r="K2" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L2" s="3">
         <v>25</v>
@@ -3460,7 +3468,7 @@
         <v>96</v>
       </c>
       <c r="K3" s="3">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="L3" s="3">
         <v>50</v>
@@ -3543,7 +3551,7 @@
         <v>144</v>
       </c>
       <c r="K4" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="L4" s="3">
         <v>100</v>
@@ -3626,7 +3634,7 @@
         <v>40</v>
       </c>
       <c r="K5" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="L5" s="3">
         <v>30</v>
@@ -3709,7 +3717,7 @@
         <v>80</v>
       </c>
       <c r="K6" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="L6" s="3">
         <v>60</v>
@@ -3792,7 +3800,7 @@
         <v>120</v>
       </c>
       <c r="K7" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="L7" s="3">
         <v>120</v>
@@ -3875,7 +3883,7 @@
         <v>90</v>
       </c>
       <c r="K8" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L8" s="3">
         <v>20</v>
@@ -3958,7 +3966,7 @@
         <v>180</v>
       </c>
       <c r="K9" s="3">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="L9" s="3">
         <v>40</v>
@@ -4041,7 +4049,7 @@
         <v>270</v>
       </c>
       <c r="K10" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="L10" s="3">
         <v>80</v>
@@ -4124,7 +4132,7 @@
         <v>96</v>
       </c>
       <c r="K11" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="L11" s="3">
         <v>22</v>
@@ -4207,7 +4215,7 @@
         <v>192</v>
       </c>
       <c r="K12" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="L12" s="3">
         <v>45</v>
@@ -4290,7 +4298,7 @@
         <v>288</v>
       </c>
       <c r="K13" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="L13" s="3">
         <v>90</v>
@@ -4373,7 +4381,7 @@
         <v>60</v>
       </c>
       <c r="K14" s="3">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="L14" s="3">
         <v>50</v>
@@ -4456,7 +4464,7 @@
         <v>120</v>
       </c>
       <c r="K15" s="3">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -4539,7 +4547,7 @@
         <v>180</v>
       </c>
       <c r="K16" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="L16" s="3">
         <v>150</v>
@@ -4622,7 +4630,7 @@
         <v>128</v>
       </c>
       <c r="K17" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="L17" s="3">
         <v>45</v>
@@ -4705,7 +4713,7 @@
         <v>256</v>
       </c>
       <c r="K18" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="L18" s="3">
         <v>90</v>
@@ -4788,7 +4796,7 @@
         <v>384</v>
       </c>
       <c r="K19" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="L19" s="3">
         <v>135</v>
@@ -4871,7 +4879,7 @@
         <v>360</v>
       </c>
       <c r="K20" s="3">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -4954,7 +4962,7 @@
         <v>720</v>
       </c>
       <c r="K21" s="3">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="L21" s="3">
         <v>200</v>
@@ -5037,7 +5045,7 @@
         <v>1080</v>
       </c>
       <c r="K22" s="3">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -5119,8 +5127,8 @@
       <c r="J23" s="1">
         <v>384</v>
       </c>
-      <c r="K23" s="3">
-        <v>240</v>
+      <c r="K23" s="1">
+        <v>480</v>
       </c>
       <c r="L23" s="1">
         <v>90</v>
@@ -5203,7 +5211,7 @@
         <v>768</v>
       </c>
       <c r="K24" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="L24" s="1">
         <v>180</v>
@@ -5286,7 +5294,7 @@
         <v>1152</v>
       </c>
       <c r="K25" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="L25" s="1">
         <v>270</v>
@@ -5415,8 +5423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:T19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5527,7 +5535,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L2" s="1">
         <v>40</v>
@@ -5589,7 +5597,7 @@
         <v>300</v>
       </c>
       <c r="K3" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L3" s="1">
         <v>30</v>
@@ -5651,7 +5659,7 @@
         <v>135</v>
       </c>
       <c r="K4" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="L4" s="1">
         <v>110</v>
@@ -5713,7 +5721,7 @@
         <v>1080</v>
       </c>
       <c r="K5" s="1">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="L5" s="1">
         <v>220</v>
@@ -5775,7 +5783,7 @@
         <v>105</v>
       </c>
       <c r="K6" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="L6" s="1">
         <v>200</v>
@@ -5837,7 +5845,7 @@
         <v>336</v>
       </c>
       <c r="K7" s="1">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="L7" s="1">
         <v>160</v>
@@ -5899,7 +5907,7 @@
         <v>312</v>
       </c>
       <c r="K8" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="L8" s="1">
         <v>300</v>
@@ -5961,7 +5969,7 @@
         <v>1200</v>
       </c>
       <c r="K9" s="1">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="L9" s="1">
         <v>560</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="0" windowWidth="36580" windowHeight="19680" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="2060" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -592,7 +592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1094">
+  <cellStyleXfs count="1100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -607,6 +607,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1713,7 +1719,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1094">
+  <cellStyles count="1100">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2263,6 +2269,9 @@
     <cellStyle name="超链接" xfId="1088" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1090" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1092" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1094" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1096" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1098" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2805,6 +2814,9 @@
     <cellStyle name="访问过的超链接" xfId="1089" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1091" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1093" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1095" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1097" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1099" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3256,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3418,7 +3430,7 @@
         <v>10</v>
       </c>
       <c r="V2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W2" s="1">
         <v>2</v>
@@ -3501,7 +3513,7 @@
         <v>10</v>
       </c>
       <c r="V3" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="W3" s="1">
         <v>2</v>
@@ -3584,7 +3596,7 @@
         <v>10</v>
       </c>
       <c r="V4" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="W4" s="1">
         <v>2</v>
@@ -3667,7 +3679,7 @@
         <v>10</v>
       </c>
       <c r="V5" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W5" s="1">
         <v>2</v>
@@ -3750,7 +3762,7 @@
         <v>10</v>
       </c>
       <c r="V6" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="W6" s="1">
         <v>2</v>
@@ -3833,7 +3845,7 @@
         <v>10</v>
       </c>
       <c r="V7" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="W7" s="1">
         <v>2</v>
@@ -3916,7 +3928,7 @@
         <v>10</v>
       </c>
       <c r="V8" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W8" s="1">
         <v>2</v>
@@ -3999,7 +4011,7 @@
         <v>10</v>
       </c>
       <c r="V9" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="W9" s="1">
         <v>2</v>
@@ -4082,7 +4094,7 @@
         <v>10</v>
       </c>
       <c r="V10" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="W10" s="1">
         <v>2</v>
@@ -4165,7 +4177,7 @@
         <v>10</v>
       </c>
       <c r="V11" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W11" s="1">
         <v>2</v>
@@ -4248,7 +4260,7 @@
         <v>10</v>
       </c>
       <c r="V12" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="W12" s="1">
         <v>2</v>
@@ -4331,7 +4343,7 @@
         <v>10</v>
       </c>
       <c r="V13" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="W13" s="1">
         <v>2</v>
@@ -4414,7 +4426,7 @@
         <v>20</v>
       </c>
       <c r="V14" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="W14" s="1">
         <v>4</v>
@@ -4497,7 +4509,7 @@
         <v>20</v>
       </c>
       <c r="V15" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="W15" s="1">
         <v>4</v>
@@ -4580,7 +4592,7 @@
         <v>20</v>
       </c>
       <c r="V16" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="W16" s="1">
         <v>4</v>
@@ -4663,7 +4675,7 @@
         <v>20</v>
       </c>
       <c r="V17" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="W17" s="1">
         <v>4</v>
@@ -4746,7 +4758,7 @@
         <v>20</v>
       </c>
       <c r="V18" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="W18" s="1">
         <v>4</v>
@@ -4829,7 +4841,7 @@
         <v>20</v>
       </c>
       <c r="V19" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="W19" s="1">
         <v>4</v>
@@ -4912,7 +4924,7 @@
         <v>40</v>
       </c>
       <c r="V20" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="W20" s="1">
         <v>8</v>
@@ -4995,7 +5007,7 @@
         <v>40</v>
       </c>
       <c r="V21" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="W21" s="1">
         <v>8</v>
@@ -5078,7 +5090,7 @@
         <v>40</v>
       </c>
       <c r="V22" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="W22" s="1">
         <v>8</v>
@@ -5161,7 +5173,7 @@
         <v>40</v>
       </c>
       <c r="V23" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="W23" s="1">
         <v>8</v>
@@ -5244,7 +5256,7 @@
         <v>40</v>
       </c>
       <c r="V24" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="W24" s="1">
         <v>8</v>
@@ -5327,7 +5339,7 @@
         <v>40</v>
       </c>
       <c r="V25" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="W25" s="1">
         <v>8</v>
@@ -5423,8 +5435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5556,7 +5568,7 @@
         <v>15</v>
       </c>
       <c r="R2" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="S2" s="1">
         <v>4</v>
@@ -5618,7 +5630,7 @@
         <v>15</v>
       </c>
       <c r="R3" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="S3" s="1">
         <v>4</v>
@@ -5680,7 +5692,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="1">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="S4" s="1">
         <v>8</v>
@@ -5742,7 +5754,7 @@
         <v>60</v>
       </c>
       <c r="R5" s="1">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="S5" s="1">
         <v>15</v>
@@ -5804,7 +5816,7 @@
         <v>20</v>
       </c>
       <c r="R6" s="1">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="S6" s="1">
         <v>5</v>
@@ -5866,7 +5878,7 @@
         <v>20</v>
       </c>
       <c r="R7" s="1">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="S7" s="1">
         <v>5</v>
@@ -5928,7 +5940,7 @@
         <v>40</v>
       </c>
       <c r="R8" s="1">
-        <v>650</v>
+        <v>260</v>
       </c>
       <c r="S8" s="1">
         <v>10</v>
@@ -5990,7 +6002,7 @@
         <v>80</v>
       </c>
       <c r="R9" s="1">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="S9" s="1">
         <v>20</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="288"/>
+    <workbookView xWindow="17860" yWindow="2820" windowWidth="25600" windowHeight="16060" tabRatio="288" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
     <sheet name="special" sheetId="33" r:id="rId2"/>
+    <sheet name="fightFix" sheetId="48" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
   <si>
     <t>deathKnight</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -435,6 +443,22 @@
   </si>
   <si>
     <t>brightRing_8,holyBook_8,brightAlloy_8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2894,6 +2918,27 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="dragons"/>
+      <sheetName val="fightFix"/>
+      <sheetName val="dragonStar"/>
+      <sheetName val="dragonLevel"/>
+      <sheetName val="dragonSkills"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3268,7 +3313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="Q1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
@@ -6021,4 +6066,144 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="17" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -1,19 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17860" yWindow="2820" windowWidth="25600" windowHeight="16060" tabRatio="288" activeTab="2"/>
+    <workbookView xWindow="2420" yWindow="0" windowWidth="33380" windowHeight="16060" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
     <sheet name="special" sheetId="33" r:id="rId2"/>
     <sheet name="fightFix" sheetId="48" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
@@ -370,95 +367,96 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>skeletonArcher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_1,heroBones_1,magicBox_1</t>
+  </si>
+  <si>
+    <t>meatWagon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>priest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_1,brightRing_1,holyBook_1</t>
+  </si>
+  <si>
+    <t>confessionHood_1,brightRing_1,brightAlloy_1</t>
+  </si>
+  <si>
+    <t>paladin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamTank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_consumeFoodPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatCoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatCoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBones_8,soulStone_8,magicBox_8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_3,holyBook_3,brightAlloy_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightRing_8,holyBook_8,brightAlloy_8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>deathHand_1,heroBones_1,soulStone_1</t>
-  </si>
-  <si>
-    <t>skeletonArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand_1,heroBones_1,magicBox_1</t>
-  </si>
-  <si>
-    <t>meatWagon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>priest</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood_1,brightRing_1,holyBook_1</t>
-  </si>
-  <si>
-    <t>confessionHood_1,brightRing_1,brightAlloy_1</t>
-  </si>
-  <si>
-    <t>paladin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>steamTank</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siege</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_consumeFoodPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_treatCoin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_treatCoin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand_3,heroBones_3,magicBox_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>heroBones_8,soulStone_8,magicBox_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood_3,holyBook_3,brightAlloy_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightRing_8,holyBook_8,brightAlloy_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_index</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_multipleMin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_multipleMax</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_3,soulStone_3,magicBox_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2918,27 +2916,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="dragons"/>
-      <sheetName val="fightFix"/>
-      <sheetName val="dragonStar"/>
-      <sheetName val="dragonLevel"/>
-      <sheetName val="dragonSkills"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3368,7 +3345,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>40</v>
@@ -3392,7 +3369,7 @@
         <v>13</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>14</v>
@@ -5480,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5539,7 +5516,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>40</v>
@@ -5551,7 +5528,7 @@
         <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>14</v>
@@ -5568,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -5624,13 +5601,13 @@
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5692,7 +5669,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -5748,13 +5725,13 @@
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -5805,18 +5782,18 @@
         <v>15</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -5878,7 +5855,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -5934,13 +5911,13 @@
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -5996,13 +5973,13 @@
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -6053,7 +6030,7 @@
         <v>20</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6072,7 +6049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -6086,16 +6063,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -371,9 +371,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>deathHand_1,heroBones_1,magicBox_1</t>
-  </si>
-  <si>
     <t>meatWagon</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -382,12 +379,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>confessionHood_1,brightRing_1,holyBook_1</t>
-  </si>
-  <si>
-    <t>confessionHood_1,brightRing_1,brightAlloy_1</t>
-  </si>
-  <si>
     <t>paladin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -424,18 +415,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>heroBones_8,soulStone_8,magicBox_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood_3,holyBook_3,brightAlloy_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightRing_8,holyBook_8,brightAlloy_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_index</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -452,11 +431,35 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>deathHand_1,heroBones_1,soulStone_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand_3,soulStone_3,magicBox_3</t>
+    <t>magicBox_16</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soulStone_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>holyBook_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightAlloy_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightRing_16</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBones_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3345,7 +3348,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>40</v>
@@ -3369,7 +3372,7 @@
         <v>13</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>14</v>
@@ -5458,14 +5461,14 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="36.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="1" customWidth="1"/>
     <col min="4" max="13" width="17" style="1" customWidth="1"/>
     <col min="14" max="14" width="23" style="1" customWidth="1"/>
     <col min="15" max="16" width="17" style="1" customWidth="1"/>
@@ -5516,7 +5519,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>40</v>
@@ -5528,7 +5531,7 @@
         <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>14</v>
@@ -5545,7 +5548,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -5607,7 +5610,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5669,7 +5672,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -5725,13 +5728,13 @@
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -5782,18 +5785,18 @@
         <v>15</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -5855,7 +5858,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -5911,13 +5914,13 @@
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -5973,13 +5976,13 @@
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -6030,7 +6033,7 @@
         <v>20</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6063,16 +6066,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="0" windowWidth="33380" windowHeight="16060" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="140" yWindow="640" windowWidth="38240" windowHeight="18800" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1100">
+  <cellStyleXfs count="1116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1744,7 +1760,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1100">
+  <cellStyles count="1116">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2297,6 +2313,14 @@
     <cellStyle name="超链接" xfId="1094" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1096" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1098" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1114" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2842,6 +2866,14 @@
     <cellStyle name="访问过的超链接" xfId="1095" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1097" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1099" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1115" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3293,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3304,7 +3336,9 @@
     <col min="15" max="21" width="20.6640625" style="1"/>
     <col min="22" max="22" width="14.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="20.6640625" style="1"/>
+    <col min="24" max="25" width="20.6640625" style="1"/>
+    <col min="26" max="26" width="30.33203125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="20" customHeight="1">
@@ -3407,19 +3441,19 @@
         <v>2</v>
       </c>
       <c r="F2" s="3">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3">
         <v>60</v>
       </c>
-      <c r="G2" s="3">
-        <v>30</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>72</v>
       </c>
-      <c r="I2" s="3">
-        <v>90</v>
-      </c>
       <c r="J2" s="3">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K2" s="3">
         <v>160</v>
@@ -3490,19 +3524,19 @@
         <v>4</v>
       </c>
       <c r="F3" s="3">
+        <v>96</v>
+      </c>
+      <c r="G3" s="3">
+        <v>72</v>
+      </c>
+      <c r="H3" s="3">
         <v>120</v>
       </c>
-      <c r="G3" s="3">
-        <v>60</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>144</v>
       </c>
-      <c r="I3" s="3">
-        <v>180</v>
-      </c>
       <c r="J3" s="3">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K3" s="3">
         <v>320</v>
@@ -3544,10 +3578,10 @@
         <v>2</v>
       </c>
       <c r="X3" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y3" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z3" s="5">
         <v>43200</v>
@@ -3573,19 +3607,19 @@
         <v>6</v>
       </c>
       <c r="F4" s="3">
+        <v>144</v>
+      </c>
+      <c r="G4" s="3">
+        <v>108</v>
+      </c>
+      <c r="H4" s="3">
         <v>180</v>
       </c>
-      <c r="G4" s="3">
-        <v>90</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>216</v>
       </c>
-      <c r="I4" s="3">
-        <v>270</v>
-      </c>
       <c r="J4" s="3">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="K4" s="3">
         <v>480</v>
@@ -3627,10 +3661,10 @@
         <v>2</v>
       </c>
       <c r="X4" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y4" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z4" s="1">
         <v>86400</v>
@@ -3656,19 +3690,19 @@
         <v>2</v>
       </c>
       <c r="F5" s="3">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3">
         <v>80</v>
-      </c>
-      <c r="G5" s="3">
-        <v>64</v>
-      </c>
-      <c r="H5" s="3">
-        <v>120</v>
       </c>
       <c r="I5" s="3">
         <v>96</v>
       </c>
       <c r="J5" s="3">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K5" s="3">
         <v>120</v>
@@ -3739,19 +3773,19 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
+        <v>128</v>
+      </c>
+      <c r="G6" s="3">
+        <v>96</v>
+      </c>
+      <c r="H6" s="3">
         <v>160</v>
-      </c>
-      <c r="G6" s="3">
-        <v>128</v>
-      </c>
-      <c r="H6" s="3">
-        <v>240</v>
       </c>
       <c r="I6" s="3">
         <v>192</v>
       </c>
       <c r="J6" s="3">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="K6" s="3">
         <v>240</v>
@@ -3793,10 +3827,10 @@
         <v>2</v>
       </c>
       <c r="X6" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y6" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z6" s="5">
         <v>43200</v>
@@ -3822,19 +3856,19 @@
         <v>6</v>
       </c>
       <c r="F7" s="3">
+        <v>192</v>
+      </c>
+      <c r="G7" s="3">
+        <v>144</v>
+      </c>
+      <c r="H7" s="3">
         <v>240</v>
-      </c>
-      <c r="G7" s="3">
-        <v>192</v>
-      </c>
-      <c r="H7" s="3">
-        <v>360</v>
       </c>
       <c r="I7" s="3">
         <v>288</v>
       </c>
       <c r="J7" s="3">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="K7" s="3">
         <v>360</v>
@@ -3876,10 +3910,10 @@
         <v>2</v>
       </c>
       <c r="X7" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y7" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z7" s="1">
         <v>86400</v>
@@ -3905,22 +3939,22 @@
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G8" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H8" s="3">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J8" s="3">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K8" s="3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="L8" s="3">
         <v>20</v>
@@ -3988,22 +4022,22 @@
         <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="G9" s="3">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H9" s="3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="I9" s="3">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="J9" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K9" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="L9" s="3">
         <v>40</v>
@@ -4042,10 +4076,10 @@
         <v>2</v>
       </c>
       <c r="X9" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y9" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z9" s="5">
         <v>43200</v>
@@ -4071,22 +4105,22 @@
         <v>6</v>
       </c>
       <c r="F10" s="3">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="G10" s="3">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H10" s="3">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="I10" s="3">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="J10" s="3">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="K10" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="L10" s="3">
         <v>80</v>
@@ -4125,10 +4159,10 @@
         <v>2</v>
       </c>
       <c r="X10" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y10" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z10" s="1">
         <v>86400</v>
@@ -4160,16 +4194,16 @@
         <v>80</v>
       </c>
       <c r="H11" s="3">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J11" s="3">
+        <v>50</v>
+      </c>
+      <c r="K11" s="3">
         <v>96</v>
-      </c>
-      <c r="K11" s="3">
-        <v>120</v>
       </c>
       <c r="L11" s="3">
         <v>22</v>
@@ -4243,16 +4277,16 @@
         <v>160</v>
       </c>
       <c r="H12" s="3">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I12" s="3">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>192</v>
-      </c>
-      <c r="K12" s="3">
-        <v>240</v>
       </c>
       <c r="L12" s="3">
         <v>45</v>
@@ -4291,10 +4325,10 @@
         <v>2</v>
       </c>
       <c r="X12" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y12" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z12" s="5">
         <v>43200</v>
@@ -4326,16 +4360,16 @@
         <v>240</v>
       </c>
       <c r="H13" s="3">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I13" s="3">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="J13" s="3">
+        <v>150</v>
+      </c>
+      <c r="K13" s="3">
         <v>288</v>
-      </c>
-      <c r="K13" s="3">
-        <v>360</v>
       </c>
       <c r="L13" s="3">
         <v>90</v>
@@ -4374,10 +4408,10 @@
         <v>2</v>
       </c>
       <c r="X13" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y13" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z13" s="1">
         <v>86400</v>
@@ -4403,22 +4437,22 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>160</v>
+      </c>
+      <c r="G14" s="3">
+        <v>192</v>
+      </c>
+      <c r="H14" s="3">
+        <v>128</v>
+      </c>
+      <c r="I14" s="3">
         <v>96</v>
       </c>
-      <c r="G14" s="3">
-        <v>144</v>
-      </c>
-      <c r="H14" s="3">
-        <v>120</v>
-      </c>
-      <c r="I14" s="3">
-        <v>180</v>
-      </c>
       <c r="J14" s="3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K14" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="L14" s="3">
         <v>50</v>
@@ -4486,22 +4520,22 @@
         <v>8</v>
       </c>
       <c r="F15" s="3">
+        <v>320</v>
+      </c>
+      <c r="G15" s="3">
+        <v>384</v>
+      </c>
+      <c r="H15" s="3">
+        <v>256</v>
+      </c>
+      <c r="I15" s="3">
         <v>192</v>
       </c>
-      <c r="G15" s="3">
-        <v>288</v>
-      </c>
-      <c r="H15" s="3">
-        <v>240</v>
-      </c>
-      <c r="I15" s="3">
-        <v>360</v>
-      </c>
       <c r="J15" s="3">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="K15" s="3">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -4540,10 +4574,10 @@
         <v>4</v>
       </c>
       <c r="X15" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y15" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z15" s="5">
         <v>43200</v>
@@ -4569,22 +4603,22 @@
         <v>12</v>
       </c>
       <c r="F16" s="3">
+        <v>480</v>
+      </c>
+      <c r="G16" s="3">
+        <v>576</v>
+      </c>
+      <c r="H16" s="3">
+        <v>384</v>
+      </c>
+      <c r="I16" s="3">
         <v>288</v>
       </c>
-      <c r="G16" s="3">
-        <v>432</v>
-      </c>
-      <c r="H16" s="3">
-        <v>360</v>
-      </c>
-      <c r="I16" s="3">
-        <v>540</v>
-      </c>
       <c r="J16" s="3">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="K16" s="3">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="L16" s="3">
         <v>150</v>
@@ -4623,10 +4657,10 @@
         <v>4</v>
       </c>
       <c r="X16" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y16" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z16" s="1">
         <v>86400</v>
@@ -4652,22 +4686,22 @@
         <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="G17" s="3">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H17" s="3">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I17" s="3">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="J17" s="3">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K17" s="3">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>45</v>
@@ -4735,22 +4769,22 @@
         <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>160</v>
+        <v>384</v>
       </c>
       <c r="G18" s="3">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="H18" s="3">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I18" s="3">
-        <v>384</v>
+        <v>230</v>
       </c>
       <c r="J18" s="3">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="K18" s="3">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="L18" s="3">
         <v>90</v>
@@ -4789,10 +4823,10 @@
         <v>4</v>
       </c>
       <c r="X18" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y18" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z18" s="5">
         <v>43200</v>
@@ -4818,22 +4852,22 @@
         <v>12</v>
       </c>
       <c r="F19" s="3">
-        <v>240</v>
+        <v>576</v>
       </c>
       <c r="G19" s="3">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="H19" s="3">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="I19" s="3">
-        <v>576</v>
+        <v>346</v>
       </c>
       <c r="J19" s="3">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="K19" s="3">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="L19" s="3">
         <v>135</v>
@@ -4872,10 +4906,10 @@
         <v>4</v>
       </c>
       <c r="X19" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y19" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z19" s="1">
         <v>86400</v>
@@ -4901,22 +4935,22 @@
         <v>8</v>
       </c>
       <c r="F20" s="3">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="G20" s="3">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="H20" s="3">
-        <v>120</v>
+        <v>307</v>
       </c>
       <c r="I20" s="3">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="J20" s="3">
-        <v>360</v>
+        <v>205</v>
       </c>
       <c r="K20" s="3">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -4984,22 +5018,22 @@
         <v>16</v>
       </c>
       <c r="F21" s="3">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="G21" s="3">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="H21" s="3">
-        <v>240</v>
-      </c>
-      <c r="I21" s="3">
-        <v>480</v>
+        <v>614</v>
+      </c>
+      <c r="I21" s="1">
+        <v>410</v>
       </c>
       <c r="J21" s="3">
-        <v>720</v>
+        <v>410</v>
       </c>
       <c r="K21" s="3">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="L21" s="3">
         <v>200</v>
@@ -5038,10 +5072,10 @@
         <v>8</v>
       </c>
       <c r="X21" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y21" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z21" s="5">
         <v>43200</v>
@@ -5067,22 +5101,22 @@
         <v>24</v>
       </c>
       <c r="F22" s="3">
-        <v>576</v>
-      </c>
-      <c r="G22" s="3">
-        <v>864</v>
+        <v>461</v>
+      </c>
+      <c r="G22" s="4">
+        <v>768</v>
       </c>
       <c r="H22" s="3">
-        <v>360</v>
+        <v>922</v>
       </c>
       <c r="I22" s="1">
-        <v>720</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1080</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1920</v>
+        <v>614</v>
+      </c>
+      <c r="J22" s="1">
+        <v>614</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1800</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -5121,10 +5155,10 @@
         <v>8</v>
       </c>
       <c r="X22" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y22" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z22" s="1">
         <v>86400</v>
@@ -5149,20 +5183,20 @@
       <c r="E23" s="4">
         <v>8</v>
       </c>
-      <c r="F23" s="3">
-        <v>160</v>
+      <c r="F23" s="4">
+        <v>192</v>
       </c>
       <c r="G23" s="4">
-        <v>480</v>
-      </c>
-      <c r="H23" s="3">
+        <v>320</v>
+      </c>
+      <c r="H23" s="1">
+        <v>384</v>
+      </c>
+      <c r="I23" s="1">
         <v>256</v>
       </c>
-      <c r="I23" s="1">
-        <v>320</v>
-      </c>
       <c r="J23" s="1">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="K23" s="1">
         <v>480</v>
@@ -5233,19 +5267,19 @@
         <v>16</v>
       </c>
       <c r="F24" s="4">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="G24" s="4">
-        <v>960</v>
+        <v>640</v>
       </c>
       <c r="H24" s="1">
+        <v>768</v>
+      </c>
+      <c r="I24" s="1">
         <v>512</v>
       </c>
-      <c r="I24" s="1">
-        <v>640</v>
-      </c>
       <c r="J24" s="1">
-        <v>768</v>
+        <v>512</v>
       </c>
       <c r="K24" s="1">
         <v>960</v>
@@ -5287,10 +5321,10 @@
         <v>8</v>
       </c>
       <c r="X24" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y24" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z24" s="5">
         <v>43200</v>
@@ -5315,20 +5349,20 @@
       <c r="E25" s="4">
         <v>24</v>
       </c>
-      <c r="F25" s="4">
-        <v>480</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1440</v>
+      <c r="F25" s="1">
+        <v>576</v>
+      </c>
+      <c r="G25" s="1">
+        <v>960</v>
       </c>
       <c r="H25" s="1">
+        <v>1152</v>
+      </c>
+      <c r="I25" s="1">
         <v>768</v>
       </c>
-      <c r="I25" s="1">
-        <v>960</v>
-      </c>
       <c r="J25" s="1">
-        <v>1152</v>
+        <v>768</v>
       </c>
       <c r="K25" s="1">
         <v>1440</v>
@@ -5370,10 +5404,10 @@
         <v>8</v>
       </c>
       <c r="X25" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y25" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z25" s="1">
         <v>86400</v>
@@ -5460,8 +5494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5557,19 +5591,19 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1">
         <v>150</v>
       </c>
-      <c r="G2" s="1">
-        <v>75</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>180</v>
       </c>
-      <c r="I2" s="1">
-        <v>225</v>
-      </c>
       <c r="J2" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K2" s="1">
         <v>400</v>
@@ -5619,22 +5653,22 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
+        <v>288</v>
+      </c>
+      <c r="G3" s="1">
+        <v>192</v>
+      </c>
+      <c r="H3" s="1">
+        <v>144</v>
+      </c>
+      <c r="I3" s="1">
         <v>240</v>
       </c>
-      <c r="G3" s="1">
-        <v>200</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1">
-        <v>160</v>
-      </c>
       <c r="J3" s="1">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K3" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L3" s="1">
         <v>30</v>
@@ -5681,22 +5715,22 @@
         <v>9</v>
       </c>
       <c r="F4" s="1">
+        <v>360</v>
+      </c>
+      <c r="G4" s="1">
+        <v>432</v>
+      </c>
+      <c r="H4" s="1">
+        <v>288</v>
+      </c>
+      <c r="I4" s="1">
         <v>216</v>
       </c>
-      <c r="G4" s="1">
-        <v>324</v>
-      </c>
-      <c r="H4" s="1">
-        <v>270</v>
-      </c>
-      <c r="I4" s="1">
-        <v>405</v>
-      </c>
       <c r="J4" s="1">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="K4" s="1">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="L4" s="1">
         <v>110</v>
@@ -5743,22 +5777,22 @@
         <v>18</v>
       </c>
       <c r="F5" s="1">
+        <v>346</v>
+      </c>
+      <c r="G5" s="1">
         <v>576</v>
       </c>
-      <c r="G5" s="1">
-        <v>864</v>
-      </c>
       <c r="H5" s="1">
-        <v>360</v>
+        <v>691</v>
       </c>
       <c r="I5" s="1">
-        <v>720</v>
+        <v>461</v>
       </c>
       <c r="J5" s="1">
-        <v>1080</v>
+        <v>461</v>
       </c>
       <c r="K5" s="1">
-        <v>1080</v>
+        <v>1350</v>
       </c>
       <c r="L5" s="1">
         <v>220</v>
@@ -5805,22 +5839,22 @@
         <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="G6" s="1">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H6" s="1">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="I6" s="1">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="J6" s="1">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K6" s="1">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="L6" s="1">
         <v>200</v>
@@ -5867,22 +5901,22 @@
         <v>7</v>
       </c>
       <c r="F7" s="1">
+        <v>525</v>
+      </c>
+      <c r="G7" s="1">
+        <v>350</v>
+      </c>
+      <c r="H7" s="1">
+        <v>280</v>
+      </c>
+      <c r="I7" s="1">
+        <v>175</v>
+      </c>
+      <c r="J7" s="1">
         <v>420</v>
       </c>
-      <c r="G7" s="1">
-        <v>280</v>
-      </c>
-      <c r="H7" s="1">
-        <v>224</v>
-      </c>
-      <c r="I7" s="1">
-        <v>140</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>336</v>
-      </c>
-      <c r="K7" s="1">
-        <v>420</v>
       </c>
       <c r="L7" s="1">
         <v>160</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="640" windowWidth="38240" windowHeight="18800" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="1320" windowWidth="38240" windowHeight="18800" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1116">
+  <cellStyleXfs count="1122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1760,7 +1766,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1116">
+  <cellStyles count="1122">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2321,6 +2327,9 @@
     <cellStyle name="超链接" xfId="1110" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1112" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1120" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2874,6 +2883,9 @@
     <cellStyle name="访问过的超链接" xfId="1111" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1113" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1121" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3325,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:K25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3581,7 +3593,7 @@
         <v>500000</v>
       </c>
       <c r="Y3" s="5">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Z3" s="5">
         <v>43200</v>
@@ -3664,7 +3676,7 @@
         <v>1000000</v>
       </c>
       <c r="Y4" s="5">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Z4" s="1">
         <v>86400</v>
@@ -4079,7 +4091,7 @@
         <v>500000</v>
       </c>
       <c r="Y9" s="5">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Z9" s="5">
         <v>43200</v>
@@ -4162,7 +4174,7 @@
         <v>1000000</v>
       </c>
       <c r="Y10" s="5">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Z10" s="1">
         <v>86400</v>
@@ -4577,7 +4589,7 @@
         <v>500000</v>
       </c>
       <c r="Y15" s="5">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Z15" s="5">
         <v>43200</v>
@@ -4660,7 +4672,7 @@
         <v>1000000</v>
       </c>
       <c r="Y16" s="5">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Z16" s="1">
         <v>86400</v>
@@ -5075,7 +5087,7 @@
         <v>500000</v>
       </c>
       <c r="Y21" s="5">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Z21" s="5">
         <v>43200</v>
@@ -5158,7 +5170,7 @@
         <v>1000000</v>
       </c>
       <c r="Y22" s="5">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Z22" s="1">
         <v>86400</v>
@@ -5494,7 +5506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="1320" windowWidth="38240" windowHeight="18800" tabRatio="288"/>
+    <workbookView xWindow="-60" yWindow="1100" windowWidth="38240" windowHeight="18800" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1122">
+  <cellStyleXfs count="1140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1766,7 +1784,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1122">
+  <cellStyles count="1140">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2330,6 +2348,15 @@
     <cellStyle name="超链接" xfId="1116" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1118" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1138" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2886,6 +2913,15 @@
     <cellStyle name="访问过的超链接" xfId="1117" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1119" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1139" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3337,8 +3373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView showRuler="0" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3474,7 +3510,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="1">
-        <v>170</v>
+        <v>510</v>
       </c>
       <c r="N2" s="6">
         <v>0.5</v>
@@ -3557,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="M3" s="1">
-        <v>170</v>
+        <v>510</v>
       </c>
       <c r="N3" s="6">
         <v>1</v>
@@ -3640,7 +3676,7 @@
         <v>100</v>
       </c>
       <c r="M4" s="1">
-        <v>170</v>
+        <v>510</v>
       </c>
       <c r="N4" s="6">
         <v>1.5</v>
@@ -3723,7 +3759,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="1">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="N5" s="6">
         <v>0.5</v>
@@ -3806,7 +3842,7 @@
         <v>60</v>
       </c>
       <c r="M6" s="1">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="N6" s="6">
         <v>1</v>
@@ -3889,7 +3925,7 @@
         <v>120</v>
       </c>
       <c r="M7" s="1">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="N7" s="6">
         <v>1.5</v>
@@ -3972,7 +4008,7 @@
         <v>20</v>
       </c>
       <c r="M8" s="1">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="N8" s="6">
         <v>0.5</v>
@@ -4055,7 +4091,7 @@
         <v>40</v>
       </c>
       <c r="M9" s="1">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="N9" s="6">
         <v>1</v>
@@ -4138,7 +4174,7 @@
         <v>80</v>
       </c>
       <c r="M10" s="1">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="N10" s="6">
         <v>1.5</v>
@@ -4221,7 +4257,7 @@
         <v>22</v>
       </c>
       <c r="M11" s="1">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N11" s="6">
         <v>0.5</v>
@@ -4304,7 +4340,7 @@
         <v>45</v>
       </c>
       <c r="M12" s="1">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N12" s="6">
         <v>1</v>
@@ -4387,7 +4423,7 @@
         <v>90</v>
       </c>
       <c r="M13" s="1">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N13" s="6">
         <v>1.5</v>
@@ -4470,7 +4506,7 @@
         <v>50</v>
       </c>
       <c r="M14" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N14" s="6">
         <v>1</v>
@@ -4553,7 +4589,7 @@
         <v>100</v>
       </c>
       <c r="M15" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N15" s="6">
         <v>2</v>
@@ -4636,7 +4672,7 @@
         <v>150</v>
       </c>
       <c r="M16" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N16" s="6">
         <v>3</v>
@@ -4719,7 +4755,7 @@
         <v>45</v>
       </c>
       <c r="M17" s="1">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="N17" s="6">
         <v>1</v>
@@ -4802,7 +4838,7 @@
         <v>90</v>
       </c>
       <c r="M18" s="1">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="N18" s="6">
         <v>2</v>
@@ -4885,7 +4921,7 @@
         <v>135</v>
       </c>
       <c r="M19" s="1">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="N19" s="6">
         <v>3</v>
@@ -4968,7 +5004,7 @@
         <v>100</v>
       </c>
       <c r="M20" s="1">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N20" s="6">
         <v>2</v>
@@ -5051,7 +5087,7 @@
         <v>200</v>
       </c>
       <c r="M21" s="1">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N21" s="6">
         <v>4</v>
@@ -5134,7 +5170,7 @@
         <v>300</v>
       </c>
       <c r="M22" s="1">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N22" s="6">
         <v>6</v>
@@ -5217,7 +5253,7 @@
         <v>90</v>
       </c>
       <c r="M23" s="1">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="N23" s="6">
         <v>2</v>
@@ -5300,7 +5336,7 @@
         <v>180</v>
       </c>
       <c r="M24" s="1">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="N24" s="6">
         <v>4</v>
@@ -5383,7 +5419,7 @@
         <v>270</v>
       </c>
       <c r="M25" s="1">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="N25" s="1">
         <v>6</v>
@@ -5506,8 +5542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5624,7 +5660,7 @@
         <v>40</v>
       </c>
       <c r="M2" s="1">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -5686,7 +5722,7 @@
         <v>30</v>
       </c>
       <c r="M3" s="1">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -5748,7 +5784,7 @@
         <v>110</v>
       </c>
       <c r="M4" s="1">
-        <v>185</v>
+        <v>555</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -5810,7 +5846,7 @@
         <v>220</v>
       </c>
       <c r="M5" s="1">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -5872,7 +5908,7 @@
         <v>200</v>
       </c>
       <c r="M6" s="1">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
@@ -5934,7 +5970,7 @@
         <v>160</v>
       </c>
       <c r="M7" s="1">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N7" s="1">
         <v>2</v>
@@ -5996,7 +6032,7 @@
         <v>300</v>
       </c>
       <c r="M8" s="1">
-        <v>220</v>
+        <v>660</v>
       </c>
       <c r="N8" s="1">
         <v>4</v>
@@ -6058,7 +6094,7 @@
         <v>560</v>
       </c>
       <c r="M9" s="1">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="N9" s="1">
         <v>7</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="1100" windowWidth="38240" windowHeight="18800" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="580" windowWidth="38240" windowHeight="18800" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1140">
+  <cellStyleXfs count="1158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1784,7 +1802,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1140">
+  <cellStyles count="1158">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2357,6 +2375,15 @@
     <cellStyle name="超链接" xfId="1134" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1136" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1156" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2922,6 +2949,15 @@
     <cellStyle name="访问过的超链接" xfId="1135" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1137" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1157" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3373,8 +3409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3510,7 +3546,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="1">
-        <v>510</v>
+        <v>85</v>
       </c>
       <c r="N2" s="6">
         <v>0.5</v>
@@ -3593,7 +3629,7 @@
         <v>50</v>
       </c>
       <c r="M3" s="1">
-        <v>510</v>
+        <v>85</v>
       </c>
       <c r="N3" s="6">
         <v>1</v>
@@ -3676,7 +3712,7 @@
         <v>100</v>
       </c>
       <c r="M4" s="1">
-        <v>510</v>
+        <v>85</v>
       </c>
       <c r="N4" s="6">
         <v>1.5</v>
@@ -3759,7 +3795,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="1">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="N5" s="6">
         <v>0.5</v>
@@ -3842,7 +3878,7 @@
         <v>60</v>
       </c>
       <c r="M6" s="1">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="N6" s="6">
         <v>1</v>
@@ -3925,7 +3961,7 @@
         <v>120</v>
       </c>
       <c r="M7" s="1">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="N7" s="6">
         <v>1.5</v>
@@ -4008,7 +4044,7 @@
         <v>20</v>
       </c>
       <c r="M8" s="1">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N8" s="6">
         <v>0.5</v>
@@ -4091,7 +4127,7 @@
         <v>40</v>
       </c>
       <c r="M9" s="1">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N9" s="6">
         <v>1</v>
@@ -4174,7 +4210,7 @@
         <v>80</v>
       </c>
       <c r="M10" s="1">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N10" s="6">
         <v>1.5</v>
@@ -4257,7 +4293,7 @@
         <v>22</v>
       </c>
       <c r="M11" s="1">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="N11" s="6">
         <v>0.5</v>
@@ -4340,7 +4376,7 @@
         <v>45</v>
       </c>
       <c r="M12" s="1">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="N12" s="6">
         <v>1</v>
@@ -4423,7 +4459,7 @@
         <v>90</v>
       </c>
       <c r="M13" s="1">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="N13" s="6">
         <v>1.5</v>
@@ -4506,7 +4542,7 @@
         <v>50</v>
       </c>
       <c r="M14" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N14" s="6">
         <v>1</v>
@@ -4589,7 +4625,7 @@
         <v>100</v>
       </c>
       <c r="M15" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N15" s="6">
         <v>2</v>
@@ -4672,7 +4708,7 @@
         <v>150</v>
       </c>
       <c r="M16" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N16" s="6">
         <v>3</v>
@@ -4755,7 +4791,7 @@
         <v>45</v>
       </c>
       <c r="M17" s="1">
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="N17" s="6">
         <v>1</v>
@@ -4838,7 +4874,7 @@
         <v>90</v>
       </c>
       <c r="M18" s="1">
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="N18" s="6">
         <v>2</v>
@@ -4921,7 +4957,7 @@
         <v>135</v>
       </c>
       <c r="M19" s="1">
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="N19" s="6">
         <v>3</v>
@@ -5004,7 +5040,7 @@
         <v>100</v>
       </c>
       <c r="M20" s="1">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="N20" s="6">
         <v>2</v>
@@ -5087,7 +5123,7 @@
         <v>200</v>
       </c>
       <c r="M21" s="1">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="N21" s="6">
         <v>4</v>
@@ -5170,7 +5206,7 @@
         <v>300</v>
       </c>
       <c r="M22" s="1">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="N22" s="6">
         <v>6</v>
@@ -5253,7 +5289,7 @@
         <v>90</v>
       </c>
       <c r="M23" s="1">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="N23" s="6">
         <v>2</v>
@@ -5336,7 +5372,7 @@
         <v>180</v>
       </c>
       <c r="M24" s="1">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="N24" s="6">
         <v>4</v>
@@ -5419,7 +5455,7 @@
         <v>270</v>
       </c>
       <c r="M25" s="1">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="N25" s="1">
         <v>6</v>
@@ -5542,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L26"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5660,7 +5696,7 @@
         <v>40</v>
       </c>
       <c r="M2" s="1">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -5722,7 +5758,7 @@
         <v>30</v>
       </c>
       <c r="M3" s="1">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -5784,7 +5820,7 @@
         <v>110</v>
       </c>
       <c r="M4" s="1">
-        <v>555</v>
+        <v>95</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -5846,7 +5882,7 @@
         <v>220</v>
       </c>
       <c r="M5" s="1">
-        <v>375</v>
+        <v>65</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -5908,7 +5944,7 @@
         <v>200</v>
       </c>
       <c r="M6" s="1">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
@@ -5970,7 +6006,7 @@
         <v>160</v>
       </c>
       <c r="M7" s="1">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="N7" s="1">
         <v>2</v>
@@ -6032,7 +6068,7 @@
         <v>300</v>
       </c>
       <c r="M8" s="1">
-        <v>660</v>
+        <v>110</v>
       </c>
       <c r="N8" s="1">
         <v>4</v>
@@ -6094,7 +6130,7 @@
         <v>560</v>
       </c>
       <c r="M9" s="1">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="N9" s="1">
         <v>7</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1158">
+  <cellStyleXfs count="1168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1802,7 +1812,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1158">
+  <cellStyles count="1168">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2384,6 +2394,11 @@
     <cellStyle name="超链接" xfId="1152" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1154" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1166" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2958,6 +2973,11 @@
     <cellStyle name="访问过的超链接" xfId="1153" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1155" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1167" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3409,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3543,7 +3563,7 @@
         <v>160</v>
       </c>
       <c r="L2" s="3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1">
         <v>85</v>
@@ -3626,7 +3646,7 @@
         <v>320</v>
       </c>
       <c r="L3" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1">
         <v>85</v>
@@ -3709,7 +3729,7 @@
         <v>480</v>
       </c>
       <c r="L4" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M4" s="1">
         <v>85</v>
@@ -3792,7 +3812,7 @@
         <v>120</v>
       </c>
       <c r="L5" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M5" s="1">
         <v>70</v>
@@ -3875,7 +3895,7 @@
         <v>240</v>
       </c>
       <c r="L6" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1">
         <v>70</v>
@@ -3958,7 +3978,7 @@
         <v>360</v>
       </c>
       <c r="L7" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M7" s="1">
         <v>70</v>
@@ -4041,7 +4061,7 @@
         <v>120</v>
       </c>
       <c r="L8" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M8" s="1">
         <v>80</v>
@@ -4124,7 +4144,7 @@
         <v>240</v>
       </c>
       <c r="L9" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M9" s="1">
         <v>80</v>
@@ -4207,7 +4227,7 @@
         <v>360</v>
       </c>
       <c r="L10" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M10" s="1">
         <v>80</v>
@@ -4290,7 +4310,7 @@
         <v>96</v>
       </c>
       <c r="L11" s="3">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M11" s="1">
         <v>75</v>
@@ -4373,7 +4393,7 @@
         <v>192</v>
       </c>
       <c r="L12" s="3">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M12" s="1">
         <v>75</v>
@@ -4456,7 +4476,7 @@
         <v>288</v>
       </c>
       <c r="L13" s="3">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M13" s="1">
         <v>75</v>
@@ -4539,7 +4559,7 @@
         <v>240</v>
       </c>
       <c r="L14" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M14" s="1">
         <v>100</v>
@@ -4622,7 +4642,7 @@
         <v>480</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M15" s="1">
         <v>100</v>
@@ -4705,7 +4725,7 @@
         <v>720</v>
       </c>
       <c r="L16" s="3">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="M16" s="1">
         <v>100</v>
@@ -4788,7 +4808,7 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M17" s="1">
         <v>120</v>
@@ -4871,7 +4891,7 @@
         <v>400</v>
       </c>
       <c r="L18" s="3">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M18" s="1">
         <v>120</v>
@@ -4954,7 +4974,7 @@
         <v>600</v>
       </c>
       <c r="L19" s="3">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="M19" s="1">
         <v>120</v>
@@ -5037,7 +5057,7 @@
         <v>600</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M20" s="1">
         <v>60</v>
@@ -5120,7 +5140,7 @@
         <v>1200</v>
       </c>
       <c r="L21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M21" s="1">
         <v>60</v>
@@ -5203,7 +5223,7 @@
         <v>1800</v>
       </c>
       <c r="L22" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M22" s="1">
         <v>60</v>
@@ -5286,7 +5306,7 @@
         <v>480</v>
       </c>
       <c r="L23" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M23" s="1">
         <v>65</v>
@@ -5369,7 +5389,7 @@
         <v>960</v>
       </c>
       <c r="L24" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M24" s="1">
         <v>65</v>
@@ -5452,7 +5472,7 @@
         <v>1440</v>
       </c>
       <c r="L25" s="1">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="M25" s="1">
         <v>65</v>
@@ -5579,7 +5599,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:M22"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5693,7 +5713,7 @@
         <v>400</v>
       </c>
       <c r="L2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1">
         <v>70</v>
@@ -5755,7 +5775,7 @@
         <v>250</v>
       </c>
       <c r="L3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1">
         <v>75</v>
@@ -5817,7 +5837,7 @@
         <v>540</v>
       </c>
       <c r="L4" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="M4" s="1">
         <v>95</v>
@@ -5879,7 +5899,7 @@
         <v>1350</v>
       </c>
       <c r="L5" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="M5" s="1">
         <v>65</v>
@@ -5941,7 +5961,7 @@
         <v>525</v>
       </c>
       <c r="L6" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M6" s="1">
         <v>80</v>
@@ -6003,7 +6023,7 @@
         <v>336</v>
       </c>
       <c r="L7" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="M7" s="1">
         <v>75</v>
@@ -6065,7 +6085,7 @@
         <v>1040</v>
       </c>
       <c r="L8" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M8" s="1">
         <v>110</v>
@@ -6127,7 +6147,7 @@
         <v>1500</v>
       </c>
       <c r="L9" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="M9" s="1">
         <v>70</v>

--- a/gameData/shared/Soldiers.xlsx
+++ b/gameData/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="580" windowWidth="38240" windowHeight="18800" tabRatio="288"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="38240" windowHeight="18800" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1168">
+  <cellStyleXfs count="1184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1812,7 +1828,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1168">
+  <cellStyles count="1184">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2399,6 +2415,14 @@
     <cellStyle name="超链接" xfId="1162" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1164" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1182" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2978,6 +3002,14 @@
     <cellStyle name="访问过的超链接" xfId="1163" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1165" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1183" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3429,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26:L64"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3566,7 +3598,7 @@
         <v>12</v>
       </c>
       <c r="M2" s="1">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="N2" s="6">
         <v>0.5</v>
@@ -3649,7 +3681,7 @@
         <v>25</v>
       </c>
       <c r="M3" s="1">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="N3" s="6">
         <v>1</v>
@@ -3732,7 +3764,7 @@
         <v>50</v>
       </c>
       <c r="M4" s="1">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="N4" s="6">
         <v>1.5</v>
@@ -3815,7 +3847,7 @@
         <v>15</v>
       </c>
       <c r="M5" s="1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N5" s="6">
         <v>0.5</v>
@@ -3898,7 +3930,7 @@
         <v>30</v>
       </c>
       <c r="M6" s="1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N6" s="6">
         <v>1</v>
@@ -3981,7 +4013,7 @@
         <v>60</v>
       </c>
       <c r="M7" s="1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N7" s="6">
         <v>1.5</v>
@@ -4064,7 +4096,7 @@
         <v>10</v>
       </c>
       <c r="M8" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N8" s="6">
         <v>0.5</v>
@@ -4147,7 +4179,7 @@
         <v>20</v>
       </c>
       <c r="M9" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N9" s="6">
         <v>1</v>
@@ -4230,7 +4262,7 @@
         <v>40</v>
       </c>
       <c r="M10" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N10" s="6">
         <v>1.5</v>
@@ -4313,7 +4345,7 @@
         <v>11</v>
       </c>
       <c r="M11" s="1">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N11" s="6">
         <v>0.5</v>
@@ -4396,7 +4428,7 @@
         <v>22</v>
       </c>
       <c r="M12" s="1">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N12" s="6">
         <v>1</v>
@@ -4479,7 +4511,7 @@
         <v>45</v>
       </c>
       <c r="M13" s="1">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N13" s="6">
         <v>1.5</v>
@@ -4562,7 +4594,7 @@
         <v>25</v>
       </c>
       <c r="M14" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N14" s="6">
         <v>1</v>
@@ -4645,7 +4677,7 @@
         <v>50</v>
       </c>
       <c r="M15" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N15" s="6">
         <v>2</v>
@@ -4728,7 +4760,7 @@
         <v>75</v>
       </c>
       <c r="M16" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N16" s="6">
         <v>3</v>
@@ -4811,7 +4843,7 @@
         <v>22</v>
       </c>
       <c r="M17" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N17" s="6">
         <v>1</v>
@@ -4894,7 +4926,7 @@
         <v>45</v>
       </c>
       <c r="M18" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N18" s="6">
         <v>2</v>
@@ -4977,7 +5009,7 @@
         <v>67</v>
       </c>
       <c r="M19" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N19" s="6">
         <v>3</v>
@@ -5060,7 +5092,7 @@
         <v>50</v>
       </c>
       <c r="M20" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N20" s="6">
         <v>2</v>
@@ -5143,7 +5175,7 @@
         <v>100</v>
       </c>
       <c r="M21" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N21" s="6">
         <v>4</v>
@@ -5226,7 +5258,7 @@
         <v>150</v>
       </c>
       <c r="M22" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N22" s="6">
         <v>6</v>
@@ -5309,7 +5341,7 @@
         <v>45</v>
       </c>
       <c r="M23" s="1">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N23" s="6">
         <v>2</v>
@@ -5392,7 +5424,7 @@
         <v>90</v>
       </c>
       <c r="M24" s="1">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N24" s="6">
         <v>4</v>
@@ -5475,7 +5507,7 @@
         <v>135</v>
       </c>
       <c r="M25" s="1">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N25" s="1">
         <v>6</v>
@@ -5598,8 +5630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5716,7 +5748,7 @@
         <v>20</v>
       </c>
       <c r="M2" s="1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -5778,7 +5810,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="1">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -5840,7 +5872,7 @@
         <v>55</v>
       </c>
       <c r="M4" s="1">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -5902,7 +5934,7 @@
         <v>110</v>
       </c>
       <c r="M5" s="1">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -5964,7 +5996,7 @@
         <v>100</v>
       </c>
       <c r="M6" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
@@ -6026,7 +6058,7 @@
         <v>80</v>
       </c>
       <c r="M7" s="1">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N7" s="1">
         <v>2</v>
@@ -6088,7 +6120,7 @@
         <v>150</v>
       </c>
       <c r="M8" s="1">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="N8" s="1">
         <v>4</v>
@@ -6150,7 +6182,7 @@
         <v>280</v>
       </c>
       <c r="M9" s="1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N9" s="1">
         <v>7</v>
